--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -2402,10 +2402,10 @@
   <dimension ref="A1:XEM160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,13 +2638,13 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="E10" s="79">
-        <v>5.0000000000000001E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F10" s="79">
-        <v>5.0000000000000001E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="G10" s="79">
-        <v>5.0000000000000001E-9</v>
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -71530,9 +71530,15 @@
       <c r="D160" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E160" s="84"/>
-      <c r="F160" s="84"/>
-      <c r="G160" s="84"/>
+      <c r="E160" s="84">
+        <v>8</v>
+      </c>
+      <c r="F160" s="84">
+        <v>9</v>
+      </c>
+      <c r="G160" s="84">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="398">
   <si>
     <t>input_file</t>
   </si>
@@ -1214,7 +1214,7 @@
     <t>Emission rate of seminal/adventitious roots over time</t>
   </si>
   <si>
-    <t>net_rhizodeposition_rate_per_day_per_cm</t>
+    <t>actual_time_since_cells_formation</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1846,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2016,9 +2016,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2399,13 +2396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEM160"/>
+  <dimension ref="A1:XEK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,10 +2411,10 @@
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="47" customWidth="1"/>
-    <col min="5" max="7" width="16.77734375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -2431,16 +2428,10 @@
         <v>392</v>
       </c>
       <c r="E1" s="45">
-        <v>8</v>
-      </c>
-      <c r="F1" s="45">
-        <v>9</v>
-      </c>
-      <c r="G1" s="45">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2456,14 +2447,8 @@
       <c r="E2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2479,14 +2464,8 @@
       <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="39">
-        <v>1</v>
-      </c>
-      <c r="G3" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -2502,14 +2481,8 @@
       <c r="E4" s="39">
         <v>180</v>
       </c>
-      <c r="F4" s="39">
-        <v>180</v>
-      </c>
-      <c r="G4" s="39">
-        <v>180</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2525,14 +2498,8 @@
       <c r="E5" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="F5" s="40">
-        <v>4.1666666999999998E-2</v>
-      </c>
-      <c r="G5" s="40">
-        <v>4.1666666999999998E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2548,14 +2515,8 @@
       <c r="E6" s="39">
         <v>5</v>
       </c>
-      <c r="F6" s="39">
-        <v>5</v>
-      </c>
-      <c r="G6" s="39">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -2571,14 +2532,8 @@
       <c r="E7" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2594,14 +2549,8 @@
       <c r="E8" s="39">
         <v>1</v>
       </c>
-      <c r="F8" s="39">
-        <v>1</v>
-      </c>
-      <c r="G8" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2614,17 +2563,11 @@
       <c r="D9" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2640,14 +2583,8 @@
       <c r="E10" s="79">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="F10" s="79">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="G10" s="79">
-        <v>1.0000000000000001E-9</v>
-      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2663,14 +2600,8 @@
       <c r="E11" s="39">
         <v>10</v>
       </c>
-      <c r="F11" s="39">
-        <v>10</v>
-      </c>
-      <c r="G11" s="39">
-        <v>10</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2686,14 +2617,8 @@
       <c r="E12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2709,14 +2634,8 @@
       <c r="E13" s="82">
         <v>2</v>
       </c>
-      <c r="F13" s="82">
-        <v>2</v>
-      </c>
-      <c r="G13" s="82">
-        <v>2</v>
-      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>376</v>
       </c>
@@ -2732,14 +2651,8 @@
       <c r="E14" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>378</v>
       </c>
@@ -2755,14 +2668,8 @@
       <c r="E15" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>390</v>
       </c>
@@ -2778,14 +2685,8 @@
       <c r="E16" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>389</v>
       </c>
@@ -2801,14 +2702,8 @@
       <c r="E17" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>388</v>
       </c>
@@ -2824,14 +2719,8 @@
       <c r="E18" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -2847,14 +2736,8 @@
       <c r="E19" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
@@ -2870,14 +2753,8 @@
       <c r="E20" s="39">
         <v>0.33</v>
       </c>
-      <c r="F20" s="39">
-        <v>0.33</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0.33</v>
-      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2893,14 +2770,8 @@
       <c r="E21" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>9</v>
       </c>
@@ -2916,14 +2787,8 @@
       <c r="E22" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
@@ -2939,14 +2804,8 @@
       <c r="E23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
@@ -2959,17 +2818,11 @@
       <c r="D24" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>397</v>
-      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
@@ -2982,17 +2835,11 @@
       <c r="D25" s="54">
         <v>1E-8</v>
       </c>
-      <c r="E25" s="41">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F25" s="41">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="G25" s="41">
-        <v>9.9999999999999995E-8</v>
+      <c r="E25" s="79">
+        <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
@@ -3005,17 +2852,11 @@
       <c r="D26" s="54">
         <v>1</v>
       </c>
-      <c r="E26" s="41">
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="41">
-        <v>0.01</v>
-      </c>
-      <c r="G26" s="41">
-        <v>0.01</v>
+      <c r="E26" s="79">
+        <v>10000000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
@@ -3031,14 +2872,8 @@
       <c r="E27" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
@@ -3054,14 +2889,8 @@
       <c r="E28" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
@@ -3077,14 +2906,8 @@
       <c r="E29" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -3100,14 +2923,8 @@
       <c r="E30" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
@@ -3123,14 +2940,8 @@
       <c r="E31" s="39">
         <v>120</v>
       </c>
-      <c r="F31" s="39">
-        <v>120</v>
-      </c>
-      <c r="G31" s="39">
-        <v>120</v>
-      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -3146,14 +2957,8 @@
       <c r="E32" s="39">
         <v>0</v>
       </c>
-      <c r="F32" s="39">
-        <v>0</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
@@ -3169,14 +2974,8 @@
       <c r="E33" s="39">
         <v>0</v>
       </c>
-      <c r="F33" s="39">
-        <v>0</v>
-      </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
@@ -3192,14 +2991,8 @@
       <c r="E34" s="39">
         <v>-0.1</v>
       </c>
-      <c r="F34" s="39">
-        <v>-0.1</v>
-      </c>
-      <c r="G34" s="39">
-        <v>-0.1</v>
-      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
@@ -3215,14 +3008,8 @@
       <c r="E35" s="39">
         <v>-0.2</v>
       </c>
-      <c r="F35" s="39">
-        <v>-0.2</v>
-      </c>
-      <c r="G35" s="39">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
@@ -3238,14 +3025,8 @@
       <c r="E36" s="39">
         <v>0.4</v>
       </c>
-      <c r="F36" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="39">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
@@ -3261,14 +3042,8 @@
       <c r="E37" s="39">
         <v>0</v>
       </c>
-      <c r="F37" s="39">
-        <v>0</v>
-      </c>
-      <c r="G37" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
@@ -3284,14 +3059,8 @@
       <c r="E38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>16</v>
       </c>
@@ -3307,14 +3076,8 @@
       <c r="E39" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>17</v>
       </c>
@@ -3330,14 +3093,8 @@
       <c r="E40" s="39">
         <v>0</v>
       </c>
-      <c r="F40" s="39">
-        <v>0</v>
-      </c>
-      <c r="G40" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>18</v>
       </c>
@@ -3353,14 +3110,8 @@
       <c r="E41" s="39">
         <v>0.5</v>
       </c>
-      <c r="F41" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="39">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -3376,14 +3127,8 @@
       <c r="E42" s="39">
         <v>0.05</v>
       </c>
-      <c r="F42" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G42" s="39">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>36</v>
       </c>
@@ -3399,14 +3144,8 @@
       <c r="E43" s="41">
         <v>1E-3</v>
       </c>
-      <c r="F43" s="41">
-        <v>1E-3</v>
-      </c>
-      <c r="G43" s="41">
-        <v>1E-3</v>
-      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>393</v>
       </c>
@@ -3422,14 +3161,8 @@
       <c r="E44" s="39">
         <v>0</v>
       </c>
-      <c r="F44" s="39">
-        <v>0</v>
-      </c>
-      <c r="G44" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>37</v>
       </c>
@@ -3445,14 +3178,8 @@
       <c r="E45" s="39">
         <v>1E-4</v>
       </c>
-      <c r="F45" s="39">
-        <v>1E-4</v>
-      </c>
-      <c r="G45" s="39">
-        <v>1E-4</v>
-      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>38</v>
       </c>
@@ -3468,14 +3195,8 @@
       <c r="E46" s="39">
         <v>1E-4</v>
       </c>
-      <c r="F46" s="39">
-        <v>1E-4</v>
-      </c>
-      <c r="G46" s="39">
-        <v>1E-4</v>
-      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>39</v>
       </c>
@@ -3491,14 +3212,8 @@
       <c r="E47" s="39">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="F47" s="39">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="G47" s="39">
-        <v>6.9999999999999999E-4</v>
-      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>40</v>
       </c>
@@ -3514,14 +3229,8 @@
       <c r="E48" s="39">
         <v>1.22E-4</v>
       </c>
-      <c r="F48" s="39">
-        <v>1.22E-4</v>
-      </c>
-      <c r="G48" s="39">
-        <v>1.22E-4</v>
-      </c>
     </row>
-    <row r="49" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>220</v>
       </c>
@@ -3537,11 +3246,13 @@
       <c r="E49" s="39">
         <v>1</v>
       </c>
-      <c r="F49" s="39">
-        <v>1</v>
-      </c>
-      <c r="G49" s="39">
-        <v>1</v>
+      <c r="F49" t="str">
+        <f>IF(ISNA(VLOOKUP(#REF!,$B$2:$B$159,1,FALSE)),#REF!,"")</f>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(ISNA(VLOOKUP(#REF!,$B$2:$B$159,1,FALSE)),#REF!,"")</f>
+        <v/>
       </c>
       <c r="H49" t="str">
         <f>IF(ISNA(VLOOKUP(#REF!,$B$2:$B$159,1,FALSE)),#REF!,"")</f>
@@ -3700,15 +3411,15 @@
         <v/>
       </c>
       <c r="AU49" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,$B$2:$B$159,1,FALSE)),#REF!,"")</f>
+        <f t="shared" ref="AU49:DF49" si="0">IF(ISNA(VLOOKUP(AS49,$B$2:$B$159,1,FALSE)),AS49,"")</f>
         <v/>
       </c>
       <c r="AV49" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,$B$2:$B$159,1,FALSE)),#REF!,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AW49" t="str">
-        <f t="shared" ref="AW49:DH49" si="0">IF(ISNA(VLOOKUP(AU49,$B$2:$B$159,1,FALSE)),AU49,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AX49" t="str">
@@ -3956,15 +3667,15 @@
         <v/>
       </c>
       <c r="DG49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="DG49:FR49" si="1">IF(ISNA(VLOOKUP(DE49,$B$2:$B$159,1,FALSE)),DE49,"")</f>
         <v/>
       </c>
       <c r="DH49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="DI49" t="str">
-        <f t="shared" ref="DI49:FT49" si="1">IF(ISNA(VLOOKUP(DG49,$B$2:$B$159,1,FALSE)),DG49,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="DJ49" t="str">
@@ -4212,15 +3923,15 @@
         <v/>
       </c>
       <c r="FS49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="FS49:ID49" si="2">IF(ISNA(VLOOKUP(FQ49,$B$2:$B$159,1,FALSE)),FQ49,"")</f>
         <v/>
       </c>
       <c r="FT49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="FU49" t="str">
-        <f t="shared" ref="FU49:IF49" si="2">IF(ISNA(VLOOKUP(FS49,$B$2:$B$159,1,FALSE)),FS49,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="FV49" t="str">
@@ -4468,15 +4179,15 @@
         <v/>
       </c>
       <c r="IE49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="IE49:KP49" si="3">IF(ISNA(VLOOKUP(IC49,$B$2:$B$159,1,FALSE)),IC49,"")</f>
         <v/>
       </c>
       <c r="IF49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="IG49" t="str">
-        <f t="shared" ref="IG49:KR49" si="3">IF(ISNA(VLOOKUP(IE49,$B$2:$B$159,1,FALSE)),IE49,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="IH49" t="str">
@@ -4724,15 +4435,15 @@
         <v/>
       </c>
       <c r="KQ49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="KQ49:NB49" si="4">IF(ISNA(VLOOKUP(KO49,$B$2:$B$159,1,FALSE)),KO49,"")</f>
         <v/>
       </c>
       <c r="KR49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="KS49" t="str">
-        <f t="shared" ref="KS49:ND49" si="4">IF(ISNA(VLOOKUP(KQ49,$B$2:$B$159,1,FALSE)),KQ49,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="KT49" t="str">
@@ -4980,15 +4691,15 @@
         <v/>
       </c>
       <c r="NC49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="NC49:PN49" si="5">IF(ISNA(VLOOKUP(NA49,$B$2:$B$159,1,FALSE)),NA49,"")</f>
         <v/>
       </c>
       <c r="ND49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="NE49" t="str">
-        <f t="shared" ref="NE49:PP49" si="5">IF(ISNA(VLOOKUP(NC49,$B$2:$B$159,1,FALSE)),NC49,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="NF49" t="str">
@@ -5236,15 +4947,15 @@
         <v/>
       </c>
       <c r="PO49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="PO49:RZ49" si="6">IF(ISNA(VLOOKUP(PM49,$B$2:$B$159,1,FALSE)),PM49,"")</f>
         <v/>
       </c>
       <c r="PP49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="PQ49" t="str">
-        <f t="shared" ref="PQ49:SB49" si="6">IF(ISNA(VLOOKUP(PO49,$B$2:$B$159,1,FALSE)),PO49,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="PR49" t="str">
@@ -5492,15 +5203,15 @@
         <v/>
       </c>
       <c r="SA49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="SA49:UL49" si="7">IF(ISNA(VLOOKUP(RY49,$B$2:$B$159,1,FALSE)),RY49,"")</f>
         <v/>
       </c>
       <c r="SB49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="SC49" t="str">
-        <f t="shared" ref="SC49:UN49" si="7">IF(ISNA(VLOOKUP(SA49,$B$2:$B$159,1,FALSE)),SA49,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="SD49" t="str">
@@ -5748,15 +5459,15 @@
         <v/>
       </c>
       <c r="UM49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="UM49:WX49" si="8">IF(ISNA(VLOOKUP(UK49,$B$2:$B$159,1,FALSE)),UK49,"")</f>
         <v/>
       </c>
       <c r="UN49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="UO49" t="str">
-        <f t="shared" ref="UO49:WZ49" si="8">IF(ISNA(VLOOKUP(UM49,$B$2:$B$159,1,FALSE)),UM49,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="UP49" t="str">
@@ -6004,15 +5715,15 @@
         <v/>
       </c>
       <c r="WY49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="WY49:ZJ49" si="9">IF(ISNA(VLOOKUP(WW49,$B$2:$B$159,1,FALSE)),WW49,"")</f>
         <v/>
       </c>
       <c r="WZ49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="XA49" t="str">
-        <f t="shared" ref="XA49:ZL49" si="9">IF(ISNA(VLOOKUP(WY49,$B$2:$B$159,1,FALSE)),WY49,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="XB49" t="str">
@@ -6260,15 +5971,15 @@
         <v/>
       </c>
       <c r="ZK49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="ZK49:ABV49" si="10">IF(ISNA(VLOOKUP(ZI49,$B$2:$B$159,1,FALSE)),ZI49,"")</f>
         <v/>
       </c>
       <c r="ZL49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="ZM49" t="str">
-        <f t="shared" ref="ZM49:ABX49" si="10">IF(ISNA(VLOOKUP(ZK49,$B$2:$B$159,1,FALSE)),ZK49,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="ZN49" t="str">
@@ -6516,15 +6227,15 @@
         <v/>
       </c>
       <c r="ABW49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="ABW49:AEH49" si="11">IF(ISNA(VLOOKUP(ABU49,$B$2:$B$159,1,FALSE)),ABU49,"")</f>
         <v/>
       </c>
       <c r="ABX49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="ABY49" t="str">
-        <f t="shared" ref="ABY49:AEJ49" si="11">IF(ISNA(VLOOKUP(ABW49,$B$2:$B$159,1,FALSE)),ABW49,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="ABZ49" t="str">
@@ -6772,15 +6483,15 @@
         <v/>
       </c>
       <c r="AEI49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AEI49:AGT49" si="12">IF(ISNA(VLOOKUP(AEG49,$B$2:$B$159,1,FALSE)),AEG49,"")</f>
         <v/>
       </c>
       <c r="AEJ49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AEK49" t="str">
-        <f t="shared" ref="AEK49:AGV49" si="12">IF(ISNA(VLOOKUP(AEI49,$B$2:$B$159,1,FALSE)),AEI49,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AEL49" t="str">
@@ -7028,15 +6739,15 @@
         <v/>
       </c>
       <c r="AGU49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AGU49:AJF49" si="13">IF(ISNA(VLOOKUP(AGS49,$B$2:$B$159,1,FALSE)),AGS49,"")</f>
         <v/>
       </c>
       <c r="AGV49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AGW49" t="str">
-        <f t="shared" ref="AGW49:AJH49" si="13">IF(ISNA(VLOOKUP(AGU49,$B$2:$B$159,1,FALSE)),AGU49,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AGX49" t="str">
@@ -7284,15 +6995,15 @@
         <v/>
       </c>
       <c r="AJG49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AJG49:ALR49" si="14">IF(ISNA(VLOOKUP(AJE49,$B$2:$B$159,1,FALSE)),AJE49,"")</f>
         <v/>
       </c>
       <c r="AJH49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJI49" t="str">
-        <f t="shared" ref="AJI49:ALT49" si="14">IF(ISNA(VLOOKUP(AJG49,$B$2:$B$159,1,FALSE)),AJG49,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJJ49" t="str">
@@ -7540,15 +7251,15 @@
         <v/>
       </c>
       <c r="ALS49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="ALS49:AOD49" si="15">IF(ISNA(VLOOKUP(ALQ49,$B$2:$B$159,1,FALSE)),ALQ49,"")</f>
         <v/>
       </c>
       <c r="ALT49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="ALU49" t="str">
-        <f t="shared" ref="ALU49:AOF49" si="15">IF(ISNA(VLOOKUP(ALS49,$B$2:$B$159,1,FALSE)),ALS49,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="ALV49" t="str">
@@ -7796,15 +7507,15 @@
         <v/>
       </c>
       <c r="AOE49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AOE49:AQP49" si="16">IF(ISNA(VLOOKUP(AOC49,$B$2:$B$159,1,FALSE)),AOC49,"")</f>
         <v/>
       </c>
       <c r="AOF49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AOG49" t="str">
-        <f t="shared" ref="AOG49:AQR49" si="16">IF(ISNA(VLOOKUP(AOE49,$B$2:$B$159,1,FALSE)),AOE49,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AOH49" t="str">
@@ -8052,15 +7763,15 @@
         <v/>
       </c>
       <c r="AQQ49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AQQ49:ATB49" si="17">IF(ISNA(VLOOKUP(AQO49,$B$2:$B$159,1,FALSE)),AQO49,"")</f>
         <v/>
       </c>
       <c r="AQR49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AQS49" t="str">
-        <f t="shared" ref="AQS49:ATD49" si="17">IF(ISNA(VLOOKUP(AQQ49,$B$2:$B$159,1,FALSE)),AQQ49,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AQT49" t="str">
@@ -8308,15 +8019,15 @@
         <v/>
       </c>
       <c r="ATC49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="ATC49:AVN49" si="18">IF(ISNA(VLOOKUP(ATA49,$B$2:$B$159,1,FALSE)),ATA49,"")</f>
         <v/>
       </c>
       <c r="ATD49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="ATE49" t="str">
-        <f t="shared" ref="ATE49:AVP49" si="18">IF(ISNA(VLOOKUP(ATC49,$B$2:$B$159,1,FALSE)),ATC49,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="ATF49" t="str">
@@ -8564,15 +8275,15 @@
         <v/>
       </c>
       <c r="AVO49" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AVO49:AXZ49" si="19">IF(ISNA(VLOOKUP(AVM49,$B$2:$B$159,1,FALSE)),AVM49,"")</f>
         <v/>
       </c>
       <c r="AVP49" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AVQ49" t="str">
-        <f t="shared" ref="AVQ49:AYB49" si="19">IF(ISNA(VLOOKUP(AVO49,$B$2:$B$159,1,FALSE)),AVO49,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AVR49" t="str">
@@ -8820,15 +8531,15 @@
         <v/>
       </c>
       <c r="AYA49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AYA49:BAL49" si="20">IF(ISNA(VLOOKUP(AXY49,$B$2:$B$159,1,FALSE)),AXY49,"")</f>
         <v/>
       </c>
       <c r="AYB49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AYC49" t="str">
-        <f t="shared" ref="AYC49:BAN49" si="20">IF(ISNA(VLOOKUP(AYA49,$B$2:$B$159,1,FALSE)),AYA49,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AYD49" t="str">
@@ -9076,15 +8787,15 @@
         <v/>
       </c>
       <c r="BAM49" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BAM49:BCX49" si="21">IF(ISNA(VLOOKUP(BAK49,$B$2:$B$159,1,FALSE)),BAK49,"")</f>
         <v/>
       </c>
       <c r="BAN49" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BAO49" t="str">
-        <f t="shared" ref="BAO49:BCZ49" si="21">IF(ISNA(VLOOKUP(BAM49,$B$2:$B$159,1,FALSE)),BAM49,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BAP49" t="str">
@@ -9332,15 +9043,15 @@
         <v/>
       </c>
       <c r="BCY49" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BCY49:BFJ49" si="22">IF(ISNA(VLOOKUP(BCW49,$B$2:$B$159,1,FALSE)),BCW49,"")</f>
         <v/>
       </c>
       <c r="BCZ49" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BDA49" t="str">
-        <f t="shared" ref="BDA49:BFL49" si="22">IF(ISNA(VLOOKUP(BCY49,$B$2:$B$159,1,FALSE)),BCY49,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BDB49" t="str">
@@ -9588,15 +9299,15 @@
         <v/>
       </c>
       <c r="BFK49" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="BFK49:BHV49" si="23">IF(ISNA(VLOOKUP(BFI49,$B$2:$B$159,1,FALSE)),BFI49,"")</f>
         <v/>
       </c>
       <c r="BFL49" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BFM49" t="str">
-        <f t="shared" ref="BFM49:BHX49" si="23">IF(ISNA(VLOOKUP(BFK49,$B$2:$B$159,1,FALSE)),BFK49,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BFN49" t="str">
@@ -9844,15 +9555,15 @@
         <v/>
       </c>
       <c r="BHW49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="BHW49:BKH49" si="24">IF(ISNA(VLOOKUP(BHU49,$B$2:$B$159,1,FALSE)),BHU49,"")</f>
         <v/>
       </c>
       <c r="BHX49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BHY49" t="str">
-        <f t="shared" ref="BHY49:BKJ49" si="24">IF(ISNA(VLOOKUP(BHW49,$B$2:$B$159,1,FALSE)),BHW49,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BHZ49" t="str">
@@ -10100,15 +9811,15 @@
         <v/>
       </c>
       <c r="BKI49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BKI49:BMT49" si="25">IF(ISNA(VLOOKUP(BKG49,$B$2:$B$159,1,FALSE)),BKG49,"")</f>
         <v/>
       </c>
       <c r="BKJ49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BKK49" t="str">
-        <f t="shared" ref="BKK49:BMV49" si="25">IF(ISNA(VLOOKUP(BKI49,$B$2:$B$159,1,FALSE)),BKI49,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BKL49" t="str">
@@ -10356,15 +10067,15 @@
         <v/>
       </c>
       <c r="BMU49" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="BMU49:BPF49" si="26">IF(ISNA(VLOOKUP(BMS49,$B$2:$B$159,1,FALSE)),BMS49,"")</f>
         <v/>
       </c>
       <c r="BMV49" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BMW49" t="str">
-        <f t="shared" ref="BMW49:BPH49" si="26">IF(ISNA(VLOOKUP(BMU49,$B$2:$B$159,1,FALSE)),BMU49,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BMX49" t="str">
@@ -10612,15 +10323,15 @@
         <v/>
       </c>
       <c r="BPG49" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="BPG49:BRR49" si="27">IF(ISNA(VLOOKUP(BPE49,$B$2:$B$159,1,FALSE)),BPE49,"")</f>
         <v/>
       </c>
       <c r="BPH49" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="BPI49" t="str">
-        <f t="shared" ref="BPI49:BRT49" si="27">IF(ISNA(VLOOKUP(BPG49,$B$2:$B$159,1,FALSE)),BPG49,"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="BPJ49" t="str">
@@ -10868,15 +10579,15 @@
         <v/>
       </c>
       <c r="BRS49" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="BRS49:BUD49" si="28">IF(ISNA(VLOOKUP(BRQ49,$B$2:$B$159,1,FALSE)),BRQ49,"")</f>
         <v/>
       </c>
       <c r="BRT49" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="BRU49" t="str">
-        <f t="shared" ref="BRU49:BUF49" si="28">IF(ISNA(VLOOKUP(BRS49,$B$2:$B$159,1,FALSE)),BRS49,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="BRV49" t="str">
@@ -11124,15 +10835,15 @@
         <v/>
       </c>
       <c r="BUE49" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="BUE49:BWP49" si="29">IF(ISNA(VLOOKUP(BUC49,$B$2:$B$159,1,FALSE)),BUC49,"")</f>
         <v/>
       </c>
       <c r="BUF49" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="BUG49" t="str">
-        <f t="shared" ref="BUG49:BWR49" si="29">IF(ISNA(VLOOKUP(BUE49,$B$2:$B$159,1,FALSE)),BUE49,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="BUH49" t="str">
@@ -11380,15 +11091,15 @@
         <v/>
       </c>
       <c r="BWQ49" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="BWQ49:BZB49" si="30">IF(ISNA(VLOOKUP(BWO49,$B$2:$B$159,1,FALSE)),BWO49,"")</f>
         <v/>
       </c>
       <c r="BWR49" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="BWS49" t="str">
-        <f t="shared" ref="BWS49:BZD49" si="30">IF(ISNA(VLOOKUP(BWQ49,$B$2:$B$159,1,FALSE)),BWQ49,"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="BWT49" t="str">
@@ -11636,15 +11347,15 @@
         <v/>
       </c>
       <c r="BZC49" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="BZC49:CBN49" si="31">IF(ISNA(VLOOKUP(BZA49,$B$2:$B$159,1,FALSE)),BZA49,"")</f>
         <v/>
       </c>
       <c r="BZD49" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="BZE49" t="str">
-        <f t="shared" ref="BZE49:CBP49" si="31">IF(ISNA(VLOOKUP(BZC49,$B$2:$B$159,1,FALSE)),BZC49,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="BZF49" t="str">
@@ -11892,15 +11603,15 @@
         <v/>
       </c>
       <c r="CBO49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="CBO49:CDZ49" si="32">IF(ISNA(VLOOKUP(CBM49,$B$2:$B$159,1,FALSE)),CBM49,"")</f>
         <v/>
       </c>
       <c r="CBP49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="CBQ49" t="str">
-        <f t="shared" ref="CBQ49:CEB49" si="32">IF(ISNA(VLOOKUP(CBO49,$B$2:$B$159,1,FALSE)),CBO49,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="CBR49" t="str">
@@ -12148,15 +11859,15 @@
         <v/>
       </c>
       <c r="CEA49" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="CEA49:CGL49" si="33">IF(ISNA(VLOOKUP(CDY49,$B$2:$B$159,1,FALSE)),CDY49,"")</f>
         <v/>
       </c>
       <c r="CEB49" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="CEC49" t="str">
-        <f t="shared" ref="CEC49:CGN49" si="33">IF(ISNA(VLOOKUP(CEA49,$B$2:$B$159,1,FALSE)),CEA49,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="CED49" t="str">
@@ -12404,15 +12115,15 @@
         <v/>
       </c>
       <c r="CGM49" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="CGM49:CIX49" si="34">IF(ISNA(VLOOKUP(CGK49,$B$2:$B$159,1,FALSE)),CGK49,"")</f>
         <v/>
       </c>
       <c r="CGN49" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="CGO49" t="str">
-        <f t="shared" ref="CGO49:CIZ49" si="34">IF(ISNA(VLOOKUP(CGM49,$B$2:$B$159,1,FALSE)),CGM49,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="CGP49" t="str">
@@ -12660,15 +12371,15 @@
         <v/>
       </c>
       <c r="CIY49" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="CIY49:CLJ49" si="35">IF(ISNA(VLOOKUP(CIW49,$B$2:$B$159,1,FALSE)),CIW49,"")</f>
         <v/>
       </c>
       <c r="CIZ49" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="CJA49" t="str">
-        <f t="shared" ref="CJA49:CLL49" si="35">IF(ISNA(VLOOKUP(CIY49,$B$2:$B$159,1,FALSE)),CIY49,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="CJB49" t="str">
@@ -12916,15 +12627,15 @@
         <v/>
       </c>
       <c r="CLK49" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="CLK49:CNV49" si="36">IF(ISNA(VLOOKUP(CLI49,$B$2:$B$159,1,FALSE)),CLI49,"")</f>
         <v/>
       </c>
       <c r="CLL49" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="CLM49" t="str">
-        <f t="shared" ref="CLM49:CNX49" si="36">IF(ISNA(VLOOKUP(CLK49,$B$2:$B$159,1,FALSE)),CLK49,"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="CLN49" t="str">
@@ -13172,15 +12883,15 @@
         <v/>
       </c>
       <c r="CNW49" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="CNW49:CQH49" si="37">IF(ISNA(VLOOKUP(CNU49,$B$2:$B$159,1,FALSE)),CNU49,"")</f>
         <v/>
       </c>
       <c r="CNX49" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="CNY49" t="str">
-        <f t="shared" ref="CNY49:CQJ49" si="37">IF(ISNA(VLOOKUP(CNW49,$B$2:$B$159,1,FALSE)),CNW49,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="CNZ49" t="str">
@@ -13428,15 +13139,15 @@
         <v/>
       </c>
       <c r="CQI49" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="CQI49:CST49" si="38">IF(ISNA(VLOOKUP(CQG49,$B$2:$B$159,1,FALSE)),CQG49,"")</f>
         <v/>
       </c>
       <c r="CQJ49" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="CQK49" t="str">
-        <f t="shared" ref="CQK49:CSV49" si="38">IF(ISNA(VLOOKUP(CQI49,$B$2:$B$159,1,FALSE)),CQI49,"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="CQL49" t="str">
@@ -13684,15 +13395,15 @@
         <v/>
       </c>
       <c r="CSU49" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="CSU49:CVF49" si="39">IF(ISNA(VLOOKUP(CSS49,$B$2:$B$159,1,FALSE)),CSS49,"")</f>
         <v/>
       </c>
       <c r="CSV49" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="CSW49" t="str">
-        <f t="shared" ref="CSW49:CVH49" si="39">IF(ISNA(VLOOKUP(CSU49,$B$2:$B$159,1,FALSE)),CSU49,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="CSX49" t="str">
@@ -13940,15 +13651,15 @@
         <v/>
       </c>
       <c r="CVG49" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="CVG49:CXR49" si="40">IF(ISNA(VLOOKUP(CVE49,$B$2:$B$159,1,FALSE)),CVE49,"")</f>
         <v/>
       </c>
       <c r="CVH49" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="CVI49" t="str">
-        <f t="shared" ref="CVI49:CXT49" si="40">IF(ISNA(VLOOKUP(CVG49,$B$2:$B$159,1,FALSE)),CVG49,"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="CVJ49" t="str">
@@ -14196,15 +13907,15 @@
         <v/>
       </c>
       <c r="CXS49" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="CXS49:DAD49" si="41">IF(ISNA(VLOOKUP(CXQ49,$B$2:$B$159,1,FALSE)),CXQ49,"")</f>
         <v/>
       </c>
       <c r="CXT49" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="CXU49" t="str">
-        <f t="shared" ref="CXU49:DAF49" si="41">IF(ISNA(VLOOKUP(CXS49,$B$2:$B$159,1,FALSE)),CXS49,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="CXV49" t="str">
@@ -14452,15 +14163,15 @@
         <v/>
       </c>
       <c r="DAE49" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="DAE49:DCP49" si="42">IF(ISNA(VLOOKUP(DAC49,$B$2:$B$159,1,FALSE)),DAC49,"")</f>
         <v/>
       </c>
       <c r="DAF49" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="DAG49" t="str">
-        <f t="shared" ref="DAG49:DCR49" si="42">IF(ISNA(VLOOKUP(DAE49,$B$2:$B$159,1,FALSE)),DAE49,"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="DAH49" t="str">
@@ -14708,15 +14419,15 @@
         <v/>
       </c>
       <c r="DCQ49" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="DCQ49:DFB49" si="43">IF(ISNA(VLOOKUP(DCO49,$B$2:$B$159,1,FALSE)),DCO49,"")</f>
         <v/>
       </c>
       <c r="DCR49" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="DCS49" t="str">
-        <f t="shared" ref="DCS49:DFD49" si="43">IF(ISNA(VLOOKUP(DCQ49,$B$2:$B$159,1,FALSE)),DCQ49,"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="DCT49" t="str">
@@ -14964,15 +14675,15 @@
         <v/>
       </c>
       <c r="DFC49" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="DFC49:DHN49" si="44">IF(ISNA(VLOOKUP(DFA49,$B$2:$B$159,1,FALSE)),DFA49,"")</f>
         <v/>
       </c>
       <c r="DFD49" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="DFE49" t="str">
-        <f t="shared" ref="DFE49:DHP49" si="44">IF(ISNA(VLOOKUP(DFC49,$B$2:$B$159,1,FALSE)),DFC49,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="DFF49" t="str">
@@ -15220,15 +14931,15 @@
         <v/>
       </c>
       <c r="DHO49" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="DHO49:DJZ49" si="45">IF(ISNA(VLOOKUP(DHM49,$B$2:$B$159,1,FALSE)),DHM49,"")</f>
         <v/>
       </c>
       <c r="DHP49" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="DHQ49" t="str">
-        <f t="shared" ref="DHQ49:DKB49" si="45">IF(ISNA(VLOOKUP(DHO49,$B$2:$B$159,1,FALSE)),DHO49,"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="DHR49" t="str">
@@ -15476,15 +15187,15 @@
         <v/>
       </c>
       <c r="DKA49" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="DKA49:DML49" si="46">IF(ISNA(VLOOKUP(DJY49,$B$2:$B$159,1,FALSE)),DJY49,"")</f>
         <v/>
       </c>
       <c r="DKB49" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="DKC49" t="str">
-        <f t="shared" ref="DKC49:DMN49" si="46">IF(ISNA(VLOOKUP(DKA49,$B$2:$B$159,1,FALSE)),DKA49,"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="DKD49" t="str">
@@ -15732,15 +15443,15 @@
         <v/>
       </c>
       <c r="DMM49" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="DMM49:DOX49" si="47">IF(ISNA(VLOOKUP(DMK49,$B$2:$B$159,1,FALSE)),DMK49,"")</f>
         <v/>
       </c>
       <c r="DMN49" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="DMO49" t="str">
-        <f t="shared" ref="DMO49:DOZ49" si="47">IF(ISNA(VLOOKUP(DMM49,$B$2:$B$159,1,FALSE)),DMM49,"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="DMP49" t="str">
@@ -15988,15 +15699,15 @@
         <v/>
       </c>
       <c r="DOY49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="DOY49:DRJ49" si="48">IF(ISNA(VLOOKUP(DOW49,$B$2:$B$159,1,FALSE)),DOW49,"")</f>
         <v/>
       </c>
       <c r="DOZ49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="DPA49" t="str">
-        <f t="shared" ref="DPA49:DRL49" si="48">IF(ISNA(VLOOKUP(DOY49,$B$2:$B$159,1,FALSE)),DOY49,"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="DPB49" t="str">
@@ -16244,15 +15955,15 @@
         <v/>
       </c>
       <c r="DRK49" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="DRK49:DTV49" si="49">IF(ISNA(VLOOKUP(DRI49,$B$2:$B$159,1,FALSE)),DRI49,"")</f>
         <v/>
       </c>
       <c r="DRL49" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="DRM49" t="str">
-        <f t="shared" ref="DRM49:DTX49" si="49">IF(ISNA(VLOOKUP(DRK49,$B$2:$B$159,1,FALSE)),DRK49,"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="DRN49" t="str">
@@ -16500,15 +16211,15 @@
         <v/>
       </c>
       <c r="DTW49" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="DTW49:DWH49" si="50">IF(ISNA(VLOOKUP(DTU49,$B$2:$B$159,1,FALSE)),DTU49,"")</f>
         <v/>
       </c>
       <c r="DTX49" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="DTY49" t="str">
-        <f t="shared" ref="DTY49:DWJ49" si="50">IF(ISNA(VLOOKUP(DTW49,$B$2:$B$159,1,FALSE)),DTW49,"")</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="DTZ49" t="str">
@@ -16756,15 +16467,15 @@
         <v/>
       </c>
       <c r="DWI49" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="DWI49:DYT49" si="51">IF(ISNA(VLOOKUP(DWG49,$B$2:$B$159,1,FALSE)),DWG49,"")</f>
         <v/>
       </c>
       <c r="DWJ49" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="DWK49" t="str">
-        <f t="shared" ref="DWK49:DYV49" si="51">IF(ISNA(VLOOKUP(DWI49,$B$2:$B$159,1,FALSE)),DWI49,"")</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="DWL49" t="str">
@@ -17012,15 +16723,15 @@
         <v/>
       </c>
       <c r="DYU49" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="DYU49:EBF49" si="52">IF(ISNA(VLOOKUP(DYS49,$B$2:$B$159,1,FALSE)),DYS49,"")</f>
         <v/>
       </c>
       <c r="DYV49" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="DYW49" t="str">
-        <f t="shared" ref="DYW49:EBH49" si="52">IF(ISNA(VLOOKUP(DYU49,$B$2:$B$159,1,FALSE)),DYU49,"")</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="DYX49" t="str">
@@ -17268,15 +16979,15 @@
         <v/>
       </c>
       <c r="EBG49" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="EBG49:EDR49" si="53">IF(ISNA(VLOOKUP(EBE49,$B$2:$B$159,1,FALSE)),EBE49,"")</f>
         <v/>
       </c>
       <c r="EBH49" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="EBI49" t="str">
-        <f t="shared" ref="EBI49:EDT49" si="53">IF(ISNA(VLOOKUP(EBG49,$B$2:$B$159,1,FALSE)),EBG49,"")</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="EBJ49" t="str">
@@ -17524,15 +17235,15 @@
         <v/>
       </c>
       <c r="EDS49" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="EDS49:EGD49" si="54">IF(ISNA(VLOOKUP(EDQ49,$B$2:$B$159,1,FALSE)),EDQ49,"")</f>
         <v/>
       </c>
       <c r="EDT49" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="EDU49" t="str">
-        <f t="shared" ref="EDU49:EGF49" si="54">IF(ISNA(VLOOKUP(EDS49,$B$2:$B$159,1,FALSE)),EDS49,"")</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="EDV49" t="str">
@@ -17780,15 +17491,15 @@
         <v/>
       </c>
       <c r="EGE49" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="EGE49:EIP49" si="55">IF(ISNA(VLOOKUP(EGC49,$B$2:$B$159,1,FALSE)),EGC49,"")</f>
         <v/>
       </c>
       <c r="EGF49" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="EGG49" t="str">
-        <f t="shared" ref="EGG49:EIR49" si="55">IF(ISNA(VLOOKUP(EGE49,$B$2:$B$159,1,FALSE)),EGE49,"")</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="EGH49" t="str">
@@ -18036,15 +17747,15 @@
         <v/>
       </c>
       <c r="EIQ49" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="EIQ49:ELB49" si="56">IF(ISNA(VLOOKUP(EIO49,$B$2:$B$159,1,FALSE)),EIO49,"")</f>
         <v/>
       </c>
       <c r="EIR49" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="EIS49" t="str">
-        <f t="shared" ref="EIS49:ELD49" si="56">IF(ISNA(VLOOKUP(EIQ49,$B$2:$B$159,1,FALSE)),EIQ49,"")</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="EIT49" t="str">
@@ -18292,15 +18003,15 @@
         <v/>
       </c>
       <c r="ELC49" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="ELC49:ENN49" si="57">IF(ISNA(VLOOKUP(ELA49,$B$2:$B$159,1,FALSE)),ELA49,"")</f>
         <v/>
       </c>
       <c r="ELD49" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="ELE49" t="str">
-        <f t="shared" ref="ELE49:ENP49" si="57">IF(ISNA(VLOOKUP(ELC49,$B$2:$B$159,1,FALSE)),ELC49,"")</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="ELF49" t="str">
@@ -18548,15 +18259,15 @@
         <v/>
       </c>
       <c r="ENO49" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="ENO49:EPZ49" si="58">IF(ISNA(VLOOKUP(ENM49,$B$2:$B$159,1,FALSE)),ENM49,"")</f>
         <v/>
       </c>
       <c r="ENP49" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="ENQ49" t="str">
-        <f t="shared" ref="ENQ49:EQB49" si="58">IF(ISNA(VLOOKUP(ENO49,$B$2:$B$159,1,FALSE)),ENO49,"")</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="ENR49" t="str">
@@ -18804,15 +18515,15 @@
         <v/>
       </c>
       <c r="EQA49" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="EQA49:ESL49" si="59">IF(ISNA(VLOOKUP(EPY49,$B$2:$B$159,1,FALSE)),EPY49,"")</f>
         <v/>
       </c>
       <c r="EQB49" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="EQC49" t="str">
-        <f t="shared" ref="EQC49:ESN49" si="59">IF(ISNA(VLOOKUP(EQA49,$B$2:$B$159,1,FALSE)),EQA49,"")</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="EQD49" t="str">
@@ -19060,15 +18771,15 @@
         <v/>
       </c>
       <c r="ESM49" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="ESM49:EUX49" si="60">IF(ISNA(VLOOKUP(ESK49,$B$2:$B$159,1,FALSE)),ESK49,"")</f>
         <v/>
       </c>
       <c r="ESN49" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="ESO49" t="str">
-        <f t="shared" ref="ESO49:EUZ49" si="60">IF(ISNA(VLOOKUP(ESM49,$B$2:$B$159,1,FALSE)),ESM49,"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="ESP49" t="str">
@@ -19316,15 +19027,15 @@
         <v/>
       </c>
       <c r="EUY49" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="EUY49:EXJ49" si="61">IF(ISNA(VLOOKUP(EUW49,$B$2:$B$159,1,FALSE)),EUW49,"")</f>
         <v/>
       </c>
       <c r="EUZ49" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="EVA49" t="str">
-        <f t="shared" ref="EVA49:EXL49" si="61">IF(ISNA(VLOOKUP(EUY49,$B$2:$B$159,1,FALSE)),EUY49,"")</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="EVB49" t="str">
@@ -19572,15 +19283,15 @@
         <v/>
       </c>
       <c r="EXK49" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="EXK49:EZV49" si="62">IF(ISNA(VLOOKUP(EXI49,$B$2:$B$159,1,FALSE)),EXI49,"")</f>
         <v/>
       </c>
       <c r="EXL49" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="EXM49" t="str">
-        <f t="shared" ref="EXM49:EZX49" si="62">IF(ISNA(VLOOKUP(EXK49,$B$2:$B$159,1,FALSE)),EXK49,"")</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="EXN49" t="str">
@@ -19828,15 +19539,15 @@
         <v/>
       </c>
       <c r="EZW49" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="EZW49:FCH49" si="63">IF(ISNA(VLOOKUP(EZU49,$B$2:$B$159,1,FALSE)),EZU49,"")</f>
         <v/>
       </c>
       <c r="EZX49" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="EZY49" t="str">
-        <f t="shared" ref="EZY49:FCJ49" si="63">IF(ISNA(VLOOKUP(EZW49,$B$2:$B$159,1,FALSE)),EZW49,"")</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="EZZ49" t="str">
@@ -20084,15 +19795,15 @@
         <v/>
       </c>
       <c r="FCI49" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="FCI49:FET49" si="64">IF(ISNA(VLOOKUP(FCG49,$B$2:$B$159,1,FALSE)),FCG49,"")</f>
         <v/>
       </c>
       <c r="FCJ49" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="FCK49" t="str">
-        <f t="shared" ref="FCK49:FEV49" si="64">IF(ISNA(VLOOKUP(FCI49,$B$2:$B$159,1,FALSE)),FCI49,"")</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="FCL49" t="str">
@@ -20340,15 +20051,15 @@
         <v/>
       </c>
       <c r="FEU49" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="FEU49:FHF49" si="65">IF(ISNA(VLOOKUP(FES49,$B$2:$B$159,1,FALSE)),FES49,"")</f>
         <v/>
       </c>
       <c r="FEV49" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="FEW49" t="str">
-        <f t="shared" ref="FEW49:FHH49" si="65">IF(ISNA(VLOOKUP(FEU49,$B$2:$B$159,1,FALSE)),FEU49,"")</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="FEX49" t="str">
@@ -20596,15 +20307,15 @@
         <v/>
       </c>
       <c r="FHG49" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="FHG49:FJR49" si="66">IF(ISNA(VLOOKUP(FHE49,$B$2:$B$159,1,FALSE)),FHE49,"")</f>
         <v/>
       </c>
       <c r="FHH49" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="FHI49" t="str">
-        <f t="shared" ref="FHI49:FJT49" si="66">IF(ISNA(VLOOKUP(FHG49,$B$2:$B$159,1,FALSE)),FHG49,"")</f>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="FHJ49" t="str">
@@ -20852,15 +20563,15 @@
         <v/>
       </c>
       <c r="FJS49" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="FJS49:FMD49" si="67">IF(ISNA(VLOOKUP(FJQ49,$B$2:$B$159,1,FALSE)),FJQ49,"")</f>
         <v/>
       </c>
       <c r="FJT49" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="FJU49" t="str">
-        <f t="shared" ref="FJU49:FMF49" si="67">IF(ISNA(VLOOKUP(FJS49,$B$2:$B$159,1,FALSE)),FJS49,"")</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="FJV49" t="str">
@@ -21108,15 +20819,15 @@
         <v/>
       </c>
       <c r="FME49" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="FME49:FOP49" si="68">IF(ISNA(VLOOKUP(FMC49,$B$2:$B$159,1,FALSE)),FMC49,"")</f>
         <v/>
       </c>
       <c r="FMF49" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="FMG49" t="str">
-        <f t="shared" ref="FMG49:FOR49" si="68">IF(ISNA(VLOOKUP(FME49,$B$2:$B$159,1,FALSE)),FME49,"")</f>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="FMH49" t="str">
@@ -21364,15 +21075,15 @@
         <v/>
       </c>
       <c r="FOQ49" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="FOQ49:FRB49" si="69">IF(ISNA(VLOOKUP(FOO49,$B$2:$B$159,1,FALSE)),FOO49,"")</f>
         <v/>
       </c>
       <c r="FOR49" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="FOS49" t="str">
-        <f t="shared" ref="FOS49:FRD49" si="69">IF(ISNA(VLOOKUP(FOQ49,$B$2:$B$159,1,FALSE)),FOQ49,"")</f>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="FOT49" t="str">
@@ -21620,15 +21331,15 @@
         <v/>
       </c>
       <c r="FRC49" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="FRC49:FTN49" si="70">IF(ISNA(VLOOKUP(FRA49,$B$2:$B$159,1,FALSE)),FRA49,"")</f>
         <v/>
       </c>
       <c r="FRD49" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="FRE49" t="str">
-        <f t="shared" ref="FRE49:FTP49" si="70">IF(ISNA(VLOOKUP(FRC49,$B$2:$B$159,1,FALSE)),FRC49,"")</f>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="FRF49" t="str">
@@ -21876,15 +21587,15 @@
         <v/>
       </c>
       <c r="FTO49" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="FTO49:FVZ49" si="71">IF(ISNA(VLOOKUP(FTM49,$B$2:$B$159,1,FALSE)),FTM49,"")</f>
         <v/>
       </c>
       <c r="FTP49" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="FTQ49" t="str">
-        <f t="shared" ref="FTQ49:FWB49" si="71">IF(ISNA(VLOOKUP(FTO49,$B$2:$B$159,1,FALSE)),FTO49,"")</f>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="FTR49" t="str">
@@ -22132,15 +21843,15 @@
         <v/>
       </c>
       <c r="FWA49" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="FWA49:FYL49" si="72">IF(ISNA(VLOOKUP(FVY49,$B$2:$B$159,1,FALSE)),FVY49,"")</f>
         <v/>
       </c>
       <c r="FWB49" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="FWC49" t="str">
-        <f t="shared" ref="FWC49:FYN49" si="72">IF(ISNA(VLOOKUP(FWA49,$B$2:$B$159,1,FALSE)),FWA49,"")</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="FWD49" t="str">
@@ -22388,15 +22099,15 @@
         <v/>
       </c>
       <c r="FYM49" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="FYM49:GAX49" si="73">IF(ISNA(VLOOKUP(FYK49,$B$2:$B$159,1,FALSE)),FYK49,"")</f>
         <v/>
       </c>
       <c r="FYN49" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="FYO49" t="str">
-        <f t="shared" ref="FYO49:GAZ49" si="73">IF(ISNA(VLOOKUP(FYM49,$B$2:$B$159,1,FALSE)),FYM49,"")</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="FYP49" t="str">
@@ -22644,15 +22355,15 @@
         <v/>
       </c>
       <c r="GAY49" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="GAY49:GDJ49" si="74">IF(ISNA(VLOOKUP(GAW49,$B$2:$B$159,1,FALSE)),GAW49,"")</f>
         <v/>
       </c>
       <c r="GAZ49" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="GBA49" t="str">
-        <f t="shared" ref="GBA49:GDL49" si="74">IF(ISNA(VLOOKUP(GAY49,$B$2:$B$159,1,FALSE)),GAY49,"")</f>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="GBB49" t="str">
@@ -22900,15 +22611,15 @@
         <v/>
       </c>
       <c r="GDK49" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="GDK49:GFV49" si="75">IF(ISNA(VLOOKUP(GDI49,$B$2:$B$159,1,FALSE)),GDI49,"")</f>
         <v/>
       </c>
       <c r="GDL49" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="GDM49" t="str">
-        <f t="shared" ref="GDM49:GFX49" si="75">IF(ISNA(VLOOKUP(GDK49,$B$2:$B$159,1,FALSE)),GDK49,"")</f>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="GDN49" t="str">
@@ -23156,15 +22867,15 @@
         <v/>
       </c>
       <c r="GFW49" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="GFW49:GIH49" si="76">IF(ISNA(VLOOKUP(GFU49,$B$2:$B$159,1,FALSE)),GFU49,"")</f>
         <v/>
       </c>
       <c r="GFX49" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="GFY49" t="str">
-        <f t="shared" ref="GFY49:GIJ49" si="76">IF(ISNA(VLOOKUP(GFW49,$B$2:$B$159,1,FALSE)),GFW49,"")</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="GFZ49" t="str">
@@ -23412,15 +23123,15 @@
         <v/>
       </c>
       <c r="GII49" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="GII49:GKT49" si="77">IF(ISNA(VLOOKUP(GIG49,$B$2:$B$159,1,FALSE)),GIG49,"")</f>
         <v/>
       </c>
       <c r="GIJ49" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="GIK49" t="str">
-        <f t="shared" ref="GIK49:GKV49" si="77">IF(ISNA(VLOOKUP(GII49,$B$2:$B$159,1,FALSE)),GII49,"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="GIL49" t="str">
@@ -23668,15 +23379,15 @@
         <v/>
       </c>
       <c r="GKU49" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="GKU49:GNF49" si="78">IF(ISNA(VLOOKUP(GKS49,$B$2:$B$159,1,FALSE)),GKS49,"")</f>
         <v/>
       </c>
       <c r="GKV49" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="GKW49" t="str">
-        <f t="shared" ref="GKW49:GNH49" si="78">IF(ISNA(VLOOKUP(GKU49,$B$2:$B$159,1,FALSE)),GKU49,"")</f>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="GKX49" t="str">
@@ -23924,15 +23635,15 @@
         <v/>
       </c>
       <c r="GNG49" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="GNG49:GPR49" si="79">IF(ISNA(VLOOKUP(GNE49,$B$2:$B$159,1,FALSE)),GNE49,"")</f>
         <v/>
       </c>
       <c r="GNH49" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="GNI49" t="str">
-        <f t="shared" ref="GNI49:GPT49" si="79">IF(ISNA(VLOOKUP(GNG49,$B$2:$B$159,1,FALSE)),GNG49,"")</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="GNJ49" t="str">
@@ -24180,15 +23891,15 @@
         <v/>
       </c>
       <c r="GPS49" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="GPS49:GSD49" si="80">IF(ISNA(VLOOKUP(GPQ49,$B$2:$B$159,1,FALSE)),GPQ49,"")</f>
         <v/>
       </c>
       <c r="GPT49" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="GPU49" t="str">
-        <f t="shared" ref="GPU49:GSF49" si="80">IF(ISNA(VLOOKUP(GPS49,$B$2:$B$159,1,FALSE)),GPS49,"")</f>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="GPV49" t="str">
@@ -24436,15 +24147,15 @@
         <v/>
       </c>
       <c r="GSE49" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="GSE49:GUP49" si="81">IF(ISNA(VLOOKUP(GSC49,$B$2:$B$159,1,FALSE)),GSC49,"")</f>
         <v/>
       </c>
       <c r="GSF49" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="GSG49" t="str">
-        <f t="shared" ref="GSG49:GUR49" si="81">IF(ISNA(VLOOKUP(GSE49,$B$2:$B$159,1,FALSE)),GSE49,"")</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="GSH49" t="str">
@@ -24692,15 +24403,15 @@
         <v/>
       </c>
       <c r="GUQ49" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="GUQ49:GXB49" si="82">IF(ISNA(VLOOKUP(GUO49,$B$2:$B$159,1,FALSE)),GUO49,"")</f>
         <v/>
       </c>
       <c r="GUR49" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="GUS49" t="str">
-        <f t="shared" ref="GUS49:GXD49" si="82">IF(ISNA(VLOOKUP(GUQ49,$B$2:$B$159,1,FALSE)),GUQ49,"")</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="GUT49" t="str">
@@ -24948,15 +24659,15 @@
         <v/>
       </c>
       <c r="GXC49" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="GXC49:GZN49" si="83">IF(ISNA(VLOOKUP(GXA49,$B$2:$B$159,1,FALSE)),GXA49,"")</f>
         <v/>
       </c>
       <c r="GXD49" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="GXE49" t="str">
-        <f t="shared" ref="GXE49:GZP49" si="83">IF(ISNA(VLOOKUP(GXC49,$B$2:$B$159,1,FALSE)),GXC49,"")</f>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="GXF49" t="str">
@@ -25204,15 +24915,15 @@
         <v/>
       </c>
       <c r="GZO49" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="GZO49:HBZ49" si="84">IF(ISNA(VLOOKUP(GZM49,$B$2:$B$159,1,FALSE)),GZM49,"")</f>
         <v/>
       </c>
       <c r="GZP49" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="GZQ49" t="str">
-        <f t="shared" ref="GZQ49:HCB49" si="84">IF(ISNA(VLOOKUP(GZO49,$B$2:$B$159,1,FALSE)),GZO49,"")</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="GZR49" t="str">
@@ -25460,15 +25171,15 @@
         <v/>
       </c>
       <c r="HCA49" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="HCA49:HEL49" si="85">IF(ISNA(VLOOKUP(HBY49,$B$2:$B$159,1,FALSE)),HBY49,"")</f>
         <v/>
       </c>
       <c r="HCB49" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="HCC49" t="str">
-        <f t="shared" ref="HCC49:HEN49" si="85">IF(ISNA(VLOOKUP(HCA49,$B$2:$B$159,1,FALSE)),HCA49,"")</f>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="HCD49" t="str">
@@ -25716,15 +25427,15 @@
         <v/>
       </c>
       <c r="HEM49" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="HEM49:HGX49" si="86">IF(ISNA(VLOOKUP(HEK49,$B$2:$B$159,1,FALSE)),HEK49,"")</f>
         <v/>
       </c>
       <c r="HEN49" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="HEO49" t="str">
-        <f t="shared" ref="HEO49:HGZ49" si="86">IF(ISNA(VLOOKUP(HEM49,$B$2:$B$159,1,FALSE)),HEM49,"")</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="HEP49" t="str">
@@ -25972,15 +25683,15 @@
         <v/>
       </c>
       <c r="HGY49" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="HGY49:HJJ49" si="87">IF(ISNA(VLOOKUP(HGW49,$B$2:$B$159,1,FALSE)),HGW49,"")</f>
         <v/>
       </c>
       <c r="HGZ49" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="HHA49" t="str">
-        <f t="shared" ref="HHA49:HJL49" si="87">IF(ISNA(VLOOKUP(HGY49,$B$2:$B$159,1,FALSE)),HGY49,"")</f>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="HHB49" t="str">
@@ -26228,15 +25939,15 @@
         <v/>
       </c>
       <c r="HJK49" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="HJK49:HLV49" si="88">IF(ISNA(VLOOKUP(HJI49,$B$2:$B$159,1,FALSE)),HJI49,"")</f>
         <v/>
       </c>
       <c r="HJL49" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="HJM49" t="str">
-        <f t="shared" ref="HJM49:HLX49" si="88">IF(ISNA(VLOOKUP(HJK49,$B$2:$B$159,1,FALSE)),HJK49,"")</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="HJN49" t="str">
@@ -26484,15 +26195,15 @@
         <v/>
       </c>
       <c r="HLW49" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="HLW49:HOH49" si="89">IF(ISNA(VLOOKUP(HLU49,$B$2:$B$159,1,FALSE)),HLU49,"")</f>
         <v/>
       </c>
       <c r="HLX49" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="HLY49" t="str">
-        <f t="shared" ref="HLY49:HOJ49" si="89">IF(ISNA(VLOOKUP(HLW49,$B$2:$B$159,1,FALSE)),HLW49,"")</f>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="HLZ49" t="str">
@@ -26740,15 +26451,15 @@
         <v/>
       </c>
       <c r="HOI49" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="HOI49:HQT49" si="90">IF(ISNA(VLOOKUP(HOG49,$B$2:$B$159,1,FALSE)),HOG49,"")</f>
         <v/>
       </c>
       <c r="HOJ49" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="HOK49" t="str">
-        <f t="shared" ref="HOK49:HQV49" si="90">IF(ISNA(VLOOKUP(HOI49,$B$2:$B$159,1,FALSE)),HOI49,"")</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="HOL49" t="str">
@@ -26996,15 +26707,15 @@
         <v/>
       </c>
       <c r="HQU49" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="HQU49:HTF49" si="91">IF(ISNA(VLOOKUP(HQS49,$B$2:$B$159,1,FALSE)),HQS49,"")</f>
         <v/>
       </c>
       <c r="HQV49" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="HQW49" t="str">
-        <f t="shared" ref="HQW49:HTH49" si="91">IF(ISNA(VLOOKUP(HQU49,$B$2:$B$159,1,FALSE)),HQU49,"")</f>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="HQX49" t="str">
@@ -27252,15 +26963,15 @@
         <v/>
       </c>
       <c r="HTG49" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="HTG49:HVR49" si="92">IF(ISNA(VLOOKUP(HTE49,$B$2:$B$159,1,FALSE)),HTE49,"")</f>
         <v/>
       </c>
       <c r="HTH49" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="HTI49" t="str">
-        <f t="shared" ref="HTI49:HVT49" si="92">IF(ISNA(VLOOKUP(HTG49,$B$2:$B$159,1,FALSE)),HTG49,"")</f>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="HTJ49" t="str">
@@ -27508,15 +27219,15 @@
         <v/>
       </c>
       <c r="HVS49" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="HVS49:HYD49" si="93">IF(ISNA(VLOOKUP(HVQ49,$B$2:$B$159,1,FALSE)),HVQ49,"")</f>
         <v/>
       </c>
       <c r="HVT49" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="HVU49" t="str">
-        <f t="shared" ref="HVU49:HYF49" si="93">IF(ISNA(VLOOKUP(HVS49,$B$2:$B$159,1,FALSE)),HVS49,"")</f>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="HVV49" t="str">
@@ -27764,15 +27475,15 @@
         <v/>
       </c>
       <c r="HYE49" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="HYE49:IAP49" si="94">IF(ISNA(VLOOKUP(HYC49,$B$2:$B$159,1,FALSE)),HYC49,"")</f>
         <v/>
       </c>
       <c r="HYF49" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="HYG49" t="str">
-        <f t="shared" ref="HYG49:IAR49" si="94">IF(ISNA(VLOOKUP(HYE49,$B$2:$B$159,1,FALSE)),HYE49,"")</f>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="HYH49" t="str">
@@ -28020,15 +27731,15 @@
         <v/>
       </c>
       <c r="IAQ49" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="IAQ49:IDB49" si="95">IF(ISNA(VLOOKUP(IAO49,$B$2:$B$159,1,FALSE)),IAO49,"")</f>
         <v/>
       </c>
       <c r="IAR49" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="IAS49" t="str">
-        <f t="shared" ref="IAS49:IDD49" si="95">IF(ISNA(VLOOKUP(IAQ49,$B$2:$B$159,1,FALSE)),IAQ49,"")</f>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="IAT49" t="str">
@@ -28276,15 +27987,15 @@
         <v/>
       </c>
       <c r="IDC49" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="IDC49:IFN49" si="96">IF(ISNA(VLOOKUP(IDA49,$B$2:$B$159,1,FALSE)),IDA49,"")</f>
         <v/>
       </c>
       <c r="IDD49" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="IDE49" t="str">
-        <f t="shared" ref="IDE49:IFP49" si="96">IF(ISNA(VLOOKUP(IDC49,$B$2:$B$159,1,FALSE)),IDC49,"")</f>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="IDF49" t="str">
@@ -28532,15 +28243,15 @@
         <v/>
       </c>
       <c r="IFO49" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="IFO49:IHZ49" si="97">IF(ISNA(VLOOKUP(IFM49,$B$2:$B$159,1,FALSE)),IFM49,"")</f>
         <v/>
       </c>
       <c r="IFP49" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="IFQ49" t="str">
-        <f t="shared" ref="IFQ49:IIB49" si="97">IF(ISNA(VLOOKUP(IFO49,$B$2:$B$159,1,FALSE)),IFO49,"")</f>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="IFR49" t="str">
@@ -28788,15 +28499,15 @@
         <v/>
       </c>
       <c r="IIA49" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="IIA49:IKL49" si="98">IF(ISNA(VLOOKUP(IHY49,$B$2:$B$159,1,FALSE)),IHY49,"")</f>
         <v/>
       </c>
       <c r="IIB49" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="IIC49" t="str">
-        <f t="shared" ref="IIC49:IKN49" si="98">IF(ISNA(VLOOKUP(IIA49,$B$2:$B$159,1,FALSE)),IIA49,"")</f>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="IID49" t="str">
@@ -29044,15 +28755,15 @@
         <v/>
       </c>
       <c r="IKM49" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="IKM49:IMX49" si="99">IF(ISNA(VLOOKUP(IKK49,$B$2:$B$159,1,FALSE)),IKK49,"")</f>
         <v/>
       </c>
       <c r="IKN49" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="IKO49" t="str">
-        <f t="shared" ref="IKO49:IMZ49" si="99">IF(ISNA(VLOOKUP(IKM49,$B$2:$B$159,1,FALSE)),IKM49,"")</f>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="IKP49" t="str">
@@ -29300,15 +29011,15 @@
         <v/>
       </c>
       <c r="IMY49" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="IMY49:IPJ49" si="100">IF(ISNA(VLOOKUP(IMW49,$B$2:$B$159,1,FALSE)),IMW49,"")</f>
         <v/>
       </c>
       <c r="IMZ49" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="INA49" t="str">
-        <f t="shared" ref="INA49:IPL49" si="100">IF(ISNA(VLOOKUP(IMY49,$B$2:$B$159,1,FALSE)),IMY49,"")</f>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="INB49" t="str">
@@ -29556,15 +29267,15 @@
         <v/>
       </c>
       <c r="IPK49" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="IPK49:IRV49" si="101">IF(ISNA(VLOOKUP(IPI49,$B$2:$B$159,1,FALSE)),IPI49,"")</f>
         <v/>
       </c>
       <c r="IPL49" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="IPM49" t="str">
-        <f t="shared" ref="IPM49:IRX49" si="101">IF(ISNA(VLOOKUP(IPK49,$B$2:$B$159,1,FALSE)),IPK49,"")</f>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="IPN49" t="str">
@@ -29812,15 +29523,15 @@
         <v/>
       </c>
       <c r="IRW49" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="IRW49:IUH49" si="102">IF(ISNA(VLOOKUP(IRU49,$B$2:$B$159,1,FALSE)),IRU49,"")</f>
         <v/>
       </c>
       <c r="IRX49" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="IRY49" t="str">
-        <f t="shared" ref="IRY49:IUJ49" si="102">IF(ISNA(VLOOKUP(IRW49,$B$2:$B$159,1,FALSE)),IRW49,"")</f>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="IRZ49" t="str">
@@ -30068,15 +29779,15 @@
         <v/>
       </c>
       <c r="IUI49" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="IUI49:IWT49" si="103">IF(ISNA(VLOOKUP(IUG49,$B$2:$B$159,1,FALSE)),IUG49,"")</f>
         <v/>
       </c>
       <c r="IUJ49" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="IUK49" t="str">
-        <f t="shared" ref="IUK49:IWV49" si="103">IF(ISNA(VLOOKUP(IUI49,$B$2:$B$159,1,FALSE)),IUI49,"")</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="IUL49" t="str">
@@ -30324,15 +30035,15 @@
         <v/>
       </c>
       <c r="IWU49" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="IWU49:IZF49" si="104">IF(ISNA(VLOOKUP(IWS49,$B$2:$B$159,1,FALSE)),IWS49,"")</f>
         <v/>
       </c>
       <c r="IWV49" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="IWW49" t="str">
-        <f t="shared" ref="IWW49:IZH49" si="104">IF(ISNA(VLOOKUP(IWU49,$B$2:$B$159,1,FALSE)),IWU49,"")</f>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="IWX49" t="str">
@@ -30580,15 +30291,15 @@
         <v/>
       </c>
       <c r="IZG49" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="IZG49:JBR49" si="105">IF(ISNA(VLOOKUP(IZE49,$B$2:$B$159,1,FALSE)),IZE49,"")</f>
         <v/>
       </c>
       <c r="IZH49" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="IZI49" t="str">
-        <f t="shared" ref="IZI49:JBT49" si="105">IF(ISNA(VLOOKUP(IZG49,$B$2:$B$159,1,FALSE)),IZG49,"")</f>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="IZJ49" t="str">
@@ -30836,15 +30547,15 @@
         <v/>
       </c>
       <c r="JBS49" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="JBS49:JED49" si="106">IF(ISNA(VLOOKUP(JBQ49,$B$2:$B$159,1,FALSE)),JBQ49,"")</f>
         <v/>
       </c>
       <c r="JBT49" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="JBU49" t="str">
-        <f t="shared" ref="JBU49:JEF49" si="106">IF(ISNA(VLOOKUP(JBS49,$B$2:$B$159,1,FALSE)),JBS49,"")</f>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="JBV49" t="str">
@@ -31092,15 +30803,15 @@
         <v/>
       </c>
       <c r="JEE49" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="JEE49:JGP49" si="107">IF(ISNA(VLOOKUP(JEC49,$B$2:$B$159,1,FALSE)),JEC49,"")</f>
         <v/>
       </c>
       <c r="JEF49" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="JEG49" t="str">
-        <f t="shared" ref="JEG49:JGR49" si="107">IF(ISNA(VLOOKUP(JEE49,$B$2:$B$159,1,FALSE)),JEE49,"")</f>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="JEH49" t="str">
@@ -31348,15 +31059,15 @@
         <v/>
       </c>
       <c r="JGQ49" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="JGQ49:JJB49" si="108">IF(ISNA(VLOOKUP(JGO49,$B$2:$B$159,1,FALSE)),JGO49,"")</f>
         <v/>
       </c>
       <c r="JGR49" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="JGS49" t="str">
-        <f t="shared" ref="JGS49:JJD49" si="108">IF(ISNA(VLOOKUP(JGQ49,$B$2:$B$159,1,FALSE)),JGQ49,"")</f>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="JGT49" t="str">
@@ -31604,15 +31315,15 @@
         <v/>
       </c>
       <c r="JJC49" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="JJC49:JLN49" si="109">IF(ISNA(VLOOKUP(JJA49,$B$2:$B$159,1,FALSE)),JJA49,"")</f>
         <v/>
       </c>
       <c r="JJD49" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="JJE49" t="str">
-        <f t="shared" ref="JJE49:JLP49" si="109">IF(ISNA(VLOOKUP(JJC49,$B$2:$B$159,1,FALSE)),JJC49,"")</f>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="JJF49" t="str">
@@ -31860,15 +31571,15 @@
         <v/>
       </c>
       <c r="JLO49" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="JLO49:JNZ49" si="110">IF(ISNA(VLOOKUP(JLM49,$B$2:$B$159,1,FALSE)),JLM49,"")</f>
         <v/>
       </c>
       <c r="JLP49" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="JLQ49" t="str">
-        <f t="shared" ref="JLQ49:JOB49" si="110">IF(ISNA(VLOOKUP(JLO49,$B$2:$B$159,1,FALSE)),JLO49,"")</f>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="JLR49" t="str">
@@ -32116,15 +31827,15 @@
         <v/>
       </c>
       <c r="JOA49" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="JOA49:JQL49" si="111">IF(ISNA(VLOOKUP(JNY49,$B$2:$B$159,1,FALSE)),JNY49,"")</f>
         <v/>
       </c>
       <c r="JOB49" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="JOC49" t="str">
-        <f t="shared" ref="JOC49:JQN49" si="111">IF(ISNA(VLOOKUP(JOA49,$B$2:$B$159,1,FALSE)),JOA49,"")</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="JOD49" t="str">
@@ -32372,15 +32083,15 @@
         <v/>
       </c>
       <c r="JQM49" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="JQM49:JSX49" si="112">IF(ISNA(VLOOKUP(JQK49,$B$2:$B$159,1,FALSE)),JQK49,"")</f>
         <v/>
       </c>
       <c r="JQN49" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="JQO49" t="str">
-        <f t="shared" ref="JQO49:JSZ49" si="112">IF(ISNA(VLOOKUP(JQM49,$B$2:$B$159,1,FALSE)),JQM49,"")</f>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="JQP49" t="str">
@@ -32628,15 +32339,15 @@
         <v/>
       </c>
       <c r="JSY49" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" ref="JSY49:JVJ49" si="113">IF(ISNA(VLOOKUP(JSW49,$B$2:$B$159,1,FALSE)),JSW49,"")</f>
         <v/>
       </c>
       <c r="JSZ49" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="JTA49" t="str">
-        <f t="shared" ref="JTA49:JVL49" si="113">IF(ISNA(VLOOKUP(JSY49,$B$2:$B$159,1,FALSE)),JSY49,"")</f>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="JTB49" t="str">
@@ -32884,15 +32595,15 @@
         <v/>
       </c>
       <c r="JVK49" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="JVK49:JXV49" si="114">IF(ISNA(VLOOKUP(JVI49,$B$2:$B$159,1,FALSE)),JVI49,"")</f>
         <v/>
       </c>
       <c r="JVL49" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="JVM49" t="str">
-        <f t="shared" ref="JVM49:JXX49" si="114">IF(ISNA(VLOOKUP(JVK49,$B$2:$B$159,1,FALSE)),JVK49,"")</f>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="JVN49" t="str">
@@ -33140,15 +32851,15 @@
         <v/>
       </c>
       <c r="JXW49" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="JXW49:KAH49" si="115">IF(ISNA(VLOOKUP(JXU49,$B$2:$B$159,1,FALSE)),JXU49,"")</f>
         <v/>
       </c>
       <c r="JXX49" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="JXY49" t="str">
-        <f t="shared" ref="JXY49:KAJ49" si="115">IF(ISNA(VLOOKUP(JXW49,$B$2:$B$159,1,FALSE)),JXW49,"")</f>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="JXZ49" t="str">
@@ -33396,15 +33107,15 @@
         <v/>
       </c>
       <c r="KAI49" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="KAI49:KCT49" si="116">IF(ISNA(VLOOKUP(KAG49,$B$2:$B$159,1,FALSE)),KAG49,"")</f>
         <v/>
       </c>
       <c r="KAJ49" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="KAK49" t="str">
-        <f t="shared" ref="KAK49:KCV49" si="116">IF(ISNA(VLOOKUP(KAI49,$B$2:$B$159,1,FALSE)),KAI49,"")</f>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="KAL49" t="str">
@@ -33652,15 +33363,15 @@
         <v/>
       </c>
       <c r="KCU49" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="KCU49:KFF49" si="117">IF(ISNA(VLOOKUP(KCS49,$B$2:$B$159,1,FALSE)),KCS49,"")</f>
         <v/>
       </c>
       <c r="KCV49" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="KCW49" t="str">
-        <f t="shared" ref="KCW49:KFH49" si="117">IF(ISNA(VLOOKUP(KCU49,$B$2:$B$159,1,FALSE)),KCU49,"")</f>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="KCX49" t="str">
@@ -33908,15 +33619,15 @@
         <v/>
       </c>
       <c r="KFG49" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" ref="KFG49:KHR49" si="118">IF(ISNA(VLOOKUP(KFE49,$B$2:$B$159,1,FALSE)),KFE49,"")</f>
         <v/>
       </c>
       <c r="KFH49" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="KFI49" t="str">
-        <f t="shared" ref="KFI49:KHT49" si="118">IF(ISNA(VLOOKUP(KFG49,$B$2:$B$159,1,FALSE)),KFG49,"")</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="KFJ49" t="str">
@@ -34164,15 +33875,15 @@
         <v/>
       </c>
       <c r="KHS49" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="KHS49:KKD49" si="119">IF(ISNA(VLOOKUP(KHQ49,$B$2:$B$159,1,FALSE)),KHQ49,"")</f>
         <v/>
       </c>
       <c r="KHT49" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="KHU49" t="str">
-        <f t="shared" ref="KHU49:KKF49" si="119">IF(ISNA(VLOOKUP(KHS49,$B$2:$B$159,1,FALSE)),KHS49,"")</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="KHV49" t="str">
@@ -34420,15 +34131,15 @@
         <v/>
       </c>
       <c r="KKE49" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="KKE49:KMP49" si="120">IF(ISNA(VLOOKUP(KKC49,$B$2:$B$159,1,FALSE)),KKC49,"")</f>
         <v/>
       </c>
       <c r="KKF49" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="KKG49" t="str">
-        <f t="shared" ref="KKG49:KMR49" si="120">IF(ISNA(VLOOKUP(KKE49,$B$2:$B$159,1,FALSE)),KKE49,"")</f>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="KKH49" t="str">
@@ -34676,15 +34387,15 @@
         <v/>
       </c>
       <c r="KMQ49" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="KMQ49:KPB49" si="121">IF(ISNA(VLOOKUP(KMO49,$B$2:$B$159,1,FALSE)),KMO49,"")</f>
         <v/>
       </c>
       <c r="KMR49" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="KMS49" t="str">
-        <f t="shared" ref="KMS49:KPD49" si="121">IF(ISNA(VLOOKUP(KMQ49,$B$2:$B$159,1,FALSE)),KMQ49,"")</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="KMT49" t="str">
@@ -34932,15 +34643,15 @@
         <v/>
       </c>
       <c r="KPC49" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="KPC49:KRN49" si="122">IF(ISNA(VLOOKUP(KPA49,$B$2:$B$159,1,FALSE)),KPA49,"")</f>
         <v/>
       </c>
       <c r="KPD49" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="KPE49" t="str">
-        <f t="shared" ref="KPE49:KRP49" si="122">IF(ISNA(VLOOKUP(KPC49,$B$2:$B$159,1,FALSE)),KPC49,"")</f>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="KPF49" t="str">
@@ -35188,15 +34899,15 @@
         <v/>
       </c>
       <c r="KRO49" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="KRO49:KTZ49" si="123">IF(ISNA(VLOOKUP(KRM49,$B$2:$B$159,1,FALSE)),KRM49,"")</f>
         <v/>
       </c>
       <c r="KRP49" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="KRQ49" t="str">
-        <f t="shared" ref="KRQ49:KUB49" si="123">IF(ISNA(VLOOKUP(KRO49,$B$2:$B$159,1,FALSE)),KRO49,"")</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="KRR49" t="str">
@@ -35444,15 +35155,15 @@
         <v/>
       </c>
       <c r="KUA49" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" ref="KUA49:KWL49" si="124">IF(ISNA(VLOOKUP(KTY49,$B$2:$B$159,1,FALSE)),KTY49,"")</f>
         <v/>
       </c>
       <c r="KUB49" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="KUC49" t="str">
-        <f t="shared" ref="KUC49:KWN49" si="124">IF(ISNA(VLOOKUP(KUA49,$B$2:$B$159,1,FALSE)),KUA49,"")</f>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="KUD49" t="str">
@@ -35700,15 +35411,15 @@
         <v/>
       </c>
       <c r="KWM49" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="KWM49:KYX49" si="125">IF(ISNA(VLOOKUP(KWK49,$B$2:$B$159,1,FALSE)),KWK49,"")</f>
         <v/>
       </c>
       <c r="KWN49" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="KWO49" t="str">
-        <f t="shared" ref="KWO49:KYZ49" si="125">IF(ISNA(VLOOKUP(KWM49,$B$2:$B$159,1,FALSE)),KWM49,"")</f>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="KWP49" t="str">
@@ -35956,15 +35667,15 @@
         <v/>
       </c>
       <c r="KYY49" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="KYY49:LBJ49" si="126">IF(ISNA(VLOOKUP(KYW49,$B$2:$B$159,1,FALSE)),KYW49,"")</f>
         <v/>
       </c>
       <c r="KYZ49" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="KZA49" t="str">
-        <f t="shared" ref="KZA49:LBL49" si="126">IF(ISNA(VLOOKUP(KYY49,$B$2:$B$159,1,FALSE)),KYY49,"")</f>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="KZB49" t="str">
@@ -36212,15 +35923,15 @@
         <v/>
       </c>
       <c r="LBK49" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="LBK49:LDV49" si="127">IF(ISNA(VLOOKUP(LBI49,$B$2:$B$159,1,FALSE)),LBI49,"")</f>
         <v/>
       </c>
       <c r="LBL49" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="LBM49" t="str">
-        <f t="shared" ref="LBM49:LDX49" si="127">IF(ISNA(VLOOKUP(LBK49,$B$2:$B$159,1,FALSE)),LBK49,"")</f>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="LBN49" t="str">
@@ -36468,15 +36179,15 @@
         <v/>
       </c>
       <c r="LDW49" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="LDW49:LGH49" si="128">IF(ISNA(VLOOKUP(LDU49,$B$2:$B$159,1,FALSE)),LDU49,"")</f>
         <v/>
       </c>
       <c r="LDX49" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="LDY49" t="str">
-        <f t="shared" ref="LDY49:LGJ49" si="128">IF(ISNA(VLOOKUP(LDW49,$B$2:$B$159,1,FALSE)),LDW49,"")</f>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="LDZ49" t="str">
@@ -36724,15 +36435,15 @@
         <v/>
       </c>
       <c r="LGI49" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="LGI49:LIT49" si="129">IF(ISNA(VLOOKUP(LGG49,$B$2:$B$159,1,FALSE)),LGG49,"")</f>
         <v/>
       </c>
       <c r="LGJ49" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="LGK49" t="str">
-        <f t="shared" ref="LGK49:LIV49" si="129">IF(ISNA(VLOOKUP(LGI49,$B$2:$B$159,1,FALSE)),LGI49,"")</f>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="LGL49" t="str">
@@ -36980,15 +36691,15 @@
         <v/>
       </c>
       <c r="LIU49" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="LIU49:LLF49" si="130">IF(ISNA(VLOOKUP(LIS49,$B$2:$B$159,1,FALSE)),LIS49,"")</f>
         <v/>
       </c>
       <c r="LIV49" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="LIW49" t="str">
-        <f t="shared" ref="LIW49:LLH49" si="130">IF(ISNA(VLOOKUP(LIU49,$B$2:$B$159,1,FALSE)),LIU49,"")</f>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="LIX49" t="str">
@@ -37236,15 +36947,15 @@
         <v/>
       </c>
       <c r="LLG49" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" ref="LLG49:LNR49" si="131">IF(ISNA(VLOOKUP(LLE49,$B$2:$B$159,1,FALSE)),LLE49,"")</f>
         <v/>
       </c>
       <c r="LLH49" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="LLI49" t="str">
-        <f t="shared" ref="LLI49:LNT49" si="131">IF(ISNA(VLOOKUP(LLG49,$B$2:$B$159,1,FALSE)),LLG49,"")</f>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="LLJ49" t="str">
@@ -37492,15 +37203,15 @@
         <v/>
       </c>
       <c r="LNS49" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="LNS49:LQD49" si="132">IF(ISNA(VLOOKUP(LNQ49,$B$2:$B$159,1,FALSE)),LNQ49,"")</f>
         <v/>
       </c>
       <c r="LNT49" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="LNU49" t="str">
-        <f t="shared" ref="LNU49:LQF49" si="132">IF(ISNA(VLOOKUP(LNS49,$B$2:$B$159,1,FALSE)),LNS49,"")</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="LNV49" t="str">
@@ -37748,15 +37459,15 @@
         <v/>
       </c>
       <c r="LQE49" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="LQE49:LSP49" si="133">IF(ISNA(VLOOKUP(LQC49,$B$2:$B$159,1,FALSE)),LQC49,"")</f>
         <v/>
       </c>
       <c r="LQF49" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="LQG49" t="str">
-        <f t="shared" ref="LQG49:LSR49" si="133">IF(ISNA(VLOOKUP(LQE49,$B$2:$B$159,1,FALSE)),LQE49,"")</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="LQH49" t="str">
@@ -38004,15 +37715,15 @@
         <v/>
       </c>
       <c r="LSQ49" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="LSQ49:LVB49" si="134">IF(ISNA(VLOOKUP(LSO49,$B$2:$B$159,1,FALSE)),LSO49,"")</f>
         <v/>
       </c>
       <c r="LSR49" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="LSS49" t="str">
-        <f t="shared" ref="LSS49:LVD49" si="134">IF(ISNA(VLOOKUP(LSQ49,$B$2:$B$159,1,FALSE)),LSQ49,"")</f>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="LST49" t="str">
@@ -38260,15 +37971,15 @@
         <v/>
       </c>
       <c r="LVC49" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="LVC49:LXN49" si="135">IF(ISNA(VLOOKUP(LVA49,$B$2:$B$159,1,FALSE)),LVA49,"")</f>
         <v/>
       </c>
       <c r="LVD49" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="LVE49" t="str">
-        <f t="shared" ref="LVE49:LXP49" si="135">IF(ISNA(VLOOKUP(LVC49,$B$2:$B$159,1,FALSE)),LVC49,"")</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="LVF49" t="str">
@@ -38516,15 +38227,15 @@
         <v/>
       </c>
       <c r="LXO49" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" ref="LXO49:LZZ49" si="136">IF(ISNA(VLOOKUP(LXM49,$B$2:$B$159,1,FALSE)),LXM49,"")</f>
         <v/>
       </c>
       <c r="LXP49" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="LXQ49" t="str">
-        <f t="shared" ref="LXQ49:MAB49" si="136">IF(ISNA(VLOOKUP(LXO49,$B$2:$B$159,1,FALSE)),LXO49,"")</f>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="LXR49" t="str">
@@ -38772,15 +38483,15 @@
         <v/>
       </c>
       <c r="MAA49" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="MAA49:MCL49" si="137">IF(ISNA(VLOOKUP(LZY49,$B$2:$B$159,1,FALSE)),LZY49,"")</f>
         <v/>
       </c>
       <c r="MAB49" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="MAC49" t="str">
-        <f t="shared" ref="MAC49:MCN49" si="137">IF(ISNA(VLOOKUP(MAA49,$B$2:$B$159,1,FALSE)),MAA49,"")</f>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="MAD49" t="str">
@@ -39028,15 +38739,15 @@
         <v/>
       </c>
       <c r="MCM49" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="MCM49:MEX49" si="138">IF(ISNA(VLOOKUP(MCK49,$B$2:$B$159,1,FALSE)),MCK49,"")</f>
         <v/>
       </c>
       <c r="MCN49" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="MCO49" t="str">
-        <f t="shared" ref="MCO49:MEZ49" si="138">IF(ISNA(VLOOKUP(MCM49,$B$2:$B$159,1,FALSE)),MCM49,"")</f>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="MCP49" t="str">
@@ -39284,15 +38995,15 @@
         <v/>
       </c>
       <c r="MEY49" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="MEY49:MHJ49" si="139">IF(ISNA(VLOOKUP(MEW49,$B$2:$B$159,1,FALSE)),MEW49,"")</f>
         <v/>
       </c>
       <c r="MEZ49" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="MFA49" t="str">
-        <f t="shared" ref="MFA49:MHL49" si="139">IF(ISNA(VLOOKUP(MEY49,$B$2:$B$159,1,FALSE)),MEY49,"")</f>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="MFB49" t="str">
@@ -39540,15 +39251,15 @@
         <v/>
       </c>
       <c r="MHK49" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="MHK49:MJV49" si="140">IF(ISNA(VLOOKUP(MHI49,$B$2:$B$159,1,FALSE)),MHI49,"")</f>
         <v/>
       </c>
       <c r="MHL49" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="MHM49" t="str">
-        <f t="shared" ref="MHM49:MJX49" si="140">IF(ISNA(VLOOKUP(MHK49,$B$2:$B$159,1,FALSE)),MHK49,"")</f>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="MHN49" t="str">
@@ -39796,15 +39507,15 @@
         <v/>
       </c>
       <c r="MJW49" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="MJW49:MMH49" si="141">IF(ISNA(VLOOKUP(MJU49,$B$2:$B$159,1,FALSE)),MJU49,"")</f>
         <v/>
       </c>
       <c r="MJX49" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="MJY49" t="str">
-        <f t="shared" ref="MJY49:MMJ49" si="141">IF(ISNA(VLOOKUP(MJW49,$B$2:$B$159,1,FALSE)),MJW49,"")</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="MJZ49" t="str">
@@ -40052,15 +39763,15 @@
         <v/>
       </c>
       <c r="MMI49" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="MMI49:MOT49" si="142">IF(ISNA(VLOOKUP(MMG49,$B$2:$B$159,1,FALSE)),MMG49,"")</f>
         <v/>
       </c>
       <c r="MMJ49" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="MMK49" t="str">
-        <f t="shared" ref="MMK49:MOV49" si="142">IF(ISNA(VLOOKUP(MMI49,$B$2:$B$159,1,FALSE)),MMI49,"")</f>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="MML49" t="str">
@@ -40308,15 +40019,15 @@
         <v/>
       </c>
       <c r="MOU49" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="MOU49:MRF49" si="143">IF(ISNA(VLOOKUP(MOS49,$B$2:$B$159,1,FALSE)),MOS49,"")</f>
         <v/>
       </c>
       <c r="MOV49" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="MOW49" t="str">
-        <f t="shared" ref="MOW49:MRH49" si="143">IF(ISNA(VLOOKUP(MOU49,$B$2:$B$159,1,FALSE)),MOU49,"")</f>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="MOX49" t="str">
@@ -40564,15 +40275,15 @@
         <v/>
       </c>
       <c r="MRG49" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="MRG49:MTR49" si="144">IF(ISNA(VLOOKUP(MRE49,$B$2:$B$159,1,FALSE)),MRE49,"")</f>
         <v/>
       </c>
       <c r="MRH49" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="MRI49" t="str">
-        <f t="shared" ref="MRI49:MTT49" si="144">IF(ISNA(VLOOKUP(MRG49,$B$2:$B$159,1,FALSE)),MRG49,"")</f>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="MRJ49" t="str">
@@ -40820,15 +40531,15 @@
         <v/>
       </c>
       <c r="MTS49" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" ref="MTS49:MWD49" si="145">IF(ISNA(VLOOKUP(MTQ49,$B$2:$B$159,1,FALSE)),MTQ49,"")</f>
         <v/>
       </c>
       <c r="MTT49" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="MTU49" t="str">
-        <f t="shared" ref="MTU49:MWF49" si="145">IF(ISNA(VLOOKUP(MTS49,$B$2:$B$159,1,FALSE)),MTS49,"")</f>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="MTV49" t="str">
@@ -41076,15 +40787,15 @@
         <v/>
       </c>
       <c r="MWE49" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="MWE49:MYP49" si="146">IF(ISNA(VLOOKUP(MWC49,$B$2:$B$159,1,FALSE)),MWC49,"")</f>
         <v/>
       </c>
       <c r="MWF49" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="MWG49" t="str">
-        <f t="shared" ref="MWG49:MYR49" si="146">IF(ISNA(VLOOKUP(MWE49,$B$2:$B$159,1,FALSE)),MWE49,"")</f>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="MWH49" t="str">
@@ -41332,15 +41043,15 @@
         <v/>
       </c>
       <c r="MYQ49" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="MYQ49:NBB49" si="147">IF(ISNA(VLOOKUP(MYO49,$B$2:$B$159,1,FALSE)),MYO49,"")</f>
         <v/>
       </c>
       <c r="MYR49" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="MYS49" t="str">
-        <f t="shared" ref="MYS49:NBD49" si="147">IF(ISNA(VLOOKUP(MYQ49,$B$2:$B$159,1,FALSE)),MYQ49,"")</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="MYT49" t="str">
@@ -41588,15 +41299,15 @@
         <v/>
       </c>
       <c r="NBC49" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="NBC49:NDN49" si="148">IF(ISNA(VLOOKUP(NBA49,$B$2:$B$159,1,FALSE)),NBA49,"")</f>
         <v/>
       </c>
       <c r="NBD49" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="NBE49" t="str">
-        <f t="shared" ref="NBE49:NDP49" si="148">IF(ISNA(VLOOKUP(NBC49,$B$2:$B$159,1,FALSE)),NBC49,"")</f>
+        <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="NBF49" t="str">
@@ -41844,15 +41555,15 @@
         <v/>
       </c>
       <c r="NDO49" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" ref="NDO49:NFZ49" si="149">IF(ISNA(VLOOKUP(NDM49,$B$2:$B$159,1,FALSE)),NDM49,"")</f>
         <v/>
       </c>
       <c r="NDP49" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="NDQ49" t="str">
-        <f t="shared" ref="NDQ49:NGB49" si="149">IF(ISNA(VLOOKUP(NDO49,$B$2:$B$159,1,FALSE)),NDO49,"")</f>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="NDR49" t="str">
@@ -42100,15 +41811,15 @@
         <v/>
       </c>
       <c r="NGA49" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="NGA49:NIL49" si="150">IF(ISNA(VLOOKUP(NFY49,$B$2:$B$159,1,FALSE)),NFY49,"")</f>
         <v/>
       </c>
       <c r="NGB49" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="NGC49" t="str">
-        <f t="shared" ref="NGC49:NIN49" si="150">IF(ISNA(VLOOKUP(NGA49,$B$2:$B$159,1,FALSE)),NGA49,"")</f>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="NGD49" t="str">
@@ -42356,15 +42067,15 @@
         <v/>
       </c>
       <c r="NIM49" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" ref="NIM49:NKX49" si="151">IF(ISNA(VLOOKUP(NIK49,$B$2:$B$159,1,FALSE)),NIK49,"")</f>
         <v/>
       </c>
       <c r="NIN49" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="NIO49" t="str">
-        <f t="shared" ref="NIO49:NKZ49" si="151">IF(ISNA(VLOOKUP(NIM49,$B$2:$B$159,1,FALSE)),NIM49,"")</f>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="NIP49" t="str">
@@ -42612,15 +42323,15 @@
         <v/>
       </c>
       <c r="NKY49" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" ref="NKY49:NNJ49" si="152">IF(ISNA(VLOOKUP(NKW49,$B$2:$B$159,1,FALSE)),NKW49,"")</f>
         <v/>
       </c>
       <c r="NKZ49" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="NLA49" t="str">
-        <f t="shared" ref="NLA49:NNL49" si="152">IF(ISNA(VLOOKUP(NKY49,$B$2:$B$159,1,FALSE)),NKY49,"")</f>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="NLB49" t="str">
@@ -42868,15 +42579,15 @@
         <v/>
       </c>
       <c r="NNK49" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" ref="NNK49:NPV49" si="153">IF(ISNA(VLOOKUP(NNI49,$B$2:$B$159,1,FALSE)),NNI49,"")</f>
         <v/>
       </c>
       <c r="NNL49" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="NNM49" t="str">
-        <f t="shared" ref="NNM49:NPX49" si="153">IF(ISNA(VLOOKUP(NNK49,$B$2:$B$159,1,FALSE)),NNK49,"")</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="NNN49" t="str">
@@ -43124,15 +42835,15 @@
         <v/>
       </c>
       <c r="NPW49" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="NPW49:NSH49" si="154">IF(ISNA(VLOOKUP(NPU49,$B$2:$B$159,1,FALSE)),NPU49,"")</f>
         <v/>
       </c>
       <c r="NPX49" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="NPY49" t="str">
-        <f t="shared" ref="NPY49:NSJ49" si="154">IF(ISNA(VLOOKUP(NPW49,$B$2:$B$159,1,FALSE)),NPW49,"")</f>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="NPZ49" t="str">
@@ -43380,15 +43091,15 @@
         <v/>
       </c>
       <c r="NSI49" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" ref="NSI49:NUT49" si="155">IF(ISNA(VLOOKUP(NSG49,$B$2:$B$159,1,FALSE)),NSG49,"")</f>
         <v/>
       </c>
       <c r="NSJ49" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v/>
       </c>
       <c r="NSK49" t="str">
-        <f t="shared" ref="NSK49:NUV49" si="155">IF(ISNA(VLOOKUP(NSI49,$B$2:$B$159,1,FALSE)),NSI49,"")</f>
+        <f t="shared" si="155"/>
         <v/>
       </c>
       <c r="NSL49" t="str">
@@ -43636,15 +43347,15 @@
         <v/>
       </c>
       <c r="NUU49" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="NUU49:NXF49" si="156">IF(ISNA(VLOOKUP(NUS49,$B$2:$B$159,1,FALSE)),NUS49,"")</f>
         <v/>
       </c>
       <c r="NUV49" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v/>
       </c>
       <c r="NUW49" t="str">
-        <f t="shared" ref="NUW49:NXH49" si="156">IF(ISNA(VLOOKUP(NUU49,$B$2:$B$159,1,FALSE)),NUU49,"")</f>
+        <f t="shared" si="156"/>
         <v/>
       </c>
       <c r="NUX49" t="str">
@@ -43892,15 +43603,15 @@
         <v/>
       </c>
       <c r="NXG49" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="NXG49:NZR49" si="157">IF(ISNA(VLOOKUP(NXE49,$B$2:$B$159,1,FALSE)),NXE49,"")</f>
         <v/>
       </c>
       <c r="NXH49" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v/>
       </c>
       <c r="NXI49" t="str">
-        <f t="shared" ref="NXI49:NZT49" si="157">IF(ISNA(VLOOKUP(NXG49,$B$2:$B$159,1,FALSE)),NXG49,"")</f>
+        <f t="shared" si="157"/>
         <v/>
       </c>
       <c r="NXJ49" t="str">
@@ -44148,15 +43859,15 @@
         <v/>
       </c>
       <c r="NZS49" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="NZS49:OCD49" si="158">IF(ISNA(VLOOKUP(NZQ49,$B$2:$B$159,1,FALSE)),NZQ49,"")</f>
         <v/>
       </c>
       <c r="NZT49" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="NZU49" t="str">
-        <f t="shared" ref="NZU49:OCF49" si="158">IF(ISNA(VLOOKUP(NZS49,$B$2:$B$159,1,FALSE)),NZS49,"")</f>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="NZV49" t="str">
@@ -44404,15 +44115,15 @@
         <v/>
       </c>
       <c r="OCE49" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="OCE49:OEP49" si="159">IF(ISNA(VLOOKUP(OCC49,$B$2:$B$159,1,FALSE)),OCC49,"")</f>
         <v/>
       </c>
       <c r="OCF49" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v/>
       </c>
       <c r="OCG49" t="str">
-        <f t="shared" ref="OCG49:OER49" si="159">IF(ISNA(VLOOKUP(OCE49,$B$2:$B$159,1,FALSE)),OCE49,"")</f>
+        <f t="shared" si="159"/>
         <v/>
       </c>
       <c r="OCH49" t="str">
@@ -44660,15 +44371,15 @@
         <v/>
       </c>
       <c r="OEQ49" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="OEQ49:OHB49" si="160">IF(ISNA(VLOOKUP(OEO49,$B$2:$B$159,1,FALSE)),OEO49,"")</f>
         <v/>
       </c>
       <c r="OER49" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v/>
       </c>
       <c r="OES49" t="str">
-        <f t="shared" ref="OES49:OHD49" si="160">IF(ISNA(VLOOKUP(OEQ49,$B$2:$B$159,1,FALSE)),OEQ49,"")</f>
+        <f t="shared" si="160"/>
         <v/>
       </c>
       <c r="OET49" t="str">
@@ -44916,15 +44627,15 @@
         <v/>
       </c>
       <c r="OHC49" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="OHC49:OJN49" si="161">IF(ISNA(VLOOKUP(OHA49,$B$2:$B$159,1,FALSE)),OHA49,"")</f>
         <v/>
       </c>
       <c r="OHD49" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="OHE49" t="str">
-        <f t="shared" ref="OHE49:OJP49" si="161">IF(ISNA(VLOOKUP(OHC49,$B$2:$B$159,1,FALSE)),OHC49,"")</f>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="OHF49" t="str">
@@ -45172,15 +44883,15 @@
         <v/>
       </c>
       <c r="OJO49" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="OJO49:OLZ49" si="162">IF(ISNA(VLOOKUP(OJM49,$B$2:$B$159,1,FALSE)),OJM49,"")</f>
         <v/>
       </c>
       <c r="OJP49" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v/>
       </c>
       <c r="OJQ49" t="str">
-        <f t="shared" ref="OJQ49:OMB49" si="162">IF(ISNA(VLOOKUP(OJO49,$B$2:$B$159,1,FALSE)),OJO49,"")</f>
+        <f t="shared" si="162"/>
         <v/>
       </c>
       <c r="OJR49" t="str">
@@ -45428,15 +45139,15 @@
         <v/>
       </c>
       <c r="OMA49" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="OMA49:OOL49" si="163">IF(ISNA(VLOOKUP(OLY49,$B$2:$B$159,1,FALSE)),OLY49,"")</f>
         <v/>
       </c>
       <c r="OMB49" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="OMC49" t="str">
-        <f t="shared" ref="OMC49:OON49" si="163">IF(ISNA(VLOOKUP(OMA49,$B$2:$B$159,1,FALSE)),OMA49,"")</f>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="OMD49" t="str">
@@ -45684,15 +45395,15 @@
         <v/>
       </c>
       <c r="OOM49" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" ref="OOM49:OQX49" si="164">IF(ISNA(VLOOKUP(OOK49,$B$2:$B$159,1,FALSE)),OOK49,"")</f>
         <v/>
       </c>
       <c r="OON49" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v/>
       </c>
       <c r="OOO49" t="str">
-        <f t="shared" ref="OOO49:OQZ49" si="164">IF(ISNA(VLOOKUP(OOM49,$B$2:$B$159,1,FALSE)),OOM49,"")</f>
+        <f t="shared" si="164"/>
         <v/>
       </c>
       <c r="OOP49" t="str">
@@ -45940,15 +45651,15 @@
         <v/>
       </c>
       <c r="OQY49" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" ref="OQY49:OTJ49" si="165">IF(ISNA(VLOOKUP(OQW49,$B$2:$B$159,1,FALSE)),OQW49,"")</f>
         <v/>
       </c>
       <c r="OQZ49" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v/>
       </c>
       <c r="ORA49" t="str">
-        <f t="shared" ref="ORA49:OTL49" si="165">IF(ISNA(VLOOKUP(OQY49,$B$2:$B$159,1,FALSE)),OQY49,"")</f>
+        <f t="shared" si="165"/>
         <v/>
       </c>
       <c r="ORB49" t="str">
@@ -46196,15 +45907,15 @@
         <v/>
       </c>
       <c r="OTK49" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" ref="OTK49:OVV49" si="166">IF(ISNA(VLOOKUP(OTI49,$B$2:$B$159,1,FALSE)),OTI49,"")</f>
         <v/>
       </c>
       <c r="OTL49" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="OTM49" t="str">
-        <f t="shared" ref="OTM49:OVX49" si="166">IF(ISNA(VLOOKUP(OTK49,$B$2:$B$159,1,FALSE)),OTK49,"")</f>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="OTN49" t="str">
@@ -46452,15 +46163,15 @@
         <v/>
       </c>
       <c r="OVW49" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" ref="OVW49:OYH49" si="167">IF(ISNA(VLOOKUP(OVU49,$B$2:$B$159,1,FALSE)),OVU49,"")</f>
         <v/>
       </c>
       <c r="OVX49" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="OVY49" t="str">
-        <f t="shared" ref="OVY49:OYJ49" si="167">IF(ISNA(VLOOKUP(OVW49,$B$2:$B$159,1,FALSE)),OVW49,"")</f>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="OVZ49" t="str">
@@ -46708,15 +46419,15 @@
         <v/>
       </c>
       <c r="OYI49" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" ref="OYI49:PAT49" si="168">IF(ISNA(VLOOKUP(OYG49,$B$2:$B$159,1,FALSE)),OYG49,"")</f>
         <v/>
       </c>
       <c r="OYJ49" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v/>
       </c>
       <c r="OYK49" t="str">
-        <f t="shared" ref="OYK49:PAV49" si="168">IF(ISNA(VLOOKUP(OYI49,$B$2:$B$159,1,FALSE)),OYI49,"")</f>
+        <f t="shared" si="168"/>
         <v/>
       </c>
       <c r="OYL49" t="str">
@@ -46964,15 +46675,15 @@
         <v/>
       </c>
       <c r="PAU49" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" ref="PAU49:PDF49" si="169">IF(ISNA(VLOOKUP(PAS49,$B$2:$B$159,1,FALSE)),PAS49,"")</f>
         <v/>
       </c>
       <c r="PAV49" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="PAW49" t="str">
-        <f t="shared" ref="PAW49:PDH49" si="169">IF(ISNA(VLOOKUP(PAU49,$B$2:$B$159,1,FALSE)),PAU49,"")</f>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="PAX49" t="str">
@@ -47220,15 +46931,15 @@
         <v/>
       </c>
       <c r="PDG49" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" ref="PDG49:PFR49" si="170">IF(ISNA(VLOOKUP(PDE49,$B$2:$B$159,1,FALSE)),PDE49,"")</f>
         <v/>
       </c>
       <c r="PDH49" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
       <c r="PDI49" t="str">
-        <f t="shared" ref="PDI49:PFT49" si="170">IF(ISNA(VLOOKUP(PDG49,$B$2:$B$159,1,FALSE)),PDG49,"")</f>
+        <f t="shared" si="170"/>
         <v/>
       </c>
       <c r="PDJ49" t="str">
@@ -47476,15 +47187,15 @@
         <v/>
       </c>
       <c r="PFS49" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" ref="PFS49:PID49" si="171">IF(ISNA(VLOOKUP(PFQ49,$B$2:$B$159,1,FALSE)),PFQ49,"")</f>
         <v/>
       </c>
       <c r="PFT49" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="PFU49" t="str">
-        <f t="shared" ref="PFU49:PIF49" si="171">IF(ISNA(VLOOKUP(PFS49,$B$2:$B$159,1,FALSE)),PFS49,"")</f>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="PFV49" t="str">
@@ -47732,15 +47443,15 @@
         <v/>
       </c>
       <c r="PIE49" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="PIE49:PKP49" si="172">IF(ISNA(VLOOKUP(PIC49,$B$2:$B$159,1,FALSE)),PIC49,"")</f>
         <v/>
       </c>
       <c r="PIF49" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v/>
       </c>
       <c r="PIG49" t="str">
-        <f t="shared" ref="PIG49:PKR49" si="172">IF(ISNA(VLOOKUP(PIE49,$B$2:$B$159,1,FALSE)),PIE49,"")</f>
+        <f t="shared" si="172"/>
         <v/>
       </c>
       <c r="PIH49" t="str">
@@ -47988,15 +47699,15 @@
         <v/>
       </c>
       <c r="PKQ49" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" ref="PKQ49:PNB49" si="173">IF(ISNA(VLOOKUP(PKO49,$B$2:$B$159,1,FALSE)),PKO49,"")</f>
         <v/>
       </c>
       <c r="PKR49" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="PKS49" t="str">
-        <f t="shared" ref="PKS49:PND49" si="173">IF(ISNA(VLOOKUP(PKQ49,$B$2:$B$159,1,FALSE)),PKQ49,"")</f>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="PKT49" t="str">
@@ -48244,15 +47955,15 @@
         <v/>
       </c>
       <c r="PNC49" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="PNC49:PPN49" si="174">IF(ISNA(VLOOKUP(PNA49,$B$2:$B$159,1,FALSE)),PNA49,"")</f>
         <v/>
       </c>
       <c r="PND49" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v/>
       </c>
       <c r="PNE49" t="str">
-        <f t="shared" ref="PNE49:PPP49" si="174">IF(ISNA(VLOOKUP(PNC49,$B$2:$B$159,1,FALSE)),PNC49,"")</f>
+        <f t="shared" si="174"/>
         <v/>
       </c>
       <c r="PNF49" t="str">
@@ -48500,15 +48211,15 @@
         <v/>
       </c>
       <c r="PPO49" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" ref="PPO49:PRZ49" si="175">IF(ISNA(VLOOKUP(PPM49,$B$2:$B$159,1,FALSE)),PPM49,"")</f>
         <v/>
       </c>
       <c r="PPP49" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v/>
       </c>
       <c r="PPQ49" t="str">
-        <f t="shared" ref="PPQ49:PSB49" si="175">IF(ISNA(VLOOKUP(PPO49,$B$2:$B$159,1,FALSE)),PPO49,"")</f>
+        <f t="shared" si="175"/>
         <v/>
       </c>
       <c r="PPR49" t="str">
@@ -48756,15 +48467,15 @@
         <v/>
       </c>
       <c r="PSA49" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" ref="PSA49:PUL49" si="176">IF(ISNA(VLOOKUP(PRY49,$B$2:$B$159,1,FALSE)),PRY49,"")</f>
         <v/>
       </c>
       <c r="PSB49" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v/>
       </c>
       <c r="PSC49" t="str">
-        <f t="shared" ref="PSC49:PUN49" si="176">IF(ISNA(VLOOKUP(PSA49,$B$2:$B$159,1,FALSE)),PSA49,"")</f>
+        <f t="shared" si="176"/>
         <v/>
       </c>
       <c r="PSD49" t="str">
@@ -49012,15 +48723,15 @@
         <v/>
       </c>
       <c r="PUM49" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" ref="PUM49:PWX49" si="177">IF(ISNA(VLOOKUP(PUK49,$B$2:$B$159,1,FALSE)),PUK49,"")</f>
         <v/>
       </c>
       <c r="PUN49" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v/>
       </c>
       <c r="PUO49" t="str">
-        <f t="shared" ref="PUO49:PWZ49" si="177">IF(ISNA(VLOOKUP(PUM49,$B$2:$B$159,1,FALSE)),PUM49,"")</f>
+        <f t="shared" si="177"/>
         <v/>
       </c>
       <c r="PUP49" t="str">
@@ -49268,15 +48979,15 @@
         <v/>
       </c>
       <c r="PWY49" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" ref="PWY49:PZJ49" si="178">IF(ISNA(VLOOKUP(PWW49,$B$2:$B$159,1,FALSE)),PWW49,"")</f>
         <v/>
       </c>
       <c r="PWZ49" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v/>
       </c>
       <c r="PXA49" t="str">
-        <f t="shared" ref="PXA49:PZL49" si="178">IF(ISNA(VLOOKUP(PWY49,$B$2:$B$159,1,FALSE)),PWY49,"")</f>
+        <f t="shared" si="178"/>
         <v/>
       </c>
       <c r="PXB49" t="str">
@@ -49524,15 +49235,15 @@
         <v/>
       </c>
       <c r="PZK49" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="PZK49:QBV49" si="179">IF(ISNA(VLOOKUP(PZI49,$B$2:$B$159,1,FALSE)),PZI49,"")</f>
         <v/>
       </c>
       <c r="PZL49" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v/>
       </c>
       <c r="PZM49" t="str">
-        <f t="shared" ref="PZM49:QBX49" si="179">IF(ISNA(VLOOKUP(PZK49,$B$2:$B$159,1,FALSE)),PZK49,"")</f>
+        <f t="shared" si="179"/>
         <v/>
       </c>
       <c r="PZN49" t="str">
@@ -49780,15 +49491,15 @@
         <v/>
       </c>
       <c r="QBW49" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" ref="QBW49:QEH49" si="180">IF(ISNA(VLOOKUP(QBU49,$B$2:$B$159,1,FALSE)),QBU49,"")</f>
         <v/>
       </c>
       <c r="QBX49" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v/>
       </c>
       <c r="QBY49" t="str">
-        <f t="shared" ref="QBY49:QEJ49" si="180">IF(ISNA(VLOOKUP(QBW49,$B$2:$B$159,1,FALSE)),QBW49,"")</f>
+        <f t="shared" si="180"/>
         <v/>
       </c>
       <c r="QBZ49" t="str">
@@ -50036,15 +49747,15 @@
         <v/>
       </c>
       <c r="QEI49" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" ref="QEI49:QGT49" si="181">IF(ISNA(VLOOKUP(QEG49,$B$2:$B$159,1,FALSE)),QEG49,"")</f>
         <v/>
       </c>
       <c r="QEJ49" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v/>
       </c>
       <c r="QEK49" t="str">
-        <f t="shared" ref="QEK49:QGV49" si="181">IF(ISNA(VLOOKUP(QEI49,$B$2:$B$159,1,FALSE)),QEI49,"")</f>
+        <f t="shared" si="181"/>
         <v/>
       </c>
       <c r="QEL49" t="str">
@@ -50292,15 +50003,15 @@
         <v/>
       </c>
       <c r="QGU49" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" ref="QGU49:QJF49" si="182">IF(ISNA(VLOOKUP(QGS49,$B$2:$B$159,1,FALSE)),QGS49,"")</f>
         <v/>
       </c>
       <c r="QGV49" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v/>
       </c>
       <c r="QGW49" t="str">
-        <f t="shared" ref="QGW49:QJH49" si="182">IF(ISNA(VLOOKUP(QGU49,$B$2:$B$159,1,FALSE)),QGU49,"")</f>
+        <f t="shared" si="182"/>
         <v/>
       </c>
       <c r="QGX49" t="str">
@@ -50548,15 +50259,15 @@
         <v/>
       </c>
       <c r="QJG49" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" ref="QJG49:QLR49" si="183">IF(ISNA(VLOOKUP(QJE49,$B$2:$B$159,1,FALSE)),QJE49,"")</f>
         <v/>
       </c>
       <c r="QJH49" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v/>
       </c>
       <c r="QJI49" t="str">
-        <f t="shared" ref="QJI49:QLT49" si="183">IF(ISNA(VLOOKUP(QJG49,$B$2:$B$159,1,FALSE)),QJG49,"")</f>
+        <f t="shared" si="183"/>
         <v/>
       </c>
       <c r="QJJ49" t="str">
@@ -50804,15 +50515,15 @@
         <v/>
       </c>
       <c r="QLS49" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="QLS49:QOD49" si="184">IF(ISNA(VLOOKUP(QLQ49,$B$2:$B$159,1,FALSE)),QLQ49,"")</f>
         <v/>
       </c>
       <c r="QLT49" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v/>
       </c>
       <c r="QLU49" t="str">
-        <f t="shared" ref="QLU49:QOF49" si="184">IF(ISNA(VLOOKUP(QLS49,$B$2:$B$159,1,FALSE)),QLS49,"")</f>
+        <f t="shared" si="184"/>
         <v/>
       </c>
       <c r="QLV49" t="str">
@@ -51060,15 +50771,15 @@
         <v/>
       </c>
       <c r="QOE49" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" ref="QOE49:QQP49" si="185">IF(ISNA(VLOOKUP(QOC49,$B$2:$B$159,1,FALSE)),QOC49,"")</f>
         <v/>
       </c>
       <c r="QOF49" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v/>
       </c>
       <c r="QOG49" t="str">
-        <f t="shared" ref="QOG49:QQR49" si="185">IF(ISNA(VLOOKUP(QOE49,$B$2:$B$159,1,FALSE)),QOE49,"")</f>
+        <f t="shared" si="185"/>
         <v/>
       </c>
       <c r="QOH49" t="str">
@@ -51316,15 +51027,15 @@
         <v/>
       </c>
       <c r="QQQ49" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" ref="QQQ49:QTB49" si="186">IF(ISNA(VLOOKUP(QQO49,$B$2:$B$159,1,FALSE)),QQO49,"")</f>
         <v/>
       </c>
       <c r="QQR49" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v/>
       </c>
       <c r="QQS49" t="str">
-        <f t="shared" ref="QQS49:QTD49" si="186">IF(ISNA(VLOOKUP(QQQ49,$B$2:$B$159,1,FALSE)),QQQ49,"")</f>
+        <f t="shared" si="186"/>
         <v/>
       </c>
       <c r="QQT49" t="str">
@@ -51572,15 +51283,15 @@
         <v/>
       </c>
       <c r="QTC49" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" ref="QTC49:QVN49" si="187">IF(ISNA(VLOOKUP(QTA49,$B$2:$B$159,1,FALSE)),QTA49,"")</f>
         <v/>
       </c>
       <c r="QTD49" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
       <c r="QTE49" t="str">
-        <f t="shared" ref="QTE49:QVP49" si="187">IF(ISNA(VLOOKUP(QTC49,$B$2:$B$159,1,FALSE)),QTC49,"")</f>
+        <f t="shared" si="187"/>
         <v/>
       </c>
       <c r="QTF49" t="str">
@@ -51828,15 +51539,15 @@
         <v/>
       </c>
       <c r="QVO49" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" ref="QVO49:QXZ49" si="188">IF(ISNA(VLOOKUP(QVM49,$B$2:$B$159,1,FALSE)),QVM49,"")</f>
         <v/>
       </c>
       <c r="QVP49" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v/>
       </c>
       <c r="QVQ49" t="str">
-        <f t="shared" ref="QVQ49:QYB49" si="188">IF(ISNA(VLOOKUP(QVO49,$B$2:$B$159,1,FALSE)),QVO49,"")</f>
+        <f t="shared" si="188"/>
         <v/>
       </c>
       <c r="QVR49" t="str">
@@ -52084,15 +51795,15 @@
         <v/>
       </c>
       <c r="QYA49" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" ref="QYA49:RAL49" si="189">IF(ISNA(VLOOKUP(QXY49,$B$2:$B$159,1,FALSE)),QXY49,"")</f>
         <v/>
       </c>
       <c r="QYB49" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v/>
       </c>
       <c r="QYC49" t="str">
-        <f t="shared" ref="QYC49:RAN49" si="189">IF(ISNA(VLOOKUP(QYA49,$B$2:$B$159,1,FALSE)),QYA49,"")</f>
+        <f t="shared" si="189"/>
         <v/>
       </c>
       <c r="QYD49" t="str">
@@ -52340,15 +52051,15 @@
         <v/>
       </c>
       <c r="RAM49" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" ref="RAM49:RCX49" si="190">IF(ISNA(VLOOKUP(RAK49,$B$2:$B$159,1,FALSE)),RAK49,"")</f>
         <v/>
       </c>
       <c r="RAN49" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v/>
       </c>
       <c r="RAO49" t="str">
-        <f t="shared" ref="RAO49:RCZ49" si="190">IF(ISNA(VLOOKUP(RAM49,$B$2:$B$159,1,FALSE)),RAM49,"")</f>
+        <f t="shared" si="190"/>
         <v/>
       </c>
       <c r="RAP49" t="str">
@@ -52596,15 +52307,15 @@
         <v/>
       </c>
       <c r="RCY49" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" ref="RCY49:RFJ49" si="191">IF(ISNA(VLOOKUP(RCW49,$B$2:$B$159,1,FALSE)),RCW49,"")</f>
         <v/>
       </c>
       <c r="RCZ49" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
       <c r="RDA49" t="str">
-        <f t="shared" ref="RDA49:RFL49" si="191">IF(ISNA(VLOOKUP(RCY49,$B$2:$B$159,1,FALSE)),RCY49,"")</f>
+        <f t="shared" si="191"/>
         <v/>
       </c>
       <c r="RDB49" t="str">
@@ -52852,15 +52563,15 @@
         <v/>
       </c>
       <c r="RFK49" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" ref="RFK49:RHV49" si="192">IF(ISNA(VLOOKUP(RFI49,$B$2:$B$159,1,FALSE)),RFI49,"")</f>
         <v/>
       </c>
       <c r="RFL49" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v/>
       </c>
       <c r="RFM49" t="str">
-        <f t="shared" ref="RFM49:RHX49" si="192">IF(ISNA(VLOOKUP(RFK49,$B$2:$B$159,1,FALSE)),RFK49,"")</f>
+        <f t="shared" si="192"/>
         <v/>
       </c>
       <c r="RFN49" t="str">
@@ -53108,15 +52819,15 @@
         <v/>
       </c>
       <c r="RHW49" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" ref="RHW49:RKH49" si="193">IF(ISNA(VLOOKUP(RHU49,$B$2:$B$159,1,FALSE)),RHU49,"")</f>
         <v/>
       </c>
       <c r="RHX49" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v/>
       </c>
       <c r="RHY49" t="str">
-        <f t="shared" ref="RHY49:RKJ49" si="193">IF(ISNA(VLOOKUP(RHW49,$B$2:$B$159,1,FALSE)),RHW49,"")</f>
+        <f t="shared" si="193"/>
         <v/>
       </c>
       <c r="RHZ49" t="str">
@@ -53364,15 +53075,15 @@
         <v/>
       </c>
       <c r="RKI49" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" ref="RKI49:RMT49" si="194">IF(ISNA(VLOOKUP(RKG49,$B$2:$B$159,1,FALSE)),RKG49,"")</f>
         <v/>
       </c>
       <c r="RKJ49" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v/>
       </c>
       <c r="RKK49" t="str">
-        <f t="shared" ref="RKK49:RMV49" si="194">IF(ISNA(VLOOKUP(RKI49,$B$2:$B$159,1,FALSE)),RKI49,"")</f>
+        <f t="shared" si="194"/>
         <v/>
       </c>
       <c r="RKL49" t="str">
@@ -53620,15 +53331,15 @@
         <v/>
       </c>
       <c r="RMU49" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" ref="RMU49:RPF49" si="195">IF(ISNA(VLOOKUP(RMS49,$B$2:$B$159,1,FALSE)),RMS49,"")</f>
         <v/>
       </c>
       <c r="RMV49" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v/>
       </c>
       <c r="RMW49" t="str">
-        <f t="shared" ref="RMW49:RPH49" si="195">IF(ISNA(VLOOKUP(RMU49,$B$2:$B$159,1,FALSE)),RMU49,"")</f>
+        <f t="shared" si="195"/>
         <v/>
       </c>
       <c r="RMX49" t="str">
@@ -53876,15 +53587,15 @@
         <v/>
       </c>
       <c r="RPG49" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" ref="RPG49:RRR49" si="196">IF(ISNA(VLOOKUP(RPE49,$B$2:$B$159,1,FALSE)),RPE49,"")</f>
         <v/>
       </c>
       <c r="RPH49" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v/>
       </c>
       <c r="RPI49" t="str">
-        <f t="shared" ref="RPI49:RRT49" si="196">IF(ISNA(VLOOKUP(RPG49,$B$2:$B$159,1,FALSE)),RPG49,"")</f>
+        <f t="shared" si="196"/>
         <v/>
       </c>
       <c r="RPJ49" t="str">
@@ -54132,15 +53843,15 @@
         <v/>
       </c>
       <c r="RRS49" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" ref="RRS49:RUD49" si="197">IF(ISNA(VLOOKUP(RRQ49,$B$2:$B$159,1,FALSE)),RRQ49,"")</f>
         <v/>
       </c>
       <c r="RRT49" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v/>
       </c>
       <c r="RRU49" t="str">
-        <f t="shared" ref="RRU49:RUF49" si="197">IF(ISNA(VLOOKUP(RRS49,$B$2:$B$159,1,FALSE)),RRS49,"")</f>
+        <f t="shared" si="197"/>
         <v/>
       </c>
       <c r="RRV49" t="str">
@@ -54388,15 +54099,15 @@
         <v/>
       </c>
       <c r="RUE49" t="str">
-        <f t="shared" si="197"/>
+        <f t="shared" ref="RUE49:RWP49" si="198">IF(ISNA(VLOOKUP(RUC49,$B$2:$B$159,1,FALSE)),RUC49,"")</f>
         <v/>
       </c>
       <c r="RUF49" t="str">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v/>
       </c>
       <c r="RUG49" t="str">
-        <f t="shared" ref="RUG49:RWR49" si="198">IF(ISNA(VLOOKUP(RUE49,$B$2:$B$159,1,FALSE)),RUE49,"")</f>
+        <f t="shared" si="198"/>
         <v/>
       </c>
       <c r="RUH49" t="str">
@@ -54644,15 +54355,15 @@
         <v/>
       </c>
       <c r="RWQ49" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" ref="RWQ49:RZB49" si="199">IF(ISNA(VLOOKUP(RWO49,$B$2:$B$159,1,FALSE)),RWO49,"")</f>
         <v/>
       </c>
       <c r="RWR49" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v/>
       </c>
       <c r="RWS49" t="str">
-        <f t="shared" ref="RWS49:RZD49" si="199">IF(ISNA(VLOOKUP(RWQ49,$B$2:$B$159,1,FALSE)),RWQ49,"")</f>
+        <f t="shared" si="199"/>
         <v/>
       </c>
       <c r="RWT49" t="str">
@@ -54900,15 +54611,15 @@
         <v/>
       </c>
       <c r="RZC49" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" ref="RZC49:SBN49" si="200">IF(ISNA(VLOOKUP(RZA49,$B$2:$B$159,1,FALSE)),RZA49,"")</f>
         <v/>
       </c>
       <c r="RZD49" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v/>
       </c>
       <c r="RZE49" t="str">
-        <f t="shared" ref="RZE49:SBP49" si="200">IF(ISNA(VLOOKUP(RZC49,$B$2:$B$159,1,FALSE)),RZC49,"")</f>
+        <f t="shared" si="200"/>
         <v/>
       </c>
       <c r="RZF49" t="str">
@@ -55156,15 +54867,15 @@
         <v/>
       </c>
       <c r="SBO49" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" ref="SBO49:SDZ49" si="201">IF(ISNA(VLOOKUP(SBM49,$B$2:$B$159,1,FALSE)),SBM49,"")</f>
         <v/>
       </c>
       <c r="SBP49" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v/>
       </c>
       <c r="SBQ49" t="str">
-        <f t="shared" ref="SBQ49:SEB49" si="201">IF(ISNA(VLOOKUP(SBO49,$B$2:$B$159,1,FALSE)),SBO49,"")</f>
+        <f t="shared" si="201"/>
         <v/>
       </c>
       <c r="SBR49" t="str">
@@ -55412,15 +55123,15 @@
         <v/>
       </c>
       <c r="SEA49" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" ref="SEA49:SGL49" si="202">IF(ISNA(VLOOKUP(SDY49,$B$2:$B$159,1,FALSE)),SDY49,"")</f>
         <v/>
       </c>
       <c r="SEB49" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v/>
       </c>
       <c r="SEC49" t="str">
-        <f t="shared" ref="SEC49:SGN49" si="202">IF(ISNA(VLOOKUP(SEA49,$B$2:$B$159,1,FALSE)),SEA49,"")</f>
+        <f t="shared" si="202"/>
         <v/>
       </c>
       <c r="SED49" t="str">
@@ -55668,15 +55379,15 @@
         <v/>
       </c>
       <c r="SGM49" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" ref="SGM49:SIX49" si="203">IF(ISNA(VLOOKUP(SGK49,$B$2:$B$159,1,FALSE)),SGK49,"")</f>
         <v/>
       </c>
       <c r="SGN49" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="SGO49" t="str">
-        <f t="shared" ref="SGO49:SIZ49" si="203">IF(ISNA(VLOOKUP(SGM49,$B$2:$B$159,1,FALSE)),SGM49,"")</f>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="SGP49" t="str">
@@ -55924,15 +55635,15 @@
         <v/>
       </c>
       <c r="SIY49" t="str">
-        <f t="shared" si="203"/>
+        <f t="shared" ref="SIY49:SLJ49" si="204">IF(ISNA(VLOOKUP(SIW49,$B$2:$B$159,1,FALSE)),SIW49,"")</f>
         <v/>
       </c>
       <c r="SIZ49" t="str">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v/>
       </c>
       <c r="SJA49" t="str">
-        <f t="shared" ref="SJA49:SLL49" si="204">IF(ISNA(VLOOKUP(SIY49,$B$2:$B$159,1,FALSE)),SIY49,"")</f>
+        <f t="shared" si="204"/>
         <v/>
       </c>
       <c r="SJB49" t="str">
@@ -56180,15 +55891,15 @@
         <v/>
       </c>
       <c r="SLK49" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" ref="SLK49:SNV49" si="205">IF(ISNA(VLOOKUP(SLI49,$B$2:$B$159,1,FALSE)),SLI49,"")</f>
         <v/>
       </c>
       <c r="SLL49" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v/>
       </c>
       <c r="SLM49" t="str">
-        <f t="shared" ref="SLM49:SNX49" si="205">IF(ISNA(VLOOKUP(SLK49,$B$2:$B$159,1,FALSE)),SLK49,"")</f>
+        <f t="shared" si="205"/>
         <v/>
       </c>
       <c r="SLN49" t="str">
@@ -56436,15 +56147,15 @@
         <v/>
       </c>
       <c r="SNW49" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" ref="SNW49:SQH49" si="206">IF(ISNA(VLOOKUP(SNU49,$B$2:$B$159,1,FALSE)),SNU49,"")</f>
         <v/>
       </c>
       <c r="SNX49" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v/>
       </c>
       <c r="SNY49" t="str">
-        <f t="shared" ref="SNY49:SQJ49" si="206">IF(ISNA(VLOOKUP(SNW49,$B$2:$B$159,1,FALSE)),SNW49,"")</f>
+        <f t="shared" si="206"/>
         <v/>
       </c>
       <c r="SNZ49" t="str">
@@ -56692,15 +56403,15 @@
         <v/>
       </c>
       <c r="SQI49" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" ref="SQI49:SST49" si="207">IF(ISNA(VLOOKUP(SQG49,$B$2:$B$159,1,FALSE)),SQG49,"")</f>
         <v/>
       </c>
       <c r="SQJ49" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v/>
       </c>
       <c r="SQK49" t="str">
-        <f t="shared" ref="SQK49:SSV49" si="207">IF(ISNA(VLOOKUP(SQI49,$B$2:$B$159,1,FALSE)),SQI49,"")</f>
+        <f t="shared" si="207"/>
         <v/>
       </c>
       <c r="SQL49" t="str">
@@ -56948,15 +56659,15 @@
         <v/>
       </c>
       <c r="SSU49" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" ref="SSU49:SVF49" si="208">IF(ISNA(VLOOKUP(SSS49,$B$2:$B$159,1,FALSE)),SSS49,"")</f>
         <v/>
       </c>
       <c r="SSV49" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v/>
       </c>
       <c r="SSW49" t="str">
-        <f t="shared" ref="SSW49:SVH49" si="208">IF(ISNA(VLOOKUP(SSU49,$B$2:$B$159,1,FALSE)),SSU49,"")</f>
+        <f t="shared" si="208"/>
         <v/>
       </c>
       <c r="SSX49" t="str">
@@ -57204,15 +56915,15 @@
         <v/>
       </c>
       <c r="SVG49" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" ref="SVG49:SXR49" si="209">IF(ISNA(VLOOKUP(SVE49,$B$2:$B$159,1,FALSE)),SVE49,"")</f>
         <v/>
       </c>
       <c r="SVH49" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v/>
       </c>
       <c r="SVI49" t="str">
-        <f t="shared" ref="SVI49:SXT49" si="209">IF(ISNA(VLOOKUP(SVG49,$B$2:$B$159,1,FALSE)),SVG49,"")</f>
+        <f t="shared" si="209"/>
         <v/>
       </c>
       <c r="SVJ49" t="str">
@@ -57460,15 +57171,15 @@
         <v/>
       </c>
       <c r="SXS49" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" ref="SXS49:TAD49" si="210">IF(ISNA(VLOOKUP(SXQ49,$B$2:$B$159,1,FALSE)),SXQ49,"")</f>
         <v/>
       </c>
       <c r="SXT49" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v/>
       </c>
       <c r="SXU49" t="str">
-        <f t="shared" ref="SXU49:TAF49" si="210">IF(ISNA(VLOOKUP(SXS49,$B$2:$B$159,1,FALSE)),SXS49,"")</f>
+        <f t="shared" si="210"/>
         <v/>
       </c>
       <c r="SXV49" t="str">
@@ -57716,15 +57427,15 @@
         <v/>
       </c>
       <c r="TAE49" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" ref="TAE49:TCP49" si="211">IF(ISNA(VLOOKUP(TAC49,$B$2:$B$159,1,FALSE)),TAC49,"")</f>
         <v/>
       </c>
       <c r="TAF49" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v/>
       </c>
       <c r="TAG49" t="str">
-        <f t="shared" ref="TAG49:TCR49" si="211">IF(ISNA(VLOOKUP(TAE49,$B$2:$B$159,1,FALSE)),TAE49,"")</f>
+        <f t="shared" si="211"/>
         <v/>
       </c>
       <c r="TAH49" t="str">
@@ -57972,15 +57683,15 @@
         <v/>
       </c>
       <c r="TCQ49" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" ref="TCQ49:TFB49" si="212">IF(ISNA(VLOOKUP(TCO49,$B$2:$B$159,1,FALSE)),TCO49,"")</f>
         <v/>
       </c>
       <c r="TCR49" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v/>
       </c>
       <c r="TCS49" t="str">
-        <f t="shared" ref="TCS49:TFD49" si="212">IF(ISNA(VLOOKUP(TCQ49,$B$2:$B$159,1,FALSE)),TCQ49,"")</f>
+        <f t="shared" si="212"/>
         <v/>
       </c>
       <c r="TCT49" t="str">
@@ -58228,15 +57939,15 @@
         <v/>
       </c>
       <c r="TFC49" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" ref="TFC49:THN49" si="213">IF(ISNA(VLOOKUP(TFA49,$B$2:$B$159,1,FALSE)),TFA49,"")</f>
         <v/>
       </c>
       <c r="TFD49" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="TFE49" t="str">
-        <f t="shared" ref="TFE49:THP49" si="213">IF(ISNA(VLOOKUP(TFC49,$B$2:$B$159,1,FALSE)),TFC49,"")</f>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="TFF49" t="str">
@@ -58484,15 +58195,15 @@
         <v/>
       </c>
       <c r="THO49" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" ref="THO49:TJZ49" si="214">IF(ISNA(VLOOKUP(THM49,$B$2:$B$159,1,FALSE)),THM49,"")</f>
         <v/>
       </c>
       <c r="THP49" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="THQ49" t="str">
-        <f t="shared" ref="THQ49:TKB49" si="214">IF(ISNA(VLOOKUP(THO49,$B$2:$B$159,1,FALSE)),THO49,"")</f>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="THR49" t="str">
@@ -58740,15 +58451,15 @@
         <v/>
       </c>
       <c r="TKA49" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" ref="TKA49:TML49" si="215">IF(ISNA(VLOOKUP(TJY49,$B$2:$B$159,1,FALSE)),TJY49,"")</f>
         <v/>
       </c>
       <c r="TKB49" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v/>
       </c>
       <c r="TKC49" t="str">
-        <f t="shared" ref="TKC49:TMN49" si="215">IF(ISNA(VLOOKUP(TKA49,$B$2:$B$159,1,FALSE)),TKA49,"")</f>
+        <f t="shared" si="215"/>
         <v/>
       </c>
       <c r="TKD49" t="str">
@@ -58996,15 +58707,15 @@
         <v/>
       </c>
       <c r="TMM49" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" ref="TMM49:TOX49" si="216">IF(ISNA(VLOOKUP(TMK49,$B$2:$B$159,1,FALSE)),TMK49,"")</f>
         <v/>
       </c>
       <c r="TMN49" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="TMO49" t="str">
-        <f t="shared" ref="TMO49:TOZ49" si="216">IF(ISNA(VLOOKUP(TMM49,$B$2:$B$159,1,FALSE)),TMM49,"")</f>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="TMP49" t="str">
@@ -59252,15 +58963,15 @@
         <v/>
       </c>
       <c r="TOY49" t="str">
-        <f t="shared" si="216"/>
+        <f t="shared" ref="TOY49:TRJ49" si="217">IF(ISNA(VLOOKUP(TOW49,$B$2:$B$159,1,FALSE)),TOW49,"")</f>
         <v/>
       </c>
       <c r="TOZ49" t="str">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="TPA49" t="str">
-        <f t="shared" ref="TPA49:TRL49" si="217">IF(ISNA(VLOOKUP(TOY49,$B$2:$B$159,1,FALSE)),TOY49,"")</f>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="TPB49" t="str">
@@ -59508,15 +59219,15 @@
         <v/>
       </c>
       <c r="TRK49" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" ref="TRK49:TTV49" si="218">IF(ISNA(VLOOKUP(TRI49,$B$2:$B$159,1,FALSE)),TRI49,"")</f>
         <v/>
       </c>
       <c r="TRL49" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="TRM49" t="str">
-        <f t="shared" ref="TRM49:TTX49" si="218">IF(ISNA(VLOOKUP(TRK49,$B$2:$B$159,1,FALSE)),TRK49,"")</f>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="TRN49" t="str">
@@ -59764,15 +59475,15 @@
         <v/>
       </c>
       <c r="TTW49" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" ref="TTW49:TWH49" si="219">IF(ISNA(VLOOKUP(TTU49,$B$2:$B$159,1,FALSE)),TTU49,"")</f>
         <v/>
       </c>
       <c r="TTX49" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="TTY49" t="str">
-        <f t="shared" ref="TTY49:TWJ49" si="219">IF(ISNA(VLOOKUP(TTW49,$B$2:$B$159,1,FALSE)),TTW49,"")</f>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="TTZ49" t="str">
@@ -60020,15 +59731,15 @@
         <v/>
       </c>
       <c r="TWI49" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" ref="TWI49:TYT49" si="220">IF(ISNA(VLOOKUP(TWG49,$B$2:$B$159,1,FALSE)),TWG49,"")</f>
         <v/>
       </c>
       <c r="TWJ49" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="TWK49" t="str">
-        <f t="shared" ref="TWK49:TYV49" si="220">IF(ISNA(VLOOKUP(TWI49,$B$2:$B$159,1,FALSE)),TWI49,"")</f>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="TWL49" t="str">
@@ -60276,15 +59987,15 @@
         <v/>
       </c>
       <c r="TYU49" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" ref="TYU49:UBF49" si="221">IF(ISNA(VLOOKUP(TYS49,$B$2:$B$159,1,FALSE)),TYS49,"")</f>
         <v/>
       </c>
       <c r="TYV49" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v/>
       </c>
       <c r="TYW49" t="str">
-        <f t="shared" ref="TYW49:UBH49" si="221">IF(ISNA(VLOOKUP(TYU49,$B$2:$B$159,1,FALSE)),TYU49,"")</f>
+        <f t="shared" si="221"/>
         <v/>
       </c>
       <c r="TYX49" t="str">
@@ -60532,15 +60243,15 @@
         <v/>
       </c>
       <c r="UBG49" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" ref="UBG49:UDR49" si="222">IF(ISNA(VLOOKUP(UBE49,$B$2:$B$159,1,FALSE)),UBE49,"")</f>
         <v/>
       </c>
       <c r="UBH49" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="UBI49" t="str">
-        <f t="shared" ref="UBI49:UDT49" si="222">IF(ISNA(VLOOKUP(UBG49,$B$2:$B$159,1,FALSE)),UBG49,"")</f>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="UBJ49" t="str">
@@ -60788,15 +60499,15 @@
         <v/>
       </c>
       <c r="UDS49" t="str">
-        <f t="shared" si="222"/>
+        <f t="shared" ref="UDS49:UGD49" si="223">IF(ISNA(VLOOKUP(UDQ49,$B$2:$B$159,1,FALSE)),UDQ49,"")</f>
         <v/>
       </c>
       <c r="UDT49" t="str">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="UDU49" t="str">
-        <f t="shared" ref="UDU49:UGF49" si="223">IF(ISNA(VLOOKUP(UDS49,$B$2:$B$159,1,FALSE)),UDS49,"")</f>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="UDV49" t="str">
@@ -61044,15 +60755,15 @@
         <v/>
       </c>
       <c r="UGE49" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" ref="UGE49:UIP49" si="224">IF(ISNA(VLOOKUP(UGC49,$B$2:$B$159,1,FALSE)),UGC49,"")</f>
         <v/>
       </c>
       <c r="UGF49" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v/>
       </c>
       <c r="UGG49" t="str">
-        <f t="shared" ref="UGG49:UIR49" si="224">IF(ISNA(VLOOKUP(UGE49,$B$2:$B$159,1,FALSE)),UGE49,"")</f>
+        <f t="shared" si="224"/>
         <v/>
       </c>
       <c r="UGH49" t="str">
@@ -61300,15 +61011,15 @@
         <v/>
       </c>
       <c r="UIQ49" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="UIQ49:ULB49" si="225">IF(ISNA(VLOOKUP(UIO49,$B$2:$B$159,1,FALSE)),UIO49,"")</f>
         <v/>
       </c>
       <c r="UIR49" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="UIS49" t="str">
-        <f t="shared" ref="UIS49:ULD49" si="225">IF(ISNA(VLOOKUP(UIQ49,$B$2:$B$159,1,FALSE)),UIQ49,"")</f>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="UIT49" t="str">
@@ -61556,15 +61267,15 @@
         <v/>
       </c>
       <c r="ULC49" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="ULC49:UNN49" si="226">IF(ISNA(VLOOKUP(ULA49,$B$2:$B$159,1,FALSE)),ULA49,"")</f>
         <v/>
       </c>
       <c r="ULD49" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v/>
       </c>
       <c r="ULE49" t="str">
-        <f t="shared" ref="ULE49:UNP49" si="226">IF(ISNA(VLOOKUP(ULC49,$B$2:$B$159,1,FALSE)),ULC49,"")</f>
+        <f t="shared" si="226"/>
         <v/>
       </c>
       <c r="ULF49" t="str">
@@ -61812,15 +61523,15 @@
         <v/>
       </c>
       <c r="UNO49" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" ref="UNO49:UPZ49" si="227">IF(ISNA(VLOOKUP(UNM49,$B$2:$B$159,1,FALSE)),UNM49,"")</f>
         <v/>
       </c>
       <c r="UNP49" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v/>
       </c>
       <c r="UNQ49" t="str">
-        <f t="shared" ref="UNQ49:UQB49" si="227">IF(ISNA(VLOOKUP(UNO49,$B$2:$B$159,1,FALSE)),UNO49,"")</f>
+        <f t="shared" si="227"/>
         <v/>
       </c>
       <c r="UNR49" t="str">
@@ -62068,15 +61779,15 @@
         <v/>
       </c>
       <c r="UQA49" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="UQA49:USL49" si="228">IF(ISNA(VLOOKUP(UPY49,$B$2:$B$159,1,FALSE)),UPY49,"")</f>
         <v/>
       </c>
       <c r="UQB49" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v/>
       </c>
       <c r="UQC49" t="str">
-        <f t="shared" ref="UQC49:USN49" si="228">IF(ISNA(VLOOKUP(UQA49,$B$2:$B$159,1,FALSE)),UQA49,"")</f>
+        <f t="shared" si="228"/>
         <v/>
       </c>
       <c r="UQD49" t="str">
@@ -62324,15 +62035,15 @@
         <v/>
       </c>
       <c r="USM49" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" ref="USM49:UUX49" si="229">IF(ISNA(VLOOKUP(USK49,$B$2:$B$159,1,FALSE)),USK49,"")</f>
         <v/>
       </c>
       <c r="USN49" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="USO49" t="str">
-        <f t="shared" ref="USO49:UUZ49" si="229">IF(ISNA(VLOOKUP(USM49,$B$2:$B$159,1,FALSE)),USM49,"")</f>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="USP49" t="str">
@@ -62580,15 +62291,15 @@
         <v/>
       </c>
       <c r="UUY49" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" ref="UUY49:UXJ49" si="230">IF(ISNA(VLOOKUP(UUW49,$B$2:$B$159,1,FALSE)),UUW49,"")</f>
         <v/>
       </c>
       <c r="UUZ49" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v/>
       </c>
       <c r="UVA49" t="str">
-        <f t="shared" ref="UVA49:UXL49" si="230">IF(ISNA(VLOOKUP(UUY49,$B$2:$B$159,1,FALSE)),UUY49,"")</f>
+        <f t="shared" si="230"/>
         <v/>
       </c>
       <c r="UVB49" t="str">
@@ -62836,15 +62547,15 @@
         <v/>
       </c>
       <c r="UXK49" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" ref="UXK49:UZV49" si="231">IF(ISNA(VLOOKUP(UXI49,$B$2:$B$159,1,FALSE)),UXI49,"")</f>
         <v/>
       </c>
       <c r="UXL49" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="UXM49" t="str">
-        <f t="shared" ref="UXM49:UZX49" si="231">IF(ISNA(VLOOKUP(UXK49,$B$2:$B$159,1,FALSE)),UXK49,"")</f>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="UXN49" t="str">
@@ -63092,15 +62803,15 @@
         <v/>
       </c>
       <c r="UZW49" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" ref="UZW49:VCH49" si="232">IF(ISNA(VLOOKUP(UZU49,$B$2:$B$159,1,FALSE)),UZU49,"")</f>
         <v/>
       </c>
       <c r="UZX49" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v/>
       </c>
       <c r="UZY49" t="str">
-        <f t="shared" ref="UZY49:VCJ49" si="232">IF(ISNA(VLOOKUP(UZW49,$B$2:$B$159,1,FALSE)),UZW49,"")</f>
+        <f t="shared" si="232"/>
         <v/>
       </c>
       <c r="UZZ49" t="str">
@@ -63348,15 +63059,15 @@
         <v/>
       </c>
       <c r="VCI49" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" ref="VCI49:VET49" si="233">IF(ISNA(VLOOKUP(VCG49,$B$2:$B$159,1,FALSE)),VCG49,"")</f>
         <v/>
       </c>
       <c r="VCJ49" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="VCK49" t="str">
-        <f t="shared" ref="VCK49:VEV49" si="233">IF(ISNA(VLOOKUP(VCI49,$B$2:$B$159,1,FALSE)),VCI49,"")</f>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="VCL49" t="str">
@@ -63604,15 +63315,15 @@
         <v/>
       </c>
       <c r="VEU49" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" ref="VEU49:VHF49" si="234">IF(ISNA(VLOOKUP(VES49,$B$2:$B$159,1,FALSE)),VES49,"")</f>
         <v/>
       </c>
       <c r="VEV49" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="VEW49" t="str">
-        <f t="shared" ref="VEW49:VHH49" si="234">IF(ISNA(VLOOKUP(VEU49,$B$2:$B$159,1,FALSE)),VEU49,"")</f>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="VEX49" t="str">
@@ -63860,15 +63571,15 @@
         <v/>
       </c>
       <c r="VHG49" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" ref="VHG49:VJR49" si="235">IF(ISNA(VLOOKUP(VHE49,$B$2:$B$159,1,FALSE)),VHE49,"")</f>
         <v/>
       </c>
       <c r="VHH49" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="VHI49" t="str">
-        <f t="shared" ref="VHI49:VJT49" si="235">IF(ISNA(VLOOKUP(VHG49,$B$2:$B$159,1,FALSE)),VHG49,"")</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="VHJ49" t="str">
@@ -64116,15 +63827,15 @@
         <v/>
       </c>
       <c r="VJS49" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" ref="VJS49:VMD49" si="236">IF(ISNA(VLOOKUP(VJQ49,$B$2:$B$159,1,FALSE)),VJQ49,"")</f>
         <v/>
       </c>
       <c r="VJT49" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="VJU49" t="str">
-        <f t="shared" ref="VJU49:VMF49" si="236">IF(ISNA(VLOOKUP(VJS49,$B$2:$B$159,1,FALSE)),VJS49,"")</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="VJV49" t="str">
@@ -64372,15 +64083,15 @@
         <v/>
       </c>
       <c r="VME49" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="VME49:VOP49" si="237">IF(ISNA(VLOOKUP(VMC49,$B$2:$B$159,1,FALSE)),VMC49,"")</f>
         <v/>
       </c>
       <c r="VMF49" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="VMG49" t="str">
-        <f t="shared" ref="VMG49:VOR49" si="237">IF(ISNA(VLOOKUP(VME49,$B$2:$B$159,1,FALSE)),VME49,"")</f>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="VMH49" t="str">
@@ -64628,15 +64339,15 @@
         <v/>
       </c>
       <c r="VOQ49" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" ref="VOQ49:VRB49" si="238">IF(ISNA(VLOOKUP(VOO49,$B$2:$B$159,1,FALSE)),VOO49,"")</f>
         <v/>
       </c>
       <c r="VOR49" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v/>
       </c>
       <c r="VOS49" t="str">
-        <f t="shared" ref="VOS49:VRD49" si="238">IF(ISNA(VLOOKUP(VOQ49,$B$2:$B$159,1,FALSE)),VOQ49,"")</f>
+        <f t="shared" si="238"/>
         <v/>
       </c>
       <c r="VOT49" t="str">
@@ -64884,15 +64595,15 @@
         <v/>
       </c>
       <c r="VRC49" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" ref="VRC49:VTN49" si="239">IF(ISNA(VLOOKUP(VRA49,$B$2:$B$159,1,FALSE)),VRA49,"")</f>
         <v/>
       </c>
       <c r="VRD49" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="VRE49" t="str">
-        <f t="shared" ref="VRE49:VTP49" si="239">IF(ISNA(VLOOKUP(VRC49,$B$2:$B$159,1,FALSE)),VRC49,"")</f>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="VRF49" t="str">
@@ -65140,15 +64851,15 @@
         <v/>
       </c>
       <c r="VTO49" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" ref="VTO49:VVZ49" si="240">IF(ISNA(VLOOKUP(VTM49,$B$2:$B$159,1,FALSE)),VTM49,"")</f>
         <v/>
       </c>
       <c r="VTP49" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="VTQ49" t="str">
-        <f t="shared" ref="VTQ49:VWB49" si="240">IF(ISNA(VLOOKUP(VTO49,$B$2:$B$159,1,FALSE)),VTO49,"")</f>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="VTR49" t="str">
@@ -65396,15 +65107,15 @@
         <v/>
       </c>
       <c r="VWA49" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" ref="VWA49:VYL49" si="241">IF(ISNA(VLOOKUP(VVY49,$B$2:$B$159,1,FALSE)),VVY49,"")</f>
         <v/>
       </c>
       <c r="VWB49" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v/>
       </c>
       <c r="VWC49" t="str">
-        <f t="shared" ref="VWC49:VYN49" si="241">IF(ISNA(VLOOKUP(VWA49,$B$2:$B$159,1,FALSE)),VWA49,"")</f>
+        <f t="shared" si="241"/>
         <v/>
       </c>
       <c r="VWD49" t="str">
@@ -65652,15 +65363,15 @@
         <v/>
       </c>
       <c r="VYM49" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" ref="VYM49:WAX49" si="242">IF(ISNA(VLOOKUP(VYK49,$B$2:$B$159,1,FALSE)),VYK49,"")</f>
         <v/>
       </c>
       <c r="VYN49" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="VYO49" t="str">
-        <f t="shared" ref="VYO49:WAZ49" si="242">IF(ISNA(VLOOKUP(VYM49,$B$2:$B$159,1,FALSE)),VYM49,"")</f>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="VYP49" t="str">
@@ -65908,15 +65619,15 @@
         <v/>
       </c>
       <c r="WAY49" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" ref="WAY49:WDJ49" si="243">IF(ISNA(VLOOKUP(WAW49,$B$2:$B$159,1,FALSE)),WAW49,"")</f>
         <v/>
       </c>
       <c r="WAZ49" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="WBA49" t="str">
-        <f t="shared" ref="WBA49:WDL49" si="243">IF(ISNA(VLOOKUP(WAY49,$B$2:$B$159,1,FALSE)),WAY49,"")</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="WBB49" t="str">
@@ -66164,15 +65875,15 @@
         <v/>
       </c>
       <c r="WDK49" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" ref="WDK49:WFV49" si="244">IF(ISNA(VLOOKUP(WDI49,$B$2:$B$159,1,FALSE)),WDI49,"")</f>
         <v/>
       </c>
       <c r="WDL49" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="WDM49" t="str">
-        <f t="shared" ref="WDM49:WFX49" si="244">IF(ISNA(VLOOKUP(WDK49,$B$2:$B$159,1,FALSE)),WDK49,"")</f>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="WDN49" t="str">
@@ -66420,15 +66131,15 @@
         <v/>
       </c>
       <c r="WFW49" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" ref="WFW49:WIH49" si="245">IF(ISNA(VLOOKUP(WFU49,$B$2:$B$159,1,FALSE)),WFU49,"")</f>
         <v/>
       </c>
       <c r="WFX49" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v/>
       </c>
       <c r="WFY49" t="str">
-        <f t="shared" ref="WFY49:WIJ49" si="245">IF(ISNA(VLOOKUP(WFW49,$B$2:$B$159,1,FALSE)),WFW49,"")</f>
+        <f t="shared" si="245"/>
         <v/>
       </c>
       <c r="WFZ49" t="str">
@@ -66676,15 +66387,15 @@
         <v/>
       </c>
       <c r="WII49" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" ref="WII49:WKT49" si="246">IF(ISNA(VLOOKUP(WIG49,$B$2:$B$159,1,FALSE)),WIG49,"")</f>
         <v/>
       </c>
       <c r="WIJ49" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v/>
       </c>
       <c r="WIK49" t="str">
-        <f t="shared" ref="WIK49:WKV49" si="246">IF(ISNA(VLOOKUP(WII49,$B$2:$B$159,1,FALSE)),WII49,"")</f>
+        <f t="shared" si="246"/>
         <v/>
       </c>
       <c r="WIL49" t="str">
@@ -66932,15 +66643,15 @@
         <v/>
       </c>
       <c r="WKU49" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" ref="WKU49:WNF49" si="247">IF(ISNA(VLOOKUP(WKS49,$B$2:$B$159,1,FALSE)),WKS49,"")</f>
         <v/>
       </c>
       <c r="WKV49" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
       <c r="WKW49" t="str">
-        <f t="shared" ref="WKW49:WNH49" si="247">IF(ISNA(VLOOKUP(WKU49,$B$2:$B$159,1,FALSE)),WKU49,"")</f>
+        <f t="shared" si="247"/>
         <v/>
       </c>
       <c r="WKX49" t="str">
@@ -67188,15 +66899,15 @@
         <v/>
       </c>
       <c r="WNG49" t="str">
-        <f t="shared" si="247"/>
+        <f t="shared" ref="WNG49:WPR49" si="248">IF(ISNA(VLOOKUP(WNE49,$B$2:$B$159,1,FALSE)),WNE49,"")</f>
         <v/>
       </c>
       <c r="WNH49" t="str">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v/>
       </c>
       <c r="WNI49" t="str">
-        <f t="shared" ref="WNI49:WPT49" si="248">IF(ISNA(VLOOKUP(WNG49,$B$2:$B$159,1,FALSE)),WNG49,"")</f>
+        <f t="shared" si="248"/>
         <v/>
       </c>
       <c r="WNJ49" t="str">
@@ -67444,15 +67155,15 @@
         <v/>
       </c>
       <c r="WPS49" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" ref="WPS49:WSD49" si="249">IF(ISNA(VLOOKUP(WPQ49,$B$2:$B$159,1,FALSE)),WPQ49,"")</f>
         <v/>
       </c>
       <c r="WPT49" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v/>
       </c>
       <c r="WPU49" t="str">
-        <f t="shared" ref="WPU49:WSF49" si="249">IF(ISNA(VLOOKUP(WPS49,$B$2:$B$159,1,FALSE)),WPS49,"")</f>
+        <f t="shared" si="249"/>
         <v/>
       </c>
       <c r="WPV49" t="str">
@@ -67700,15 +67411,15 @@
         <v/>
       </c>
       <c r="WSE49" t="str">
-        <f t="shared" si="249"/>
+        <f t="shared" ref="WSE49:WUP49" si="250">IF(ISNA(VLOOKUP(WSC49,$B$2:$B$159,1,FALSE)),WSC49,"")</f>
         <v/>
       </c>
       <c r="WSF49" t="str">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v/>
       </c>
       <c r="WSG49" t="str">
-        <f t="shared" ref="WSG49:WUR49" si="250">IF(ISNA(VLOOKUP(WSE49,$B$2:$B$159,1,FALSE)),WSE49,"")</f>
+        <f t="shared" si="250"/>
         <v/>
       </c>
       <c r="WSH49" t="str">
@@ -67956,15 +67667,15 @@
         <v/>
       </c>
       <c r="WUQ49" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" ref="WUQ49:WXB49" si="251">IF(ISNA(VLOOKUP(WUO49,$B$2:$B$159,1,FALSE)),WUO49,"")</f>
         <v/>
       </c>
       <c r="WUR49" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v/>
       </c>
       <c r="WUS49" t="str">
-        <f t="shared" ref="WUS49:WXD49" si="251">IF(ISNA(VLOOKUP(WUQ49,$B$2:$B$159,1,FALSE)),WUQ49,"")</f>
+        <f t="shared" si="251"/>
         <v/>
       </c>
       <c r="WUT49" t="str">
@@ -68212,15 +67923,15 @@
         <v/>
       </c>
       <c r="WXC49" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" ref="WXC49:WZN49" si="252">IF(ISNA(VLOOKUP(WXA49,$B$2:$B$159,1,FALSE)),WXA49,"")</f>
         <v/>
       </c>
       <c r="WXD49" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v/>
       </c>
       <c r="WXE49" t="str">
-        <f t="shared" ref="WXE49:WZP49" si="252">IF(ISNA(VLOOKUP(WXC49,$B$2:$B$159,1,FALSE)),WXC49,"")</f>
+        <f t="shared" si="252"/>
         <v/>
       </c>
       <c r="WXF49" t="str">
@@ -68468,15 +68179,15 @@
         <v/>
       </c>
       <c r="WZO49" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" ref="WZO49:XBZ49" si="253">IF(ISNA(VLOOKUP(WZM49,$B$2:$B$159,1,FALSE)),WZM49,"")</f>
         <v/>
       </c>
       <c r="WZP49" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v/>
       </c>
       <c r="WZQ49" t="str">
-        <f t="shared" ref="WZQ49:XCB49" si="253">IF(ISNA(VLOOKUP(WZO49,$B$2:$B$159,1,FALSE)),WZO49,"")</f>
+        <f t="shared" si="253"/>
         <v/>
       </c>
       <c r="WZR49" t="str">
@@ -68724,15 +68435,15 @@
         <v/>
       </c>
       <c r="XCA49" t="str">
-        <f t="shared" si="253"/>
+        <f t="shared" ref="XCA49:XEK49" si="254">IF(ISNA(VLOOKUP(XBY49,$B$2:$B$159,1,FALSE)),XBY49,"")</f>
         <v/>
       </c>
       <c r="XCB49" t="str">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v/>
       </c>
       <c r="XCC49" t="str">
-        <f t="shared" ref="XCC49:XEM49" si="254">IF(ISNA(VLOOKUP(XCA49,$B$2:$B$159,1,FALSE)),XCA49,"")</f>
+        <f t="shared" si="254"/>
         <v/>
       </c>
       <c r="XCD49" t="str">
@@ -68975,16 +68686,8 @@
         <f t="shared" si="254"/>
         <v/>
       </c>
-      <c r="XEL49" t="str">
-        <f t="shared" si="254"/>
-        <v/>
-      </c>
-      <c r="XEM49" t="str">
-        <f t="shared" si="254"/>
-        <v/>
-      </c>
     </row>
-    <row r="50" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -69000,14 +68703,8 @@
       <c r="E50" s="39">
         <v>0.95</v>
       </c>
-      <c r="F50" s="39">
-        <v>0.95</v>
-      </c>
-      <c r="G50" s="39">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="51" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>91</v>
       </c>
@@ -69021,16 +68718,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="39">
-        <v>5</v>
-      </c>
-      <c r="F51" s="39">
-        <v>5</v>
-      </c>
-      <c r="G51" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>42</v>
       </c>
@@ -69044,16 +68735,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="39">
-        <v>50</v>
-      </c>
-      <c r="F52" s="39">
-        <v>50</v>
-      </c>
-      <c r="G52" s="39">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>43</v>
       </c>
@@ -69069,14 +68754,8 @@
       <c r="E53" s="40">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="F53" s="40">
-        <v>1.3888888888888888E-5</v>
-      </c>
-      <c r="G53" s="40">
-        <v>1.3888888888888888E-5</v>
-      </c>
     </row>
-    <row r="54" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>44</v>
       </c>
@@ -69092,15 +68771,8 @@
       <c r="E54" s="40">
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="F54" s="40">
-        <v>4.5763888888888888E-4</v>
-      </c>
-      <c r="G54" s="83">
-        <f>E54/4</f>
-        <v>1.1440972222222222E-4</v>
-      </c>
     </row>
-    <row r="55" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>45</v>
       </c>
@@ -69116,14 +68788,8 @@
       <c r="E55" s="39">
         <v>3.63E-3</v>
       </c>
-      <c r="F55" s="39">
-        <v>3.63E-3</v>
-      </c>
-      <c r="G55" s="39">
-        <v>3.63E-3</v>
-      </c>
     </row>
-    <row r="56" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>221</v>
       </c>
@@ -69139,14 +68805,8 @@
       <c r="E56" s="40">
         <v>1453890.8941884842</v>
       </c>
-      <c r="F56" s="40">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="G56" s="40">
-        <v>1453890.8941884842</v>
-      </c>
     </row>
-    <row r="57" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>46</v>
       </c>
@@ -69162,14 +68822,8 @@
       <c r="E57" s="40">
         <v>491356.80000000005</v>
       </c>
-      <c r="F57" s="40">
-        <v>491356.80000000005</v>
-      </c>
-      <c r="G57" s="40">
-        <v>491356.80000000005</v>
-      </c>
     </row>
-    <row r="58" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>47</v>
       </c>
@@ -69185,14 +68839,8 @@
       <c r="E58" s="39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F58" s="39">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G58" s="39">
-        <v>0.57999999999999996</v>
-      </c>
     </row>
-    <row r="59" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>48</v>
       </c>
@@ -69208,14 +68856,8 @@
       <c r="E59" s="42">
         <v>0.25862068965517243</v>
       </c>
-      <c r="F59" s="42">
-        <v>0.25862068965517243</v>
-      </c>
-      <c r="G59" s="42">
-        <v>0.25862068965517243</v>
-      </c>
     </row>
-    <row r="60" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>49</v>
       </c>
@@ -69231,14 +68873,8 @@
       <c r="E60" s="39">
         <v>0</v>
       </c>
-      <c r="F60" s="39">
-        <v>0</v>
-      </c>
-      <c r="G60" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>50</v>
       </c>
@@ -69254,14 +68890,8 @@
       <c r="E61" s="40">
         <v>745476480000</v>
       </c>
-      <c r="F61" s="40">
-        <v>745476480000</v>
-      </c>
-      <c r="G61" s="40">
-        <v>745476480000</v>
-      </c>
     </row>
-    <row r="62" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A62" s="36" t="s">
         <v>218</v>
       </c>
@@ -69277,14 +68907,8 @@
       <c r="E62" s="39">
         <v>100</v>
       </c>
-      <c r="F62" s="39">
-        <v>100</v>
-      </c>
-      <c r="G62" s="39">
-        <v>100</v>
-      </c>
     </row>
-    <row r="63" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>51</v>
       </c>
@@ -69300,14 +68924,8 @@
       <c r="E63" s="79">
         <v>48338.181819999998</v>
       </c>
-      <c r="F63" s="79">
-        <v>48338.181819999998</v>
-      </c>
-      <c r="G63" s="79">
-        <v>48338.181819999998</v>
-      </c>
     </row>
-    <row r="64" spans="1:16367" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16365" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>52</v>
       </c>
@@ -69323,14 +68941,8 @@
       <c r="E64" s="39">
         <v>140000</v>
       </c>
-      <c r="F64" s="39">
-        <v>140000</v>
-      </c>
-      <c r="G64" s="39">
-        <v>140000</v>
-      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>53</v>
       </c>
@@ -69346,14 +68958,8 @@
       <c r="E65" s="40">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="F65" s="40">
-        <v>3.6636136999999999E-2</v>
-      </c>
-      <c r="G65" s="40">
-        <v>3.6636136999999999E-2</v>
-      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>54</v>
       </c>
@@ -69369,14 +68975,8 @@
       <c r="E66" s="39">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F66" s="39">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G66" s="39">
-        <v>3.5000000000000001E-3</v>
-      </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>55</v>
       </c>
@@ -69392,14 +68992,8 @@
       <c r="E67" s="39">
         <v>0.05</v>
       </c>
-      <c r="F67" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G67" s="39">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>227</v>
       </c>
@@ -69415,14 +69009,8 @@
       <c r="E68" s="39">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="F68" s="39">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="G68" s="39">
-        <v>6.0000000000000002E-6</v>
-      </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>228</v>
       </c>
@@ -69438,14 +69026,8 @@
       <c r="E69" s="39">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="G69" s="39">
-        <v>1E-3</v>
-      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>229</v>
       </c>
@@ -69461,14 +69043,8 @@
       <c r="E70" s="39">
         <v>374999999.99999994</v>
       </c>
-      <c r="F70" s="39">
-        <v>374999999.99999994</v>
-      </c>
-      <c r="G70" s="39">
-        <v>374999999.99999994</v>
-      </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>230</v>
       </c>
@@ -69484,14 +69060,8 @@
       <c r="E71" s="40">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="F71" s="40">
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="G71" s="40">
-        <v>3.7037037037037038E-3</v>
-      </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>231</v>
       </c>
@@ -69507,14 +69077,8 @@
       <c r="E72" s="39">
         <v>165600</v>
       </c>
-      <c r="F72" s="39">
-        <v>165600</v>
-      </c>
-      <c r="G72" s="39">
-        <v>165600</v>
-      </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>60</v>
       </c>
@@ -69530,14 +69094,8 @@
       <c r="E73" s="39">
         <v>20</v>
       </c>
-      <c r="F73" s="39">
-        <v>20</v>
-      </c>
-      <c r="G73" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>222</v>
       </c>
@@ -69553,14 +69111,8 @@
       <c r="E74" s="39">
         <v>1</v>
       </c>
-      <c r="F74" s="39">
-        <v>1</v>
-      </c>
-      <c r="G74" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>59</v>
       </c>
@@ -69576,14 +69128,8 @@
       <c r="E75" s="39">
         <v>21</v>
       </c>
-      <c r="F75" s="39">
-        <v>21</v>
-      </c>
-      <c r="G75" s="39">
-        <v>21</v>
-      </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>65</v>
       </c>
@@ -69599,14 +69145,8 @@
       <c r="E76" s="39">
         <v>0.64</v>
       </c>
-      <c r="F76" s="39">
-        <v>0.64</v>
-      </c>
-      <c r="G76" s="39">
-        <v>0.64</v>
-      </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>380</v>
       </c>
@@ -69622,14 +69162,8 @@
       <c r="E77" s="39">
         <v>8</v>
       </c>
-      <c r="F77" s="39">
-        <v>8</v>
-      </c>
-      <c r="G77" s="39">
-        <v>8</v>
-      </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>381</v>
       </c>
@@ -69645,14 +69179,8 @@
       <c r="E78" s="39">
         <v>10</v>
       </c>
-      <c r="F78" s="39">
-        <v>10</v>
-      </c>
-      <c r="G78" s="39">
-        <v>10</v>
-      </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>382</v>
       </c>
@@ -69668,14 +69196,8 @@
       <c r="E79" s="39">
         <v>8</v>
       </c>
-      <c r="F79" s="39">
-        <v>8</v>
-      </c>
-      <c r="G79" s="39">
-        <v>8</v>
-      </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>61</v>
       </c>
@@ -69691,14 +69213,8 @@
       <c r="E80" s="39">
         <v>0.8</v>
       </c>
-      <c r="F80" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="G80" s="85">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>62</v>
       </c>
@@ -69714,14 +69230,8 @@
       <c r="E81" s="40">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F81" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="G81" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>63</v>
       </c>
@@ -69737,14 +69247,8 @@
       <c r="E82" s="43">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="F82" s="43">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="G82" s="43">
-        <v>5.7899999999999998E-7</v>
-      </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>64</v>
       </c>
@@ -69760,14 +69264,8 @@
       <c r="E83" s="40">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F83" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="G83" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>66</v>
       </c>
@@ -69780,17 +69278,11 @@
       <c r="D84" s="70">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="83">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F84" s="84">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G84" s="84">
-        <v>1.0000000000000001E-5</v>
-      </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>242</v>
       </c>
@@ -69806,14 +69298,8 @@
       <c r="E85" s="39">
         <v>10</v>
       </c>
-      <c r="F85" s="39">
-        <v>10</v>
-      </c>
-      <c r="G85" s="39">
-        <v>10</v>
-      </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>243</v>
       </c>
@@ -69829,14 +69315,8 @@
       <c r="E86" s="39">
         <v>-0.04</v>
       </c>
-      <c r="F86" s="39">
-        <v>-0.04</v>
-      </c>
-      <c r="G86" s="39">
-        <v>-0.04</v>
-      </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>244</v>
       </c>
@@ -69852,14 +69332,8 @@
       <c r="E87" s="39">
         <v>2.9</v>
       </c>
-      <c r="F87" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="G87" s="39">
-        <v>2.9</v>
-      </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>245</v>
       </c>
@@ -69875,14 +69349,8 @@
       <c r="E88" s="39">
         <v>1</v>
       </c>
-      <c r="F88" s="39">
-        <v>1</v>
-      </c>
-      <c r="G88" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>68</v>
       </c>
@@ -69898,14 +69366,8 @@
       <c r="E89" s="41">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="F89" s="41">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="G89" s="41">
-        <v>6.0000000000000002E-5</v>
-      </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>246</v>
       </c>
@@ -69921,14 +69383,8 @@
       <c r="E90" s="39">
         <v>10</v>
       </c>
-      <c r="F90" s="39">
-        <v>10</v>
-      </c>
-      <c r="G90" s="39">
-        <v>10</v>
-      </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
         <v>247</v>
       </c>
@@ -69944,14 +69400,8 @@
       <c r="E91" s="39">
         <v>-0.04</v>
       </c>
-      <c r="F91" s="39">
-        <v>-0.04</v>
-      </c>
-      <c r="G91" s="39">
-        <v>-0.04</v>
-      </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
         <v>248</v>
       </c>
@@ -69967,14 +69417,8 @@
       <c r="E92" s="39">
         <v>2.9</v>
       </c>
-      <c r="F92" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="G92" s="39">
-        <v>2.9</v>
-      </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>249</v>
       </c>
@@ -69990,14 +69434,8 @@
       <c r="E93" s="39">
         <v>1</v>
       </c>
-      <c r="F93" s="39">
-        <v>1</v>
-      </c>
-      <c r="G93" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
         <v>69</v>
       </c>
@@ -70013,14 +69451,8 @@
       <c r="E94" s="39">
         <v>0</v>
       </c>
-      <c r="F94" s="39">
-        <v>0</v>
-      </c>
-      <c r="G94" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>70</v>
       </c>
@@ -70036,14 +69468,8 @@
       <c r="E95" s="40">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="F95" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="G95" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>56</v>
       </c>
@@ -70059,14 +69485,8 @@
       <c r="E96" s="39">
         <v>0</v>
       </c>
-      <c r="F96" s="39">
-        <v>0</v>
-      </c>
-      <c r="G96" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>57</v>
       </c>
@@ -70082,14 +69502,8 @@
       <c r="E97" s="39">
         <v>2E-3</v>
       </c>
-      <c r="F97" s="39">
-        <v>2E-3</v>
-      </c>
-      <c r="G97" s="39">
-        <v>2E-3</v>
-      </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>58</v>
       </c>
@@ -70105,14 +69519,8 @@
       <c r="E98" s="41">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F98" s="41">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G98" s="41">
-        <v>3.9999999999999998E-6</v>
-      </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>71</v>
       </c>
@@ -70128,14 +69536,8 @@
       <c r="E99" s="41">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="F99" s="41">
-        <v>3.7699999999999999E-10</v>
-      </c>
-      <c r="G99" s="41">
-        <v>3.7699999999999999E-10</v>
-      </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>250</v>
       </c>
@@ -70151,14 +69553,8 @@
       <c r="E100" s="39">
         <v>20</v>
       </c>
-      <c r="F100" s="39">
-        <v>20</v>
-      </c>
-      <c r="G100" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>251</v>
       </c>
@@ -70174,14 +69570,8 @@
       <c r="E101" s="39">
         <v>-0.06</v>
       </c>
-      <c r="F101" s="39">
-        <v>-0.06</v>
-      </c>
-      <c r="G101" s="39">
-        <v>-0.06</v>
-      </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>252</v>
       </c>
@@ -70197,14 +69587,8 @@
       <c r="E102" s="39">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F102" s="39">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G102" s="39">
-        <v>0.89100000000000001</v>
-      </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>253</v>
       </c>
@@ -70220,14 +69604,8 @@
       <c r="E103" s="39">
         <v>1</v>
       </c>
-      <c r="F103" s="39">
-        <v>1</v>
-      </c>
-      <c r="G103" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>72</v>
       </c>
@@ -70243,14 +69621,8 @@
       <c r="E104" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F104" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="G104" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>73</v>
       </c>
@@ -70266,14 +69638,8 @@
       <c r="E105" s="41">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="F105" s="41">
-        <v>5.8333333333333335E-9</v>
-      </c>
-      <c r="G105" s="41">
-        <v>5.8333333333333335E-9</v>
-      </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>254</v>
       </c>
@@ -70289,14 +69655,8 @@
       <c r="E106" s="39">
         <v>20</v>
       </c>
-      <c r="F106" s="39">
-        <v>20</v>
-      </c>
-      <c r="G106" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>255</v>
       </c>
@@ -70312,14 +69672,8 @@
       <c r="E107" s="39">
         <v>-0.06</v>
       </c>
-      <c r="F107" s="39">
-        <v>-0.06</v>
-      </c>
-      <c r="G107" s="39">
-        <v>-0.06</v>
-      </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>256</v>
       </c>
@@ -70335,14 +69689,8 @@
       <c r="E108" s="39">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F108" s="39">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G108" s="39">
-        <v>0.89100000000000001</v>
-      </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>257</v>
       </c>
@@ -70358,14 +69706,8 @@
       <c r="E109" s="39">
         <v>1</v>
       </c>
-      <c r="F109" s="39">
-        <v>1</v>
-      </c>
-      <c r="G109" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>74</v>
       </c>
@@ -70381,14 +69723,8 @@
       <c r="E110" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F110" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="G110" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>75</v>
       </c>
@@ -70404,14 +69740,8 @@
       <c r="E111" s="41">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="F111" s="41">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="G111" s="41">
-        <v>4.9999999999999998E-8</v>
-      </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>232</v>
       </c>
@@ -70427,14 +69757,8 @@
       <c r="E112" s="39">
         <v>20</v>
       </c>
-      <c r="F112" s="39">
-        <v>20</v>
-      </c>
-      <c r="G112" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>233</v>
       </c>
@@ -70450,14 +69774,8 @@
       <c r="E113" s="39">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="F113" s="39">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-      <c r="G113" s="39">
-        <v>-4.4200000000000003E-2</v>
-      </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>234</v>
       </c>
@@ -70473,14 +69791,8 @@
       <c r="E114" s="39">
         <v>1.55</v>
       </c>
-      <c r="F114" s="39">
-        <v>1.55</v>
-      </c>
-      <c r="G114" s="39">
-        <v>1.55</v>
-      </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>235</v>
       </c>
@@ -70496,14 +69808,8 @@
       <c r="E115" s="39">
         <v>1</v>
       </c>
-      <c r="F115" s="39">
-        <v>1</v>
-      </c>
-      <c r="G115" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>76</v>
       </c>
@@ -70519,14 +69825,8 @@
       <c r="E116" s="39">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="F116" s="39">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="G116" s="39">
-        <v>2.7799999999999998E-4</v>
-      </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>78</v>
       </c>
@@ -70539,17 +69839,11 @@
       <c r="D117" s="75">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="E117" s="84">
+      <c r="E117" s="83">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F117" s="84">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G117" s="84">
-        <v>2.0000000000000002E-5</v>
-      </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>259</v>
       </c>
@@ -70565,14 +69859,8 @@
       <c r="E118" s="39">
         <v>20</v>
       </c>
-      <c r="F118" s="39">
-        <v>20</v>
-      </c>
-      <c r="G118" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>260</v>
       </c>
@@ -70588,14 +69876,8 @@
       <c r="E119" s="39">
         <v>0</v>
       </c>
-      <c r="F119" s="39">
-        <v>0</v>
-      </c>
-      <c r="G119" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>261</v>
       </c>
@@ -70611,14 +69893,8 @@
       <c r="E120" s="39">
         <v>1</v>
       </c>
-      <c r="F120" s="39">
-        <v>1</v>
-      </c>
-      <c r="G120" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>262</v>
       </c>
@@ -70634,14 +69910,8 @@
       <c r="E121" s="39">
         <v>0</v>
       </c>
-      <c r="F121" s="39">
-        <v>0</v>
-      </c>
-      <c r="G121" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>79</v>
       </c>
@@ -70654,17 +69924,11 @@
       <c r="D122" s="75">
         <v>0.4</v>
       </c>
-      <c r="E122" s="85">
+      <c r="E122" s="84">
         <v>0.6</v>
       </c>
-      <c r="F122" s="85">
-        <v>0.6</v>
-      </c>
-      <c r="G122" s="85">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="34" t="s">
         <v>80</v>
       </c>
@@ -70680,14 +69944,8 @@
       <c r="E123" s="80">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F123" s="80">
-        <v>4.0000000000000001E-8</v>
-      </c>
-      <c r="G123" s="80">
-        <v>4.0000000000000001E-8</v>
-      </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="34" t="s">
         <v>263</v>
       </c>
@@ -70703,14 +69961,8 @@
       <c r="E124" s="39">
         <v>25</v>
       </c>
-      <c r="F124" s="39">
-        <v>25</v>
-      </c>
-      <c r="G124" s="39">
-        <v>25</v>
-      </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="34" t="s">
         <v>264</v>
       </c>
@@ -70726,14 +69978,8 @@
       <c r="E125" s="39">
         <v>0</v>
       </c>
-      <c r="F125" s="39">
-        <v>0</v>
-      </c>
-      <c r="G125" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="34" t="s">
         <v>265</v>
       </c>
@@ -70749,14 +69995,8 @@
       <c r="E126" s="39">
         <v>3.98</v>
       </c>
-      <c r="F126" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="G126" s="39">
-        <v>3.98</v>
-      </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>266</v>
       </c>
@@ -70772,14 +70012,8 @@
       <c r="E127" s="39">
         <v>1</v>
       </c>
-      <c r="F127" s="39">
-        <v>1</v>
-      </c>
-      <c r="G127" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="34" t="s">
         <v>81</v>
       </c>
@@ -70795,14 +70029,8 @@
       <c r="E128" s="40">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="F128" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="G128" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>267</v>
       </c>
@@ -70818,15 +70046,8 @@
       <c r="E129" s="80">
         <v>9.9855540337513895E-10</v>
       </c>
-      <c r="F129" s="80">
-        <v>9.9855540337513895E-10</v>
-      </c>
-      <c r="G129" s="79">
-        <f>E129*4</f>
-        <v>3.9942216135005558E-9</v>
-      </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>268</v>
       </c>
@@ -70842,14 +70063,8 @@
       <c r="E130" s="39">
         <v>20</v>
       </c>
-      <c r="F130" s="39">
-        <v>20</v>
-      </c>
-      <c r="G130" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>269</v>
       </c>
@@ -70865,14 +70080,8 @@
       <c r="E131" s="39">
         <v>0</v>
       </c>
-      <c r="F131" s="39">
-        <v>0</v>
-      </c>
-      <c r="G131" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>270</v>
       </c>
@@ -70888,14 +70097,8 @@
       <c r="E132" s="39">
         <v>2</v>
       </c>
-      <c r="F132" s="39">
-        <v>2</v>
-      </c>
-      <c r="G132" s="39">
-        <v>2</v>
-      </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>271</v>
       </c>
@@ -70911,14 +70114,8 @@
       <c r="E133" s="39">
         <v>1</v>
       </c>
-      <c r="F133" s="39">
-        <v>1</v>
-      </c>
-      <c r="G133" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>272</v>
       </c>
@@ -70934,15 +70131,8 @@
       <c r="E134" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F134" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="G134" s="83">
-        <f>F134/4</f>
-        <v>2.0833333333333333E-5</v>
-      </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>273</v>
       </c>
@@ -70955,17 +70145,11 @@
       <c r="D135" s="68">
         <v>1</v>
       </c>
-      <c r="E135" s="85">
+      <c r="E135" s="84">
         <v>0.4</v>
       </c>
-      <c r="F135" s="85">
-        <v>0.4</v>
-      </c>
-      <c r="G135" s="85">
-        <v>0.4</v>
-      </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
         <v>274</v>
       </c>
@@ -70981,14 +70165,8 @@
       <c r="E136" s="82">
         <v>2.3533050791148899E-7</v>
       </c>
-      <c r="F136" s="82">
-        <v>2.3533050791148899E-7</v>
-      </c>
-      <c r="G136" s="82">
-        <v>2.3533050791148899E-7</v>
-      </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
         <v>275</v>
       </c>
@@ -71004,14 +70182,8 @@
       <c r="E137" s="39">
         <v>20</v>
       </c>
-      <c r="F137" s="39">
-        <v>20</v>
-      </c>
-      <c r="G137" s="39">
-        <v>20</v>
-      </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
         <v>276</v>
       </c>
@@ -71027,14 +70199,8 @@
       <c r="E138" s="39">
         <v>-0.187</v>
       </c>
-      <c r="F138" s="39">
-        <v>-0.187</v>
-      </c>
-      <c r="G138" s="39">
-        <v>-0.187</v>
-      </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
         <v>277</v>
       </c>
@@ -71050,14 +70216,8 @@
       <c r="E139" s="39">
         <v>2.48</v>
       </c>
-      <c r="F139" s="39">
-        <v>2.48</v>
-      </c>
-      <c r="G139" s="39">
-        <v>2.48</v>
-      </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
         <v>278</v>
       </c>
@@ -71073,14 +70233,8 @@
       <c r="E140" s="39">
         <v>1</v>
       </c>
-      <c r="F140" s="39">
-        <v>1</v>
-      </c>
-      <c r="G140" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
         <v>279</v>
       </c>
@@ -71096,14 +70250,8 @@
       <c r="E141" s="39">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="F141" s="39">
-        <v>6.1060227588121015E-4</v>
-      </c>
-      <c r="G141" s="39">
-        <v>6.1060227588121015E-4</v>
-      </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
         <v>280</v>
       </c>
@@ -71119,14 +70267,8 @@
       <c r="E142" s="39">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="F142" s="85">
-        <v>0</v>
-      </c>
-      <c r="G142" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
         <v>281</v>
       </c>
@@ -71142,14 +70284,8 @@
       <c r="E143" s="39">
         <v>25</v>
       </c>
-      <c r="F143" s="39">
-        <v>25</v>
-      </c>
-      <c r="G143" s="39">
-        <v>25</v>
-      </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
         <v>282</v>
       </c>
@@ -71165,14 +70301,8 @@
       <c r="E144" s="39">
         <v>0</v>
       </c>
-      <c r="F144" s="39">
-        <v>0</v>
-      </c>
-      <c r="G144" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>283</v>
       </c>
@@ -71188,14 +70318,8 @@
       <c r="E145" s="39">
         <v>3.98</v>
       </c>
-      <c r="F145" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="G145" s="39">
-        <v>3.98</v>
-      </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
         <v>284</v>
       </c>
@@ -71211,14 +70335,8 @@
       <c r="E146" s="39">
         <v>1</v>
       </c>
-      <c r="F146" s="39">
-        <v>1</v>
-      </c>
-      <c r="G146" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="24" t="s">
         <v>285</v>
       </c>
@@ -71234,14 +70352,8 @@
       <c r="E147" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F147" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="G147" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>286</v>
       </c>
@@ -71257,14 +70369,8 @@
       <c r="E148" s="39">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="F148" s="85">
-        <v>0</v>
-      </c>
-      <c r="G148" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>287</v>
       </c>
@@ -71280,14 +70386,8 @@
       <c r="E149" s="39">
         <v>25</v>
       </c>
-      <c r="F149" s="39">
-        <v>25</v>
-      </c>
-      <c r="G149" s="39">
-        <v>25</v>
-      </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>288</v>
       </c>
@@ -71303,14 +70403,8 @@
       <c r="E150" s="39">
         <v>0</v>
       </c>
-      <c r="F150" s="39">
-        <v>0</v>
-      </c>
-      <c r="G150" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>289</v>
       </c>
@@ -71326,14 +70420,8 @@
       <c r="E151" s="39">
         <v>3.98</v>
       </c>
-      <c r="F151" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="G151" s="39">
-        <v>3.98</v>
-      </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>290</v>
       </c>
@@ -71349,14 +70437,8 @@
       <c r="E152" s="39">
         <v>1</v>
       </c>
-      <c r="F152" s="39">
-        <v>1</v>
-      </c>
-      <c r="G152" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>291</v>
       </c>
@@ -71372,14 +70454,8 @@
       <c r="E153" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F153" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="G153" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="30" t="s">
         <v>292</v>
       </c>
@@ -71395,14 +70471,8 @@
       <c r="E154" s="39">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="F154" s="85">
-        <v>0</v>
-      </c>
-      <c r="G154" s="39">
-        <v>1.9999999999999999E-7</v>
-      </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="30" t="s">
         <v>293</v>
       </c>
@@ -71418,14 +70488,8 @@
       <c r="E155" s="39">
         <v>25</v>
       </c>
-      <c r="F155" s="39">
-        <v>25</v>
-      </c>
-      <c r="G155" s="39">
-        <v>25</v>
-      </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="30" t="s">
         <v>294</v>
       </c>
@@ -71441,14 +70505,8 @@
       <c r="E156" s="39">
         <v>0</v>
       </c>
-      <c r="F156" s="39">
-        <v>0</v>
-      </c>
-      <c r="G156" s="39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
         <v>295</v>
       </c>
@@ -71464,14 +70522,8 @@
       <c r="E157" s="39">
         <v>3.98</v>
       </c>
-      <c r="F157" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="G157" s="39">
-        <v>3.98</v>
-      </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="30" t="s">
         <v>296</v>
       </c>
@@ -71487,14 +70539,8 @@
       <c r="E158" s="39">
         <v>1</v>
       </c>
-      <c r="F158" s="39">
-        <v>1</v>
-      </c>
-      <c r="G158" s="39">
-        <v>1</v>
-      </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="30" t="s">
         <v>297</v>
       </c>
@@ -71510,14 +70556,8 @@
       <c r="E159" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F159" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="G159" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>375</v>
       </c>
@@ -71530,14 +70570,8 @@
       <c r="D160" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E160" s="84">
+      <c r="E160" s="83">
         <v>8</v>
-      </c>
-      <c r="F160" s="84">
-        <v>9</v>
-      </c>
-      <c r="G160" s="84">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="476">
   <si>
     <t>input_file</t>
   </si>
@@ -1391,10 +1391,64 @@
     <t>Real number / mol of hexose per second</t>
   </si>
   <si>
-    <t>random_zoning</t>
-  </si>
-  <si>
-    <t>reference_hexose_consumption_by_growth</t>
+    <t>max_loading_rate</t>
+  </si>
+  <si>
+    <t>max_unloading_rate</t>
+  </si>
+  <si>
+    <t>Maximum loading rate of hexose through the surface of the phloem vessels</t>
+  </si>
+  <si>
+    <t>Real number / mol of hexose per square meter of phloem per second</t>
+  </si>
+  <si>
+    <t>Affinity constant (in terms of Michaelis-Menten formalism) for phloem unloading, corresponding to the concentration for which the rate is equal to half of the maximal rate</t>
+  </si>
+  <si>
+    <t>Real number / mol of sucrose per gram of root dry structural mass</t>
+  </si>
+  <si>
+    <t>phloem_unloading_T_ref</t>
+  </si>
+  <si>
+    <t>phloem_unloading_A</t>
+  </si>
+  <si>
+    <t>phloem_unloading_B</t>
+  </si>
+  <si>
+    <t>phloem_unloading_C</t>
+  </si>
+  <si>
+    <t>start_from_a_known_root_MTG</t>
+  </si>
+  <si>
+    <t>root_MTG_file</t>
+  </si>
+  <si>
+    <t>Option to start from a given root MTG to be loaded, or from scratch (True/False)</t>
+  </si>
+  <si>
+    <t>Name of the root MTG file to be loaded (if the option above has been declared True)</t>
+  </si>
+  <si>
+    <t>initial_root_MTG.pckl</t>
+  </si>
+  <si>
+    <t>unloading_by_diffusion</t>
+  </si>
+  <si>
+    <t>Option to select a diffusion process rather than a Michaelis-Menten to describe phloem unloading (True/False)</t>
+  </si>
+  <si>
+    <t>starting_time_in_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time in the input file at which the simulation will start </t>
+  </si>
+  <si>
+    <t>sucrose_input_0047.csv</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,6 +1912,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2038,7 +2104,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2207,55 +2273,42 @@
     <xf numFmtId="11" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="53" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="55" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2630,13 +2683,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2645,12 +2698,10 @@
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="98" customWidth="1"/>
+    <col min="5" max="14" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -2664,16 +2715,10 @@
         <v>389</v>
       </c>
       <c r="E1" s="44">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2689,18 +2734,8 @@
       <c r="E2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F2" t="str">
-        <f>IF(E2=H2,"","ARGH!")</f>
-        <v/>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2716,374 +2751,235 @@
       <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">IF(E3=H3,"","ARGH!")</f>
-        <v/>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="90" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="64">
-        <v>60</v>
-      </c>
-      <c r="E4" s="83">
-        <v>180</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="39">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="49">
-        <v>4.1666666999999998E-2</v>
-      </c>
-      <c r="E5" s="40">
-        <v>4.1666666999999998E-2</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="40">
-        <v>4.1666666999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="64">
+        <v>60</v>
+      </c>
+      <c r="E6" s="82">
         <v>5</v>
       </c>
-      <c r="E6" s="39">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="49">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="E7" s="40">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="64">
+        <v>5</v>
+      </c>
+      <c r="E8" s="96">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="39">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="62">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" ref="E10" si="0">1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="62">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="E11" s="95">
         <v>0</v>
       </c>
-      <c r="H7" s="88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="62">
-        <v>1</v>
-      </c>
-      <c r="E8" s="39">
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="E12" s="97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D13" s="50">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E13" s="84">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="41">
-        <v>5.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D14" s="62">
         <v>10</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E14" s="97">
         <v>10</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="39">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="63">
-        <v>3</v>
-      </c>
-      <c r="E13" s="39">
-        <v>3</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H14" s="89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>388</v>
+        <v>122</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="D16" s="63">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>97</v>
@@ -3091,26 +2987,16 @@
       <c r="D17" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>97</v>
@@ -3121,23 +3007,13 @@
       <c r="E18" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>97</v>
@@ -3148,50 +3024,30 @@
       <c r="E19" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="39" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="63">
-        <v>0.33</v>
-      </c>
-      <c r="E20" s="39">
-        <v>0.33</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="39">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>97</v>
@@ -3199,26 +3055,16 @@
       <c r="D21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>97</v>
@@ -3229,2072 +3075,1322 @@
       <c r="E22" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0.33</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="B25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="63" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="E25" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E26" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D27" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E27" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D28" s="52">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E28" s="41">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="90">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D29" s="52">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E29" s="41">
         <v>1E-3</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="90">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E33" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D34" s="61">
         <v>120</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E34" s="39">
         <v>120</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="39">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="61">
-        <v>0</v>
-      </c>
-      <c r="E32" s="39">
-        <v>0</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="61">
-        <v>0</v>
-      </c>
-      <c r="E33" s="39">
-        <v>0</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="61">
-        <v>-0.1</v>
-      </c>
-      <c r="E34" s="39">
-        <v>-0.1</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="39">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="61">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="39">
-        <v>-0.2</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="39">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="61">
+        <v>0</v>
+      </c>
+      <c r="E36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="61">
+        <v>-0.1</v>
+      </c>
+      <c r="E37" s="39">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="61">
+        <v>-0.2</v>
+      </c>
+      <c r="E38" s="39">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="61">
         <v>0.4</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E39" s="39">
         <v>0.4</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="39">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D40" s="61">
         <v>0</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E40" s="39">
         <v>0</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="39">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="61">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="61">
+        <v>1200</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="66">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="61">
-        <v>1200</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1200</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="61">
-        <v>1200</v>
-      </c>
-      <c r="E39" s="39">
-        <v>1200</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="67">
+        <v>1E-3</v>
+      </c>
+      <c r="E48" s="41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="67">
+        <v>0</v>
+      </c>
+      <c r="E49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="54">
+        <v>1E-4</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="54">
+        <v>1E-4</v>
+      </c>
+      <c r="E51" s="39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="70">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E52" s="39">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="70">
+        <v>1.22E-4</v>
+      </c>
+      <c r="E53" s="39">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="70">
+        <v>1</v>
+      </c>
+      <c r="E54" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="E55" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D56" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="70">
+        <v>5</v>
+      </c>
+      <c r="E57" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="70">
+        <v>50</v>
+      </c>
+      <c r="E59" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="55">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="E60" s="40">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="70">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="E61" s="40">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="70">
+        <v>4.5763888888888888E-4</v>
+      </c>
+      <c r="E62" s="40">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="70">
+        <v>3.63E-3</v>
+      </c>
+      <c r="E63" s="39">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="55">
+        <v>491356.80000000005</v>
+      </c>
+      <c r="E64" s="40">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="70">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E65" s="39">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="70">
+        <v>0.25862068965517243</v>
+      </c>
+      <c r="E66" s="80">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="70">
+        <v>0</v>
+      </c>
+      <c r="E67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" s="71">
+        <v>745476480000</v>
+      </c>
+      <c r="E68" s="40">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="71">
+        <v>100</v>
+      </c>
+      <c r="E69" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E70" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="66">
-        <v>0</v>
-      </c>
-      <c r="E42" s="39">
-        <v>0</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="66">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="71">
+        <v>29203.200000000001</v>
+      </c>
+      <c r="E71" s="39">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="71">
         <v>0.5</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E72" s="39">
         <v>0.5</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="66">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="39">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="67">
-        <v>1E-3</v>
-      </c>
-      <c r="E45" s="41">
-        <v>1E-3</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="41">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="67">
-        <v>0</v>
-      </c>
-      <c r="E46" s="39">
-        <v>0</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H46" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="54">
-        <v>1E-4</v>
-      </c>
-      <c r="E47" s="39">
-        <v>1E-4</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="39">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="54">
-        <v>1E-4</v>
-      </c>
-      <c r="E48" s="39">
-        <v>1E-4</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="39">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="70">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E49" s="39">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="91">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="70">
-        <v>1.22E-4</v>
-      </c>
-      <c r="E50" s="39">
-        <v>1.22E-4</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="91">
-        <v>1.22E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="70">
-        <v>1</v>
-      </c>
-      <c r="E51" s="39">
-        <v>1</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="H51" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="70">
-        <v>0.95</v>
-      </c>
-      <c r="E52" s="39">
-        <v>0.95</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="39">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="70">
-        <v>5</v>
-      </c>
-      <c r="E54" s="39">
-        <v>5</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="70">
-        <v>50</v>
-      </c>
-      <c r="E56" s="39">
-        <v>50</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="55">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="E57" s="40">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="40">
-        <v>1453890.8941884842</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="70">
-        <v>1.3888888888888888E-5</v>
-      </c>
-      <c r="E58" s="40">
-        <v>1.3888888888888888E-5</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="40">
-        <v>1.3888888888888888E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="70">
-        <v>4.5763888888888888E-4</v>
-      </c>
-      <c r="E59" s="40">
-        <v>6.5011574074074071E-4</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="92">
-        <v>6.5011574074074071E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="70">
-        <v>3.63E-3</v>
-      </c>
-      <c r="E60" s="39">
-        <v>4.7400000000000003E-3</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" s="83">
-        <v>4.7400000000000003E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="55">
-        <v>491356.80000000005</v>
-      </c>
-      <c r="E61" s="40">
-        <v>282528</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="92">
-        <v>282528</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="70">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E62" s="39">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" s="83">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="70">
-        <v>0.25862068965517243</v>
-      </c>
-      <c r="E63" s="80">
-        <v>0.16</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="93">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="70">
-        <v>0</v>
-      </c>
-      <c r="E64" s="39">
-        <v>0</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="D65" s="71">
-        <v>745476480000</v>
-      </c>
-      <c r="E65" s="40">
-        <v>745476480000</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="94">
-        <v>745476480000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="71">
-        <v>100</v>
-      </c>
-      <c r="E66" s="39">
-        <v>100</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="H66" s="95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">IF(E67=H67,"","ARGH!")</f>
-        <v/>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="H67" s="95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="71">
-        <v>29203.200000000001</v>
-      </c>
-      <c r="E68" s="39">
-        <v>21600</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="H68" s="83">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="H69" s="83">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="36" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B73" s="37" t="s">
         <v>427</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="71">
-        <v>387936</v>
-      </c>
-      <c r="E70" s="39">
-        <v>60479.999999999993</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="H70" s="83">
-        <v>60479.999999999993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="71">
-        <v>0.85</v>
-      </c>
-      <c r="E71" s="39">
-        <v>0.85</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="H71" s="83">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="71">
-        <v>518400</v>
-      </c>
-      <c r="E72" s="39">
-        <v>518400</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="H72" s="83">
-        <v>518400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>416</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D73" s="71">
+        <v>387936</v>
+      </c>
+      <c r="E73" s="39">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="71">
+        <v>0.85</v>
+      </c>
+      <c r="E74" s="39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="71">
+        <v>518400</v>
+      </c>
+      <c r="E75" s="39">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="71">
         <v>5184000</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E76" s="39">
         <v>5184000</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="H73" s="83">
-        <v>5184000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B77" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="70">
+      <c r="D77" s="70">
         <v>259200</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E77" s="41">
         <v>50000</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="86">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="70">
+      <c r="D78" s="70">
         <v>140000</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E78" s="39">
         <v>140000</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" s="91">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D76" s="70">
+      <c r="D79" s="70">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E79" s="40">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="96">
-        <v>3.6636136999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="70">
+      <c r="D80" s="70">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E80" s="39">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H77" s="83">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B81" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="70">
+      <c r="D81" s="70">
         <v>0.05</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E81" s="39">
         <v>0.05</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B82" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="72">
+      <c r="D82" s="72">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E79" s="39">
+      <c r="E82" s="39">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="F79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H79" s="39">
-        <v>6.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B83" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="72">
+      <c r="D83" s="72">
         <v>1E-3</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E83" s="39">
         <v>1E-3</v>
       </c>
-      <c r="F80" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="H80" s="39">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B84" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="72">
+      <c r="D84" s="72">
         <v>374999999.99999994</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E84" s="39">
         <v>374999999.99999994</v>
       </c>
-      <c r="F81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="H81" s="39">
-        <v>374999999.99999994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B85" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="D82" s="72">
+      <c r="D85" s="72">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E85" s="40">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="F82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H82" s="40">
-        <v>3.7037037037037038E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B86" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D83" s="72">
+      <c r="D86" s="72">
         <v>165600</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E86" s="39">
         <v>165600</v>
       </c>
-      <c r="F83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H83" s="39">
-        <v>165600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B87" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="61">
+      <c r="D87" s="61">
         <v>20</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E87" s="39">
         <v>20</v>
       </c>
-      <c r="F84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="61">
+      <c r="D88" s="61">
         <v>1</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E88" s="39">
         <v>1</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="H85" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="61">
+      <c r="D89" s="61">
         <v>21</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E89" s="39">
         <v>21</v>
       </c>
-      <c r="F86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H86" s="39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="24" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B90" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D87" s="69">
-        <v>0.64</v>
-      </c>
-      <c r="E87" s="39">
-        <v>0.64</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H87" s="87">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D88" s="69">
-        <v>8</v>
-      </c>
-      <c r="E88" s="39">
-        <v>8</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G88" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H88" s="87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" s="69">
-        <v>10</v>
-      </c>
-      <c r="E89" s="39">
-        <v>10</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="H89" s="87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="C90" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D90" s="69">
+        <v>0.64</v>
+      </c>
+      <c r="E90" s="39">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="69">
         <v>8</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E91" s="39">
         <v>8</v>
       </c>
-      <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G90" s="24" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="69">
+        <v>10</v>
+      </c>
+      <c r="E92" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="H90" s="87">
+      <c r="B93" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="69">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="E93" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B94" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C94" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="69">
+      <c r="D94" s="69">
         <v>1</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E94" s="39">
         <v>1</v>
       </c>
-      <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="H91" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B95" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C95" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="D92" s="69">
+      <c r="D95" s="69">
         <v>0.5</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E95" s="39">
         <v>0.5</v>
       </c>
-      <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="H92" s="39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B96" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="69">
-        <v>0</v>
-      </c>
-      <c r="E93" s="39">
-        <v>0</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="H93" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="69">
-        <v>1589759.9999999998</v>
-      </c>
-      <c r="E94" s="77">
-        <v>1589759.9999999998</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="H94" s="77">
-        <v>1589759.9999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="69">
-        <v>6171428.5714285718</v>
-      </c>
-      <c r="E95" s="77">
-        <v>6171428.5714285718</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="H95" s="77">
-        <v>6171428.5714285718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>405</v>
       </c>
       <c r="C96" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="69">
+        <v>0</v>
+      </c>
+      <c r="E96" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="69">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="E97" s="77">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="69">
         <v>6171428.5714285718</v>
       </c>
-      <c r="E96" s="77">
+      <c r="E98" s="77">
         <v>6171428.5714285718</v>
       </c>
-      <c r="F96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G96" s="24" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="H96" s="77">
+      <c r="B99" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="69">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
+      <c r="E99" s="77">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B100" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="D97" s="79">
-        <v>100</v>
-      </c>
-      <c r="E97" s="77">
-        <v>100</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D98" s="79">
-        <v>280800</v>
-      </c>
-      <c r="E98" s="77">
-        <v>280800</v>
-      </c>
-      <c r="F98" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D99" s="79">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="E99" s="77">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="F99" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>440</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>445</v>
@@ -5305,38 +4401,30 @@
       <c r="E100" s="77">
         <v>100</v>
       </c>
-      <c r="F100" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>446</v>
       </c>
       <c r="D101" s="79">
-        <v>459648</v>
+        <v>280800</v>
       </c>
       <c r="E101" s="77">
-        <v>459648</v>
-      </c>
-      <c r="F101" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C102" s="25" t="s">
         <v>447</v>
@@ -5347,2280 +4435,1874 @@
       <c r="E102" s="77">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="F102" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="D103" s="79">
+        <v>100</v>
+      </c>
+      <c r="E103" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D104" s="79">
+        <v>459648</v>
+      </c>
+      <c r="E104" s="77">
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D105" s="79">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="E105" s="77">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B106" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C106" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D103" s="79">
+      <c r="D106" s="79">
         <v>21600</v>
       </c>
-      <c r="E103" s="77">
+      <c r="E106" s="77">
         <v>21600</v>
       </c>
-      <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="H103" s="39">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B107" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C107" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="79">
+      <c r="D107" s="79">
         <v>172800</v>
       </c>
-      <c r="E104" s="77">
+      <c r="E107" s="77">
         <v>43200</v>
       </c>
-      <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="H104" s="39">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C108" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D105" s="61">
+      <c r="D108" s="61">
         <v>0.8</v>
       </c>
-      <c r="E105" s="39">
+      <c r="E108" s="39">
         <v>0.8</v>
       </c>
-      <c r="F105" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H105" s="39">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C109" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D109" s="52">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E109" s="40">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="40">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="52">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="E110" s="42">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="52">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="52">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="E107" s="42">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="F107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H107" s="42">
-        <v>5.7899999999999998E-7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="15" t="s">
+      <c r="E111" s="40">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="87">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E112" s="84" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" s="88">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E113" s="84" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114" s="86" t="s">
+        <v>472</v>
+      </c>
+      <c r="C114" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E114" s="94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D115" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E115" s="81">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="D116" s="78">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E116" s="83">
+        <v>2.7799999999999999E-14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="68">
+        <v>10</v>
+      </c>
+      <c r="E117" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="68">
+        <v>-0.04</v>
+      </c>
+      <c r="E118" s="39">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" s="68">
+        <v>2.9</v>
+      </c>
+      <c r="E119" s="39">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="68">
+        <v>1</v>
+      </c>
+      <c r="E120" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="C121" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" s="87">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="E121" s="41">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="68">
+        <v>10</v>
+      </c>
+      <c r="E122" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D123" s="68">
+        <v>-0.04</v>
+      </c>
+      <c r="E123" s="39">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" s="68">
+        <v>2.9</v>
+      </c>
+      <c r="E124" s="39">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="68">
+        <v>1</v>
+      </c>
+      <c r="E125" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126" s="68">
+        <v>0</v>
+      </c>
+      <c r="E126" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="52">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="E108" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="F108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H108" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="68">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E109" s="81">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" s="90">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="D110" s="78">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="E110" s="81">
-        <v>2.7799999999999999E-14</v>
-      </c>
-      <c r="F110" t="str">
-        <f t="shared" si="1"/>
-        <v>ARGH!</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="H110" s="90">
-        <v>5.0000000000000003E-10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="68">
-        <v>10</v>
-      </c>
-      <c r="E111" s="39">
-        <v>10</v>
-      </c>
-      <c r="F111" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H111" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D112" s="68">
-        <v>-0.04</v>
-      </c>
-      <c r="E112" s="39">
-        <v>-0.04</v>
-      </c>
-      <c r="F112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H112" s="39">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D113" s="68">
-        <v>2.9</v>
-      </c>
-      <c r="E113" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="F113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="H113" s="39">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" s="68">
-        <v>1</v>
-      </c>
-      <c r="E114" s="39">
-        <v>1</v>
-      </c>
-      <c r="F114" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H114" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D115" s="68">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="E115" s="81">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="F115" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" s="85">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="68">
-        <v>10</v>
-      </c>
-      <c r="E116" s="39">
-        <v>10</v>
-      </c>
-      <c r="F116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="H116" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D117" s="68">
-        <v>-0.04</v>
-      </c>
-      <c r="E117" s="39">
-        <v>-0.04</v>
-      </c>
-      <c r="F117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H117" s="39">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D118" s="68">
-        <v>2.9</v>
-      </c>
-      <c r="E118" s="39">
-        <v>2.9</v>
-      </c>
-      <c r="F118" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="H118" s="39">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D119" s="68">
-        <v>1</v>
-      </c>
-      <c r="E119" s="39">
-        <v>1</v>
-      </c>
-      <c r="F119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H119" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" s="68">
+      <c r="D127" s="57">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E127" s="84">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" s="56">
         <v>0</v>
       </c>
-      <c r="E120" s="39">
+      <c r="E128" s="39">
         <v>0</v>
       </c>
-      <c r="F120" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H120" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" s="23" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D121" s="57">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E121" s="40">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H121" s="97">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="56">
-        <v>0</v>
-      </c>
-      <c r="E122" s="39">
-        <v>0</v>
-      </c>
-      <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G122" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H122" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D123" s="56">
+      <c r="D129" s="56">
         <v>2E-3</v>
       </c>
-      <c r="E123" s="39">
+      <c r="E129" s="39">
         <v>2E-3</v>
       </c>
-      <c r="F123" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H123" s="39">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B124" s="25" t="s">
+      <c r="B130" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D124" s="56">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E124" s="41">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G124" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H124" s="41">
-        <v>3.9999999999999998E-6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D125" s="56">
-        <v>3.7699999999999999E-10</v>
-      </c>
-      <c r="E125" s="41">
-        <v>3.7699999999999999E-10</v>
-      </c>
-      <c r="F125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H125" s="41">
-        <v>3.7699999999999999E-10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="56">
-        <v>20</v>
-      </c>
-      <c r="E126" s="39">
-        <v>20</v>
-      </c>
-      <c r="F126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H126" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D127" s="56">
-        <v>-0.06</v>
-      </c>
-      <c r="E127" s="39">
-        <v>-0.06</v>
-      </c>
-      <c r="F127" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H127" s="39">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D128" s="56">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="E128" s="39">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="F128" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G128" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H128" s="39">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="56">
-        <v>1</v>
-      </c>
-      <c r="E129" s="39">
-        <v>1</v>
-      </c>
-      <c r="F129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H129" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="C130" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D130" s="56">
-        <v>4.0000000000000003E-5</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E130" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F130" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H130" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131" s="15" t="s">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D131" s="52">
-        <v>5.8333333333333335E-9</v>
+      <c r="D131" s="56">
+        <v>3.7699999999999999E-10</v>
       </c>
       <c r="E131" s="41">
-        <v>5.8333333333333335E-9</v>
-      </c>
-      <c r="F131" t="str">
-        <f t="shared" ref="F131:F186" si="2">IF(E131=H131,"","ARGH!")</f>
-        <v/>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H131" s="41">
-        <v>5.8333333333333335E-9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C132" s="15" t="s">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D132" s="61">
+      <c r="D132" s="56">
         <v>20</v>
       </c>
       <c r="E132" s="39">
         <v>20</v>
       </c>
-      <c r="F132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H132" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" s="15" t="s">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="D133" s="61">
+      <c r="D133" s="56">
         <v>-0.06</v>
       </c>
       <c r="E133" s="39">
         <v>-0.06</v>
       </c>
-      <c r="F133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H133" s="39">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C134" s="15" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D134" s="61">
+      <c r="D134" s="56">
         <v>0.89100000000000001</v>
       </c>
       <c r="E134" s="39">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="H134" s="39">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C135" s="15" t="s">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D135" s="61">
+      <c r="D135" s="56">
         <v>1</v>
       </c>
       <c r="E135" s="39">
         <v>1</v>
       </c>
-      <c r="F135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="H135" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" s="15" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D136" s="61">
+      <c r="D136" s="56">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="E136" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H136" s="41">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="11" t="s">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D137" s="51">
-        <v>4.9999999999999998E-8</v>
+      <c r="D137" s="52">
+        <v>5.8333333333333335E-9</v>
       </c>
       <c r="E137" s="41">
-        <v>2.9999999999999997E-8</v>
-      </c>
-      <c r="F137" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H137" s="90">
-        <v>2.9999999999999997E-8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C138" s="11" t="s">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D138" s="63">
+      <c r="D138" s="61">
         <v>20</v>
       </c>
       <c r="E138" s="39">
         <v>20</v>
       </c>
-      <c r="F138" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H138" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" s="11" t="s">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D139" s="63">
-        <v>-4.4200000000000003E-2</v>
+      <c r="D139" s="61">
+        <v>-0.06</v>
       </c>
       <c r="E139" s="39">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-      <c r="F139" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H139" s="39">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C140" s="11" t="s">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D140" s="63">
-        <v>1.55</v>
+      <c r="D140" s="61">
+        <v>0.89100000000000001</v>
       </c>
       <c r="E140" s="39">
-        <v>1.55</v>
-      </c>
-      <c r="F140" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H140" s="39">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C141" s="11" t="s">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D141" s="63">
+      <c r="D141" s="61">
         <v>1</v>
       </c>
       <c r="E141" s="39">
         <v>1</v>
       </c>
-      <c r="F141" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H141" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C142" s="11" t="s">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D142" s="63">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="E142" s="39">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="F142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H142" s="39">
-        <v>2.7799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="73">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="E143" s="86">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G143" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H143" s="85">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C144" s="27" t="s">
+      <c r="D142" s="61">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E142" s="41">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" s="51">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E143" s="84">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D144" s="73">
+      <c r="D144" s="63">
         <v>20</v>
       </c>
       <c r="E144" s="39">
         <v>20</v>
       </c>
-      <c r="F144" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G144" s="26" t="s">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" s="63">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="E145" s="39">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="63">
+        <v>1.55</v>
+      </c>
+      <c r="E146" s="39">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="63">
+        <v>1</v>
+      </c>
+      <c r="E147" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="63">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="E148" s="39">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D149" s="73">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="E149" s="93">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="H144" s="39">
+      <c r="B150" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="73">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
+      <c r="E150" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B151" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C151" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D145" s="73">
-        <v>0</v>
-      </c>
-      <c r="E145" s="39">
-        <v>0</v>
-      </c>
-      <c r="F145" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H145" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="73">
-        <v>1</v>
-      </c>
-      <c r="E146" s="39">
-        <v>1</v>
-      </c>
-      <c r="F146" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="H146" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D147" s="73">
-        <v>0</v>
-      </c>
-      <c r="E147" s="39">
-        <v>0</v>
-      </c>
-      <c r="F147" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="H147" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D148" s="73">
-        <v>0.4</v>
-      </c>
-      <c r="E148" s="87">
-        <v>0</v>
-      </c>
-      <c r="F148" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G148" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H148" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D149" s="58">
-        <v>3.2100000000000002E-6</v>
-      </c>
-      <c r="E149" s="41">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="F149" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G149" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H149" s="85">
-        <v>2.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B150" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D150" s="74">
-        <v>25</v>
-      </c>
-      <c r="E150" s="39">
-        <v>25</v>
-      </c>
-      <c r="F150" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G150" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H150" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D151" s="74">
+      <c r="D151" s="73">
         <v>0</v>
       </c>
       <c r="E151" s="39">
         <v>0</v>
       </c>
-      <c r="F151" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G151" s="34" t="s">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="73">
+        <v>1</v>
+      </c>
+      <c r="E152" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="73">
+        <v>0</v>
+      </c>
+      <c r="E153" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="E154" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" s="58">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="E155" s="41">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="74">
+        <v>25</v>
+      </c>
+      <c r="E156" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="H151" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B152" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D152" s="74">
-        <v>3.98</v>
-      </c>
-      <c r="E152" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="F152" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G152" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="H152" s="39">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="B153" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="C153" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D153" s="74">
-        <v>1</v>
-      </c>
-      <c r="E153" s="39">
-        <v>1</v>
-      </c>
-      <c r="F153" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G153" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="H153" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D154" s="58">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E154" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="F154" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G154" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H154" s="40">
-        <v>1.6666666666666666E-4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D155" s="53">
-        <v>1E-8</v>
-      </c>
-      <c r="E155" s="41">
-        <v>1E-8</v>
-      </c>
-      <c r="F155" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H155" s="41">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D156" s="66">
-        <v>20</v>
-      </c>
-      <c r="E156" s="39">
-        <v>20</v>
-      </c>
-      <c r="F156" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="H156" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C157" s="13" t="s">
+      <c r="B157" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="D157" s="66">
+      <c r="D157" s="74">
         <v>0</v>
       </c>
       <c r="E157" s="39">
         <v>0</v>
       </c>
-      <c r="F157" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="H157" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C158" s="13" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B158" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D158" s="66">
-        <v>2</v>
+      <c r="D158" s="74">
+        <v>3.98</v>
       </c>
       <c r="E158" s="39">
-        <v>2</v>
-      </c>
-      <c r="F158" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H158" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C159" s="13" t="s">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C159" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="66">
+      <c r="D159" s="74">
         <v>1</v>
       </c>
       <c r="E159" s="39">
         <v>1</v>
       </c>
-      <c r="F159" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G159" s="12" t="s">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D160" s="58">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E160" s="40">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D161" s="53">
+        <v>1E-8</v>
+      </c>
+      <c r="E161" s="41">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="66">
+        <v>20</v>
+      </c>
+      <c r="E162" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D163" s="66">
+        <v>0</v>
+      </c>
+      <c r="E163" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" s="66">
+        <v>2</v>
+      </c>
+      <c r="E164" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H159" s="39">
+      <c r="B165" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165" s="66">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="12" t="s">
+      <c r="E165" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B166" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C166" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D160" s="53">
+      <c r="D166" s="53">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E160" s="40">
+      <c r="E166" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H160" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B167" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="66">
+      <c r="D167" s="66">
         <v>1</v>
       </c>
-      <c r="E161" s="39">
+      <c r="E167" s="39">
         <v>1</v>
       </c>
-      <c r="F161" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H161" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="28" t="s">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B168" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C168" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="D162" s="59">
+      <c r="D168" s="59">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="E162" s="39">
+      <c r="E168" s="39">
         <v>2.3533050791148899E-8</v>
       </c>
-      <c r="F162" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G162" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="H162" s="84">
-        <v>2.3533050791148899E-8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="28" t="s">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="B163" s="29" t="s">
+      <c r="B169" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C169" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D163" s="75">
+      <c r="D169" s="75">
         <v>20</v>
       </c>
-      <c r="E163" s="39">
+      <c r="E169" s="39">
         <v>20</v>
       </c>
-      <c r="F163" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G163" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="H163" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="28" t="s">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B164" s="29" t="s">
+      <c r="B170" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="29" t="s">
+      <c r="C170" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D164" s="75">
+      <c r="D170" s="75">
         <v>-0.187</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E170" s="39">
         <v>-0.187</v>
       </c>
-      <c r="F164" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G164" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="H164" s="39">
-        <v>-0.187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="28" t="s">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="B171" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C171" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D165" s="75">
+      <c r="D171" s="75">
         <v>2.48</v>
       </c>
-      <c r="E165" s="39">
+      <c r="E171" s="39">
         <v>2.48</v>
       </c>
-      <c r="F165" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G165" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="H165" s="39">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="28" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B166" s="29" t="s">
+      <c r="B172" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C172" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D166" s="75">
-        <v>1</v>
-      </c>
-      <c r="E166" s="39">
-        <v>1</v>
-      </c>
-      <c r="F166" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G166" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="H166" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B167" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="D167" s="59">
-        <v>6.1060227588121015E-4</v>
-      </c>
-      <c r="E167" s="39">
-        <v>6.1060227588121015E-4</v>
-      </c>
-      <c r="F167" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G167" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H167" s="39">
-        <v>6.1060227588121015E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B168" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D168" s="56">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E168" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="F168" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G168" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H168" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D169" s="69">
-        <v>25</v>
-      </c>
-      <c r="E169" s="39">
-        <v>25</v>
-      </c>
-      <c r="F169" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="H169" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D170" s="69">
-        <v>0</v>
-      </c>
-      <c r="E170" s="39">
-        <v>0</v>
-      </c>
-      <c r="F170" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H170" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D171" s="69">
-        <v>3.98</v>
-      </c>
-      <c r="E171" s="39">
-        <v>3.98</v>
-      </c>
-      <c r="F171" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="H171" s="39">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D172" s="69">
+      <c r="D172" s="75">
         <v>1</v>
       </c>
       <c r="E172" s="39">
         <v>1</v>
       </c>
-      <c r="F172" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G172" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="H172" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D173" s="56">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E173" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F173" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="H173" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C174" s="9" t="s">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D173" s="59">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="E173" s="39">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D174" s="50">
+      <c r="D174" s="56">
         <v>6.41E-9</v>
       </c>
       <c r="E174" s="39">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="F174" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H174" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C175" s="9" t="s">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D175" s="62">
+      <c r="D175" s="69">
         <v>25</v>
       </c>
       <c r="E175" s="39">
         <v>25</v>
       </c>
-      <c r="F175" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H175" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C176" s="9" t="s">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="D176" s="62">
+      <c r="D176" s="69">
         <v>0</v>
       </c>
       <c r="E176" s="39">
         <v>0</v>
       </c>
-      <c r="F176" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="H176" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C177" s="9" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D177" s="62">
+      <c r="D177" s="69">
         <v>3.98</v>
       </c>
       <c r="E177" s="39">
         <v>3.98</v>
       </c>
-      <c r="F177" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H177" s="39">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C178" s="9" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C178" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D178" s="62">
+      <c r="D178" s="69">
         <v>1</v>
       </c>
       <c r="E178" s="39">
         <v>1</v>
       </c>
-      <c r="F178" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H178" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C179" s="9" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D179" s="50">
+      <c r="D179" s="56">
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="E179" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F179" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H179" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B180" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D180" s="60">
-        <v>3.205E-9</v>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D180" s="50">
+        <v>6.41E-9</v>
       </c>
       <c r="E180" s="39">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="F180" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G180" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="H180" s="39">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B181" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C181" s="31" t="s">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D181" s="76">
+      <c r="D181" s="62">
         <v>25</v>
       </c>
       <c r="E181" s="39">
         <v>25</v>
       </c>
-      <c r="F181" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G181" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="H181" s="39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C182" s="31" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="76">
+      <c r="D182" s="62">
         <v>0</v>
       </c>
       <c r="E182" s="39">
         <v>0</v>
       </c>
-      <c r="F182" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G182" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="H182" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C183" s="31" t="s">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D183" s="76">
+      <c r="D183" s="62">
         <v>3.98</v>
       </c>
       <c r="E183" s="39">
         <v>3.98</v>
       </c>
-      <c r="F183" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G183" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="H183" s="39">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B184" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C184" s="31" t="s">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C184" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D184" s="76">
+      <c r="D184" s="62">
         <v>1</v>
       </c>
       <c r="E184" s="39">
         <v>1</v>
       </c>
-      <c r="F184" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G184" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="H184" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B185" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="C185" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D185" s="60">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D185" s="50">
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="E185" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F185" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G185" s="30" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="D186" s="60">
+        <v>3.205E-9</v>
+      </c>
+      <c r="E186" s="39">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D187" s="76">
+        <v>25</v>
+      </c>
+      <c r="E187" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D188" s="76">
+        <v>0</v>
+      </c>
+      <c r="E188" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D189" s="76">
+        <v>3.98</v>
+      </c>
+      <c r="E189" s="39">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D190" s="76">
+        <v>1</v>
+      </c>
+      <c r="E190" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="H185" s="40">
+      <c r="B191" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D191" s="60">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="32" t="s">
+      <c r="E191" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="B192" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C186" s="33" t="s">
+      <c r="C192" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D186" s="45" t="s">
+      <c r="D192" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E186" s="41" t="s">
+      <c r="E192" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="F186" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G186" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="H186" s="41" t="s">
-        <v>417</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -2715,7 +2715,7 @@
         <v>389</v>
       </c>
       <c r="E1" s="44">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="479">
   <si>
     <t>input_file</t>
   </si>
@@ -1448,7 +1448,16 @@
     <t xml:space="preserve">Time in the input file at which the simulation will start </t>
   </si>
   <si>
-    <t>sucrose_input_0047.csv</t>
+    <t>C_hexose_min_for_elongation</t>
+  </si>
+  <si>
+    <t>C_hexose_min_for_thickening</t>
+  </si>
+  <si>
+    <t>Treshold hexose concentration for elongation, below which no elongation occurs</t>
+  </si>
+  <si>
+    <t>Treshold hexose concentration for elongation, below which no thickening occurs</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1894,12 +1903,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1919,12 +1922,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,7 +2101,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2270,45 +2267,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="53" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="55" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2683,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2698,10 +2686,11 @@
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="46" customWidth="1"/>
-    <col min="5" max="14" width="15.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" style="46" customWidth="1"/>
+    <col min="7" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -2715,10 +2704,13 @@
         <v>389</v>
       </c>
       <c r="E1" s="44">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F1" s="44">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2734,8 +2726,11 @@
       <c r="E2" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2751,42 +2746,51 @@
       <c r="E3" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="F3" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="91" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
         <v>467</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="91" t="s">
         <v>470</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2799,11 +2803,14 @@
       <c r="D6" s="64">
         <v>60</v>
       </c>
-      <c r="E6" s="82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="81">
+        <v>180</v>
+      </c>
+      <c r="F6" s="81">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2819,8 +2826,11 @@
       <c r="E7" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="40">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2833,11 +2843,16 @@
       <c r="D8" s="64">
         <v>5</v>
       </c>
-      <c r="E8" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="94">
+        <f>E7</f>
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="F8" s="94">
+        <f>F7</f>
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -2851,10 +2866,13 @@
         <v>86</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -2868,11 +2886,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="39">
-        <f t="shared" ref="E10" si="0">1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>473</v>
       </c>
@@ -2885,11 +2905,14 @@
       <c r="D11" s="62">
         <v>0</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -2902,11 +2925,14 @@
       <c r="D12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
@@ -2919,11 +2945,14 @@
       <c r="D13" s="50">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="41">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="41">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -2936,11 +2965,14 @@
       <c r="D14" s="62">
         <v>10</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -2956,8 +2988,11 @@
       <c r="E15" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -2973,8 +3008,11 @@
       <c r="E16" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>373</v>
       </c>
@@ -2987,11 +3025,14 @@
       <c r="D17" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>375</v>
       </c>
@@ -3007,8 +3048,11 @@
       <c r="E18" s="47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>387</v>
       </c>
@@ -3024,8 +3068,11 @@
       <c r="E19" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>386</v>
       </c>
@@ -3041,8 +3088,11 @@
       <c r="E20" s="47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>385</v>
       </c>
@@ -3058,8 +3108,11 @@
       <c r="E21" s="47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
@@ -3075,8 +3128,11 @@
       <c r="E22" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -3092,8 +3148,11 @@
       <c r="E23" s="39">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -3109,8 +3168,11 @@
       <c r="E24" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
@@ -3126,8 +3188,11 @@
       <c r="E25" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
@@ -3143,8 +3208,11 @@
       <c r="E26" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>22</v>
       </c>
@@ -3160,8 +3228,11 @@
       <c r="E27" s="39" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
@@ -3177,8 +3248,11 @@
       <c r="E28" s="41">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="41">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
@@ -3194,8 +3268,11 @@
       <c r="E29" s="41">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
@@ -3211,8 +3288,11 @@
       <c r="E30" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -3228,8 +3308,11 @@
       <c r="E31" s="39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>27</v>
       </c>
@@ -3245,8 +3328,11 @@
       <c r="E32" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>28</v>
       </c>
@@ -3262,8 +3348,11 @@
       <c r="E33" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
@@ -3279,8 +3368,11 @@
       <c r="E34" s="39">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
@@ -3296,8 +3388,11 @@
       <c r="E35" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>31</v>
       </c>
@@ -3313,8 +3408,11 @@
       <c r="E36" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>32</v>
       </c>
@@ -3330,8 +3428,11 @@
       <c r="E37" s="39">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="39">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>33</v>
       </c>
@@ -3347,8 +3448,11 @@
       <c r="E38" s="39">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="39">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -3364,8 +3468,11 @@
       <c r="E39" s="39">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>35</v>
       </c>
@@ -3381,8 +3488,11 @@
       <c r="E40" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>449</v>
       </c>
@@ -3398,8 +3508,11 @@
       <c r="E41" s="39">
         <v>1200</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>450</v>
       </c>
@@ -3415,8 +3528,11 @@
       <c r="E42" s="39">
         <v>1200</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>15</v>
       </c>
@@ -3432,8 +3548,11 @@
       <c r="E43" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>16</v>
       </c>
@@ -3449,8 +3568,11 @@
       <c r="E44" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>17</v>
       </c>
@@ -3466,8 +3588,11 @@
       <c r="E45" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>18</v>
       </c>
@@ -3483,8 +3608,11 @@
       <c r="E46" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>19</v>
       </c>
@@ -3500,8 +3628,11 @@
       <c r="E47" s="39">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>36</v>
       </c>
@@ -3517,8 +3648,11 @@
       <c r="E48" s="41">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>390</v>
       </c>
@@ -3534,8 +3668,11 @@
       <c r="E49" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>37</v>
       </c>
@@ -3551,8 +3688,11 @@
       <c r="E50" s="39">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>38</v>
       </c>
@@ -3568,8 +3708,11 @@
       <c r="E51" s="39">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
@@ -3585,8 +3728,11 @@
       <c r="E52" s="39">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="39">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>40</v>
       </c>
@@ -3602,8 +3748,11 @@
       <c r="E53" s="39">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="39">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>217</v>
       </c>
@@ -3619,8 +3768,11 @@
       <c r="E54" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>41</v>
       </c>
@@ -3636,8 +3788,11 @@
       <c r="E55" s="39">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>418</v>
       </c>
@@ -3653,8 +3808,11 @@
       <c r="E56" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>91</v>
       </c>
@@ -3670,8 +3828,11 @@
       <c r="E57" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>420</v>
       </c>
@@ -3687,8 +3848,11 @@
       <c r="E58" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>42</v>
       </c>
@@ -3704,8 +3868,11 @@
       <c r="E59" s="39">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>218</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="E60" s="40">
         <v>1453890.8941884842</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="40">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>43</v>
       </c>
@@ -3738,8 +3908,11 @@
       <c r="E61" s="40">
         <v>1.3888888888888888E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="40">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>44</v>
       </c>
@@ -3755,8 +3928,11 @@
       <c r="E62" s="40">
         <v>6.5011574074074071E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="40">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>45</v>
       </c>
@@ -3772,8 +3948,11 @@
       <c r="E63" s="39">
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="39">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>46</v>
       </c>
@@ -3789,8 +3968,11 @@
       <c r="E64" s="40">
         <v>282528</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="40">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>47</v>
       </c>
@@ -3806,8 +3988,11 @@
       <c r="E65" s="39">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="39">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>48</v>
       </c>
@@ -3823,8 +4008,11 @@
       <c r="E66" s="80">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="80">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>49</v>
       </c>
@@ -3840,8 +4028,11 @@
       <c r="E67" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
         <v>50</v>
       </c>
@@ -3857,8 +4048,11 @@
       <c r="E68" s="40">
         <v>745476480000</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="40">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
         <v>215</v>
       </c>
@@ -3874,8 +4068,11 @@
       <c r="E69" s="39">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
         <v>426</v>
       </c>
@@ -3891,8 +4088,11 @@
       <c r="E70" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
         <v>411</v>
       </c>
@@ -3908,8 +4108,11 @@
       <c r="E71" s="39">
         <v>21600</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="39">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="36" t="s">
         <v>422</v>
       </c>
@@ -3925,8 +4128,11 @@
       <c r="E72" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="36" t="s">
         <v>412</v>
       </c>
@@ -3942,8 +4148,11 @@
       <c r="E73" s="39">
         <v>60479.999999999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="39">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
         <v>423</v>
       </c>
@@ -3959,8 +4168,11 @@
       <c r="E74" s="39">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="39">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
         <v>413</v>
       </c>
@@ -3976,8 +4188,11 @@
       <c r="E75" s="39">
         <v>518400</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="39">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
         <v>424</v>
       </c>
@@ -3993,8 +4208,11 @@
       <c r="E76" s="39">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="39">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>51</v>
       </c>
@@ -4010,8 +4228,11 @@
       <c r="E77" s="41">
         <v>50000</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>52</v>
       </c>
@@ -4027,8 +4248,11 @@
       <c r="E78" s="39">
         <v>140000</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="39">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>53</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="E79" s="40">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="40">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>54</v>
       </c>
@@ -4061,8 +4288,11 @@
       <c r="E80" s="39">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="39">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>55</v>
       </c>
@@ -4078,8 +4308,11 @@
       <c r="E81" s="39">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>224</v>
       </c>
@@ -4095,8 +4328,11 @@
       <c r="E82" s="39">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="39">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>225</v>
       </c>
@@ -4112,8 +4348,11 @@
       <c r="E83" s="39">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>226</v>
       </c>
@@ -4129,8 +4368,11 @@
       <c r="E84" s="39">
         <v>374999999.99999994</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="39">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>227</v>
       </c>
@@ -4146,8 +4388,11 @@
       <c r="E85" s="40">
         <v>3.7037037037037038E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="40">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>228</v>
       </c>
@@ -4163,8 +4408,11 @@
       <c r="E86" s="39">
         <v>165600</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="39">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>60</v>
       </c>
@@ -4180,8 +4428,11 @@
       <c r="E87" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>219</v>
       </c>
@@ -4197,8 +4448,11 @@
       <c r="E88" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>59</v>
       </c>
@@ -4214,8 +4468,11 @@
       <c r="E89" s="39">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
         <v>65</v>
       </c>
@@ -4231,8 +4488,11 @@
       <c r="E90" s="39">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="39">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
         <v>377</v>
       </c>
@@ -4248,8 +4508,11 @@
       <c r="E91" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>378</v>
       </c>
@@ -4265,8 +4528,11 @@
       <c r="E92" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
         <v>379</v>
       </c>
@@ -4282,8 +4548,11 @@
       <c r="E93" s="39">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
         <v>394</v>
       </c>
@@ -4299,8 +4568,11 @@
       <c r="E94" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
         <v>396</v>
       </c>
@@ -4316,8 +4588,11 @@
       <c r="E95" s="39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>398</v>
       </c>
@@ -4333,8 +4608,11 @@
       <c r="E96" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>400</v>
       </c>
@@ -4350,8 +4628,11 @@
       <c r="E97" s="77">
         <v>1589759.9999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="77">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>402</v>
       </c>
@@ -4367,8 +4648,11 @@
       <c r="E98" s="77">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="77">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>404</v>
       </c>
@@ -4384,8 +4668,11 @@
       <c r="E99" s="77">
         <v>6171428.5714285718</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="77">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>433</v>
       </c>
@@ -4401,8 +4688,11 @@
       <c r="E100" s="77">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>435</v>
       </c>
@@ -4418,8 +4708,11 @@
       <c r="E101" s="77">
         <v>280800</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="77">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>437</v>
       </c>
@@ -4435,8 +4728,11 @@
       <c r="E102" s="77">
         <v>1.2847222222222224E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="77">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>439</v>
       </c>
@@ -4452,8 +4748,11 @@
       <c r="E103" s="77">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>441</v>
       </c>
@@ -4469,8 +4768,11 @@
       <c r="E104" s="77">
         <v>459648</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="77">
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>443</v>
       </c>
@@ -4486,8 +4788,11 @@
       <c r="E105" s="77">
         <v>1.2847222222222224E-5</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="77">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>406</v>
       </c>
@@ -4503,8 +4808,11 @@
       <c r="E106" s="77">
         <v>21600</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="77">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>408</v>
       </c>
@@ -4520,8 +4828,11 @@
       <c r="E107" s="77">
         <v>43200</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="77">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>61</v>
       </c>
@@ -4537,8 +4848,11 @@
       <c r="E108" s="39">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>62</v>
       </c>
@@ -4554,8 +4868,11 @@
       <c r="E109" s="40">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="40">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>63</v>
       </c>
@@ -4571,8 +4888,11 @@
       <c r="E110" s="42">
         <v>5.7899999999999998E-7</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="42">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>64</v>
       </c>
@@ -4588,713 +4908,839 @@
       <c r="E111" s="40">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="85" t="s">
+      <c r="F111" s="40">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="52">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E112" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F112" s="40">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" s="52">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E113" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F113" s="40">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="B114" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="86" t="s">
+      <c r="C114" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="87">
+      <c r="D114" s="86">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E112" s="84" t="s">
+      <c r="E114" s="92" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="85" t="s">
+      <c r="F114" s="92" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="86" t="s">
+      <c r="B115" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C115" s="85" t="s">
         <v>461</v>
       </c>
-      <c r="D113" s="88">
+      <c r="D115" s="87">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E113" s="84" t="s">
+      <c r="E115" s="92" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="85" t="s">
+      <c r="F115" s="92" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="B114" s="86" t="s">
+      <c r="B116" s="85" t="s">
         <v>472</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C116" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D114" s="88" t="s">
+      <c r="D116" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="94" t="s">
+      <c r="E116" s="92" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
+      <c r="F116" s="92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B117" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D115" s="68">
+      <c r="D117" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E115" s="81">
+      <c r="E117" s="41">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
+      <c r="F117" s="41">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B118" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C118" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="D116" s="78">
+      <c r="D118" s="78">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E116" s="83">
+      <c r="E118" s="82">
         <v>2.7799999999999999E-14</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
+      <c r="F118" s="82">
+        <v>2.7799999999999999E-14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B119" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C119" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="68">
+      <c r="D119" s="68">
         <v>10</v>
       </c>
-      <c r="E117" s="39">
+      <c r="E119" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
+      <c r="F119" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B120" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C120" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="D118" s="68">
+      <c r="D120" s="68">
         <v>-0.04</v>
       </c>
-      <c r="E118" s="39">
+      <c r="E120" s="39">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
+      <c r="F120" s="39">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B121" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C121" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="68">
+      <c r="D121" s="68">
         <v>2.9</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E121" s="39">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="22" t="s">
+      <c r="F121" s="39">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B122" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C122" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="68">
+      <c r="D122" s="68">
         <v>1</v>
       </c>
-      <c r="E120" s="39">
+      <c r="E122" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="85" t="s">
+      <c r="F122" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="B121" s="86" t="s">
+      <c r="B123" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="C121" s="86" t="s">
+      <c r="C123" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="D121" s="87">
+      <c r="D123" s="86">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E121" s="41">
+      <c r="E123" s="41">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="22" t="s">
+      <c r="F123" s="41">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D124" s="68">
         <v>10</v>
       </c>
-      <c r="E122" s="39">
+      <c r="E124" s="39">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="22" t="s">
+      <c r="F124" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B125" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D125" s="68">
         <v>-0.04</v>
       </c>
-      <c r="E123" s="39">
+      <c r="E125" s="39">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="22" t="s">
+      <c r="F125" s="39">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B126" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="68">
-        <v>2.9</v>
-      </c>
-      <c r="E124" s="39">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="68">
-        <v>1</v>
-      </c>
-      <c r="E125" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D126" s="68">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="E126" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+      <c r="F126" s="39">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D127" s="57">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E127" s="84">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D128" s="56">
+        <v>98</v>
+      </c>
+      <c r="D127" s="68">
+        <v>1</v>
+      </c>
+      <c r="E127" s="39">
+        <v>1</v>
+      </c>
+      <c r="F127" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" s="68">
         <v>0</v>
       </c>
       <c r="E128" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" s="25" t="s">
+      <c r="F128" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D129" s="56">
-        <v>2E-3</v>
-      </c>
-      <c r="E129" s="39">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D129" s="57">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E129" s="41">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F129" s="41">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C130" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D130" s="56">
+        <v>0</v>
+      </c>
+      <c r="E130" s="39">
+        <v>0</v>
+      </c>
+      <c r="F130" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="56">
+        <v>2E-3</v>
+      </c>
+      <c r="E131" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="F131" s="39">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="56">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E130" s="41">
+      <c r="E132" s="41">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="24" t="s">
+      <c r="F132" s="41">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="B133" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C133" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D131" s="56">
+      <c r="D133" s="56">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="E131" s="41">
+      <c r="E133" s="41">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="24" t="s">
+      <c r="F133" s="41">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B132" s="25" t="s">
+      <c r="B134" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C134" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D132" s="56">
+      <c r="D134" s="56">
         <v>20</v>
       </c>
-      <c r="E132" s="39">
+      <c r="E134" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
+      <c r="F134" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B133" s="25" t="s">
+      <c r="B135" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C135" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="D133" s="56">
+      <c r="D135" s="56">
         <v>-0.06</v>
       </c>
-      <c r="E133" s="39">
+      <c r="E135" s="39">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
+      <c r="F135" s="39">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B136" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C136" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D134" s="56">
+      <c r="D136" s="56">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E134" s="39">
+      <c r="E136" s="39">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="24" t="s">
+      <c r="F136" s="39">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B137" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C137" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D135" s="56">
+      <c r="D137" s="56">
         <v>1</v>
       </c>
-      <c r="E135" s="39">
+      <c r="E137" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="24" t="s">
+      <c r="F137" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B136" s="25" t="s">
+      <c r="B138" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C138" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D136" s="56">
+      <c r="D138" s="56">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E136" s="41">
+      <c r="E138" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="F138" s="41">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C139" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D139" s="52">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="E137" s="41">
+      <c r="E139" s="41">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
+      <c r="F139" s="41">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B140" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D138" s="61">
+      <c r="D140" s="61">
         <v>20</v>
       </c>
-      <c r="E138" s="39">
+      <c r="E140" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
+      <c r="F140" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B141" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C141" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D139" s="61">
+      <c r="D141" s="61">
         <v>-0.06</v>
       </c>
-      <c r="E139" s="39">
+      <c r="E141" s="39">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="14" t="s">
+      <c r="F141" s="39">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B142" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C142" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D140" s="61">
+      <c r="D142" s="61">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E140" s="39">
+      <c r="E142" s="39">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="14" t="s">
+      <c r="F142" s="39">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B143" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C143" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D141" s="61">
+      <c r="D143" s="61">
         <v>1</v>
       </c>
-      <c r="E141" s="39">
+      <c r="E143" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
+      <c r="F143" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C144" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D142" s="61">
+      <c r="D144" s="61">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E142" s="41">
+      <c r="E144" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+      <c r="F144" s="41">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B145" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C145" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D143" s="51">
+      <c r="D145" s="51">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="E143" s="84">
+      <c r="E145" s="83">
         <v>9.9999999999999995E-8</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
+      <c r="F145" s="83">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B146" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C146" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D144" s="63">
+      <c r="D146" s="63">
         <v>20</v>
       </c>
-      <c r="E144" s="39">
+      <c r="E146" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
+      <c r="F146" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B147" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C147" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D145" s="63">
+      <c r="D147" s="63">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="E145" s="39">
+      <c r="E147" s="39">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+      <c r="F147" s="39">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B148" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C148" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D146" s="63">
+      <c r="D148" s="63">
         <v>1.55</v>
       </c>
-      <c r="E146" s="39">
+      <c r="E148" s="39">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
+      <c r="F148" s="39">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B149" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C149" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D147" s="63">
+      <c r="D149" s="63">
         <v>1</v>
       </c>
-      <c r="E147" s="39">
+      <c r="E149" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
+      <c r="F149" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C150" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D148" s="63">
+      <c r="D150" s="63">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E148" s="39">
+      <c r="E150" s="39">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
+      <c r="F150" s="39">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B151" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C151" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D149" s="73">
+      <c r="D151" s="73">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="E149" s="93">
+      <c r="E151" s="41">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="26" t="s">
+      <c r="F151" s="41">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="B150" s="27" t="s">
+      <c r="B152" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C152" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D150" s="73">
+      <c r="D152" s="73">
         <v>20</v>
       </c>
-      <c r="E150" s="39">
+      <c r="E152" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="26" t="s">
+      <c r="F152" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B151" s="27" t="s">
+      <c r="B153" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C153" s="27" t="s">
         <v>312</v>
-      </c>
-      <c r="D151" s="73">
-        <v>0</v>
-      </c>
-      <c r="E151" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D152" s="73">
-        <v>1</v>
-      </c>
-      <c r="E152" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>98</v>
       </c>
       <c r="D153" s="73">
         <v>0</v>
@@ -5302,237 +5748,279 @@
       <c r="E153" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="C154" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D154" s="73">
+        <v>1</v>
+      </c>
+      <c r="E154" s="39">
+        <v>1</v>
+      </c>
+      <c r="F154" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D155" s="73">
+        <v>0</v>
+      </c>
+      <c r="E155" s="39">
+        <v>0</v>
+      </c>
+      <c r="F155" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="73">
         <v>0.4</v>
       </c>
-      <c r="E154" s="39">
+      <c r="E156" s="39">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="34" t="s">
+      <c r="F156" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B155" s="35" t="s">
+      <c r="B157" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C157" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D155" s="58">
+      <c r="D157" s="58">
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="E155" s="41">
+      <c r="E157" s="41">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="34" t="s">
+      <c r="F157" s="41">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B156" s="35" t="s">
+      <c r="B158" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C158" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D156" s="74">
+      <c r="D158" s="74">
         <v>25</v>
       </c>
-      <c r="E156" s="39">
+      <c r="E158" s="39">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="34" t="s">
+      <c r="F158" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B159" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C157" s="35" t="s">
+      <c r="C159" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="D157" s="74">
+      <c r="D159" s="74">
         <v>0</v>
       </c>
-      <c r="E157" s="39">
+      <c r="E159" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="34" t="s">
+      <c r="F159" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B160" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="35" t="s">
+      <c r="C160" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D158" s="74">
+      <c r="D160" s="74">
         <v>3.98</v>
       </c>
-      <c r="E158" s="39">
+      <c r="E160" s="39">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="34" t="s">
+      <c r="F160" s="39">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B161" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C159" s="35" t="s">
+      <c r="C161" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="74">
+      <c r="D161" s="74">
         <v>1</v>
       </c>
-      <c r="E159" s="39">
+      <c r="E161" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="34" t="s">
+      <c r="F161" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B162" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C162" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D160" s="58">
+      <c r="D162" s="58">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E160" s="40">
+      <c r="E162" s="40">
         <v>1.6666666666666666E-4</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+      <c r="F162" s="40">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B163" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C163" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D163" s="53">
         <v>1E-8</v>
       </c>
-      <c r="E161" s="41">
+      <c r="E163" s="41">
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="12" t="s">
+      <c r="F163" s="41">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B164" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C164" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D162" s="66">
+      <c r="D164" s="66">
         <v>20</v>
       </c>
-      <c r="E162" s="39">
+      <c r="E164" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+      <c r="F164" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B165" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C165" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D163" s="66">
+      <c r="D165" s="66">
         <v>0</v>
       </c>
-      <c r="E163" s="39">
+      <c r="E165" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
+      <c r="F165" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B166" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C166" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D164" s="66">
+      <c r="D166" s="66">
         <v>2</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E166" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="12" t="s">
+      <c r="F166" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B167" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C167" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="D165" s="66">
-        <v>1</v>
-      </c>
-      <c r="E165" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D166" s="53">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E166" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D167" s="66">
         <v>1</v>
@@ -5540,434 +6028,1092 @@
       <c r="E167" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="28" t="s">
+      <c r="F167" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D168" s="53">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E168" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F168" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" s="66">
+        <v>1</v>
+      </c>
+      <c r="E169" s="39">
+        <v>1</v>
+      </c>
+      <c r="F169" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B168" s="29" t="s">
+      <c r="B170" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C170" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="D168" s="59">
+      <c r="D170" s="59">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="E168" s="39">
+      <c r="E170" s="39">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="28" t="s">
+      <c r="F170" s="39">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B171" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C171" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D169" s="75">
+      <c r="D171" s="75">
         <v>20</v>
       </c>
-      <c r="E169" s="39">
+      <c r="E171" s="39">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="28" t="s">
+      <c r="F171" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B170" s="29" t="s">
+      <c r="B172" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C172" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D170" s="75">
+      <c r="D172" s="75">
         <v>-0.187</v>
       </c>
-      <c r="E170" s="39">
+      <c r="E172" s="39">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="28" t="s">
+      <c r="F172" s="39">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="B173" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C173" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D171" s="75">
+      <c r="D173" s="75">
         <v>2.48</v>
       </c>
-      <c r="E171" s="39">
+      <c r="E173" s="39">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="28" t="s">
+      <c r="F173" s="39">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B174" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C174" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D172" s="75">
+      <c r="D174" s="75">
         <v>1</v>
       </c>
-      <c r="E172" s="39">
+      <c r="E174" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="28" t="s">
+      <c r="F174" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B173" s="29" t="s">
+      <c r="B175" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C175" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D173" s="59">
+      <c r="D175" s="59">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="E173" s="39">
+      <c r="E175" s="39">
         <v>6.1060227588121015E-4</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="24" t="s">
+      <c r="F175" s="39">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B176" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C176" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D174" s="56">
+      <c r="D176" s="56">
         <v>6.41E-9</v>
       </c>
-      <c r="E174" s="39">
+      <c r="E176" s="39">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="24" t="s">
+      <c r="F176" s="39">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="B175" s="25" t="s">
+      <c r="B177" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C177" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D175" s="69">
+      <c r="D177" s="69">
         <v>25</v>
       </c>
-      <c r="E175" s="39">
+      <c r="E177" s="39">
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="s">
+      <c r="F177" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B176" s="25" t="s">
+      <c r="B178" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C178" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="D176" s="69">
+      <c r="D178" s="69">
         <v>0</v>
       </c>
-      <c r="E176" s="39">
+      <c r="E178" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="24" t="s">
+      <c r="F178" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B179" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C179" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D177" s="69">
+      <c r="D179" s="69">
         <v>3.98</v>
       </c>
-      <c r="E177" s="39">
+      <c r="E179" s="39">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="24" t="s">
+      <c r="F179" s="39">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B180" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C180" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D178" s="69">
+      <c r="D180" s="69">
         <v>1</v>
       </c>
-      <c r="E178" s="39">
+      <c r="E180" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="s">
+      <c r="F180" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B179" s="25" t="s">
+      <c r="B181" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C181" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D179" s="56">
+      <c r="D181" s="56">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E179" s="40">
+      <c r="E181" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="s">
+      <c r="F181" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C182" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D180" s="50">
+      <c r="D182" s="50">
         <v>6.41E-9</v>
       </c>
-      <c r="E180" s="39">
+      <c r="E182" s="39">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="8" t="s">
+      <c r="F182" s="39">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C183" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D181" s="62">
+      <c r="D183" s="62">
         <v>25</v>
       </c>
-      <c r="E181" s="39">
+      <c r="E183" s="39">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
+      <c r="F183" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C184" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="62">
+      <c r="D184" s="62">
         <v>0</v>
       </c>
-      <c r="E182" s="39">
+      <c r="E184" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
+      <c r="F184" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C185" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D183" s="62">
+      <c r="D185" s="62">
         <v>3.98</v>
       </c>
-      <c r="E183" s="39">
+      <c r="E185" s="39">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="s">
+      <c r="F185" s="39">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B186" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D184" s="62">
+      <c r="D186" s="62">
         <v>1</v>
       </c>
-      <c r="E184" s="39">
+      <c r="E186" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="s">
+      <c r="F186" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B187" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C187" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D185" s="50">
+      <c r="D187" s="50">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E185" s="40">
+      <c r="E187" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="30" t="s">
+      <c r="F187" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B186" s="31" t="s">
+      <c r="B188" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="C186" s="31" t="s">
+      <c r="C188" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="D186" s="60">
+      <c r="D188" s="60">
         <v>3.205E-9</v>
       </c>
-      <c r="E186" s="39">
+      <c r="E188" s="39">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="30" t="s">
+      <c r="F188" s="39">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B189" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="C187" s="31" t="s">
+      <c r="C189" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D187" s="76">
+      <c r="D189" s="76">
         <v>25</v>
       </c>
-      <c r="E187" s="39">
+      <c r="E189" s="39">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="30" t="s">
+      <c r="F189" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B190" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="C188" s="31" t="s">
+      <c r="C190" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D188" s="76">
+      <c r="D190" s="76">
         <v>0</v>
       </c>
-      <c r="E188" s="39">
+      <c r="E190" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="30" t="s">
+      <c r="F190" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="B189" s="31" t="s">
+      <c r="B191" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="C189" s="31" t="s">
+      <c r="C191" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D189" s="76">
+      <c r="D191" s="76">
         <v>3.98</v>
       </c>
-      <c r="E189" s="39">
+      <c r="E191" s="39">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="30" t="s">
+      <c r="F191" s="39">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B190" s="31" t="s">
+      <c r="B192" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C190" s="31" t="s">
+      <c r="C192" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D190" s="76">
+      <c r="D192" s="76">
         <v>1</v>
       </c>
-      <c r="E190" s="39">
+      <c r="E192" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="30" t="s">
+      <c r="F192" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="B191" s="31" t="s">
+      <c r="B193" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C191" s="31" t="s">
+      <c r="C193" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D191" s="60">
+      <c r="D193" s="60">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E191" s="40">
+      <c r="E193" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="32" t="s">
+      <c r="F193" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B194" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C194" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D192" s="45" t="s">
+      <c r="D194" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E192" s="41" t="s">
+      <c r="E194" s="41" t="s">
         <v>417</v>
       </c>
+      <c r="F194" s="41" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="E118">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E115">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E115">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F145">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5979,7 +7125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F117">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5991,7 +7137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F118">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -6003,7 +7149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -6015,7 +7161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -6027,7 +7173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F145">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -6039,7 +7185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F129">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -6051,7 +7197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="F114:F115">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -6063,7 +7209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -6075,7 +7221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+  <conditionalFormatting sqref="F145">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -6087,7 +7233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -6099,7 +7245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -6111,7 +7257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F145">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -6123,7 +7269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F114:F115">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -6135,7 +7281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
+  <conditionalFormatting sqref="F129">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -6147,7 +7293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F7">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -6159,7 +7305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F129">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -6171,7 +7317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F145">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -6183,7 +7329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="F151">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -6195,7 +7341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
+  <conditionalFormatting sqref="F116">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -6207,7 +7353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
+  <conditionalFormatting sqref="F116">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -6219,7 +7365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="F117">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -6231,7 +7377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
+  <conditionalFormatting sqref="F118">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -6243,56 +7389,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="E112:F113">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/simulations/running_scenarios/inputs/scenarios_list.xlsx
+++ b/simulations/running_scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="484">
   <si>
     <t>input_file</t>
   </si>
@@ -1458,6 +1458,21 @@
   </si>
   <si>
     <t>Treshold hexose concentration for elongation, below which no thickening occurs</t>
+  </si>
+  <si>
+    <t>mycorrhizal_fungus</t>
+  </si>
+  <si>
+    <t>Option to allow interaction with mycorrhizal fungi (True/False)</t>
+  </si>
+  <si>
+    <t>initial_root_MTG_00288.pckl</t>
+  </si>
+  <si>
+    <t>sucrose_input_0047_starting_at_38_days.csv</t>
+  </si>
+  <si>
+    <t>sucrose_input_0059_starting_at_38_days.csv</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2116,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2296,7 +2311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2671,13 +2689,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2687,7 +2705,7 @@
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="46" customWidth="1"/>
     <col min="5" max="6" width="15.77734375" style="46" customWidth="1"/>
-    <col min="7" max="11" width="15.77734375" customWidth="1"/>
+    <col min="7" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2704,10 +2722,10 @@
         <v>389</v>
       </c>
       <c r="E1" s="44">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F1" s="44">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,11 +2781,11 @@
       <c r="D4" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>88</v>
+      <c r="E4" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2784,10 +2802,10 @@
         <v>470</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2804,10 +2822,10 @@
         <v>60</v>
       </c>
       <c r="E6" s="81">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F6" s="81">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,12 +2861,10 @@
       <c r="D8" s="64">
         <v>5</v>
       </c>
-      <c r="E8" s="94">
-        <f>E7</f>
+      <c r="E8" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="F8" s="94">
-        <f>F7</f>
+      <c r="F8" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
     </row>
@@ -2865,11 +2881,11 @@
       <c r="D9" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>86</v>
+      <c r="E9" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,11 +2901,11 @@
       <c r="D10" s="62">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
-        <v>1</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1</v>
+      <c r="E10" s="95">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="F10" s="95">
+        <v>4.1666666999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3193,211 +3209,211 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>87</v>
+      <c r="D26" s="63" t="s">
+        <v>88</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>448</v>
+        <v>87</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>448</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="52">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E28" s="41">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F28" s="41">
-        <v>9.9999999999999995E-7</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="52">
-        <v>2.0000000000000001E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E29" s="41">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F29" s="41">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="D30" s="52">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E30" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="41">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="61">
-        <v>120</v>
-      </c>
-      <c r="E34" s="39">
-        <v>120</v>
-      </c>
-      <c r="F34" s="39">
-        <v>120</v>
+        <v>97</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="61">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E35" s="39">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F35" s="39">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>101</v>
@@ -3414,110 +3430,110 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="61">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="39">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="39">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D38" s="61">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E38" s="39">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F38" s="39">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="61">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E39" s="39">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="F39" s="39">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" s="61">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E40" s="39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F40" s="39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D41" s="61">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E41" s="39">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="39">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>98</v>
@@ -3534,35 +3550,35 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="61">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="39">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="61" t="s">
         <v>87</v>
       </c>
       <c r="E44" s="39" t="s">
@@ -3574,130 +3590,130 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="66">
-        <v>0</v>
-      </c>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-      <c r="F45" s="39">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E46" s="39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F46" s="39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="66">
         <v>0.05</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E48" s="39">
         <v>0.05</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F48" s="39">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="67">
-        <v>1E-3</v>
-      </c>
-      <c r="E48" s="41">
-        <v>1E-3</v>
-      </c>
-      <c r="F48" s="41">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>390</v>
+        <v>36</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>391</v>
+        <v>152</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="67">
-        <v>0</v>
-      </c>
-      <c r="E49" s="39">
-        <v>0</v>
-      </c>
-      <c r="F49" s="39">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="E49" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="41">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="54">
-        <v>1E-4</v>
+        <v>101</v>
+      </c>
+      <c r="D50" s="67">
+        <v>0</v>
       </c>
       <c r="E50" s="39">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="F50" s="39">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>206</v>
@@ -3713,951 +3729,951 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="70">
-        <v>6.9999999999999999E-4</v>
+      <c r="A52" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="54">
+        <v>1E-4</v>
       </c>
       <c r="E52" s="39">
-        <v>6.9999999999999999E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="F52" s="39">
-        <v>6.9999999999999999E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="70">
-        <v>1.22E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E53" s="39">
-        <v>1.22E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="F53" s="39">
-        <v>1.22E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="70">
-        <v>1</v>
+        <v>1.22E-4</v>
       </c>
       <c r="E54" s="39">
-        <v>1</v>
+        <v>1.22E-4</v>
       </c>
       <c r="F54" s="39">
-        <v>1</v>
+        <v>1.22E-4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D55" s="70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E55" s="39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F55" s="39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>419</v>
+        <v>159</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="D56" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="E56" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="F56" s="39">
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>91</v>
+        <v>418</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="70">
-        <v>5</v>
-      </c>
-      <c r="E57" s="39">
-        <v>5</v>
-      </c>
-      <c r="F57" s="39">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>420</v>
+        <v>91</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>421</v>
+        <v>157</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>88</v>
+        <v>106</v>
+      </c>
+      <c r="D58" s="70">
+        <v>5</v>
+      </c>
+      <c r="E58" s="39">
+        <v>5</v>
+      </c>
+      <c r="F58" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="70">
-        <v>50</v>
-      </c>
-      <c r="E59" s="39">
-        <v>50</v>
-      </c>
-      <c r="F59" s="39">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="55">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="E60" s="40">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="F60" s="40">
-        <v>1453890.8941884842</v>
+        <v>106</v>
+      </c>
+      <c r="D60" s="70">
+        <v>50</v>
+      </c>
+      <c r="E60" s="39">
+        <v>50</v>
+      </c>
+      <c r="F60" s="39">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="70">
-        <v>1.3888888888888888E-5</v>
+        <v>109</v>
+      </c>
+      <c r="D61" s="55">
+        <v>1453890.8941884842</v>
       </c>
       <c r="E61" s="40">
-        <v>1.3888888888888888E-5</v>
+        <v>1453890.8941884842</v>
       </c>
       <c r="F61" s="40">
-        <v>1.3888888888888888E-5</v>
+        <v>1453890.8941884842</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" s="70">
-        <v>4.5763888888888888E-4</v>
+        <v>1.3888888888888888E-5</v>
       </c>
       <c r="E62" s="40">
-        <v>6.5011574074074071E-4</v>
+        <v>1.3888888888888888E-5</v>
       </c>
       <c r="F62" s="40">
-        <v>6.5011574074074071E-4</v>
+        <v>1.3888888888888888E-5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D63" s="70">
-        <v>3.63E-3</v>
-      </c>
-      <c r="E63" s="39">
-        <v>4.7400000000000003E-3</v>
-      </c>
-      <c r="F63" s="39">
-        <v>4.7400000000000003E-3</v>
+        <v>4.5763888888888888E-4</v>
+      </c>
+      <c r="E63" s="40">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="F63" s="40">
+        <v>6.5011574074074071E-4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="55">
-        <v>491356.80000000005</v>
-      </c>
-      <c r="E64" s="40">
-        <v>282528</v>
-      </c>
-      <c r="F64" s="40">
-        <v>282528</v>
+        <v>101</v>
+      </c>
+      <c r="D64" s="70">
+        <v>3.63E-3</v>
+      </c>
+      <c r="E64" s="39">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="F64" s="39">
+        <v>4.7400000000000003E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="70">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E65" s="39">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F65" s="39">
-        <v>0.56999999999999995</v>
+        <v>109</v>
+      </c>
+      <c r="D65" s="55">
+        <v>491356.80000000005</v>
+      </c>
+      <c r="E65" s="40">
+        <v>282528</v>
+      </c>
+      <c r="F65" s="40">
+        <v>282528</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D66" s="70">
-        <v>0.25862068965517243</v>
-      </c>
-      <c r="E66" s="80">
-        <v>0.16</v>
-      </c>
-      <c r="F66" s="80">
-        <v>0.16</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E66" s="39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F66" s="39">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="70">
+        <v>0.25862068965517243</v>
+      </c>
+      <c r="E67" s="80">
+        <v>0.16</v>
+      </c>
+      <c r="F67" s="80">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D68" s="70">
         <v>0</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E68" s="39">
         <v>0</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F68" s="39">
         <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="D68" s="71">
-        <v>745476480000</v>
-      </c>
-      <c r="E68" s="40">
-        <v>745476480000</v>
-      </c>
-      <c r="F68" s="40">
-        <v>745476480000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>213</v>
+        <v>430</v>
       </c>
       <c r="D69" s="71">
-        <v>100</v>
-      </c>
-      <c r="E69" s="39">
-        <v>100</v>
-      </c>
-      <c r="F69" s="39">
-        <v>100</v>
+        <v>745476480000</v>
+      </c>
+      <c r="E69" s="40">
+        <v>745476480000</v>
+      </c>
+      <c r="F69" s="40">
+        <v>745476480000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>87</v>
+        <v>213</v>
+      </c>
+      <c r="D70" s="71">
+        <v>100</v>
+      </c>
+      <c r="E70" s="39">
+        <v>100</v>
+      </c>
+      <c r="F70" s="39">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="71">
-        <v>29203.200000000001</v>
-      </c>
-      <c r="E71" s="39">
-        <v>21600</v>
-      </c>
-      <c r="F71" s="39">
-        <v>21600</v>
+        <v>97</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="36" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D72" s="71">
-        <v>0.5</v>
+        <v>29203.200000000001</v>
       </c>
       <c r="E72" s="39">
-        <v>0.5</v>
+        <v>21600</v>
       </c>
       <c r="F72" s="39">
-        <v>0.5</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="36" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D73" s="71">
-        <v>387936</v>
+        <v>0.5</v>
       </c>
       <c r="E73" s="39">
-        <v>60479.999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="F73" s="39">
-        <v>60479.999999999993</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D74" s="71">
-        <v>0.85</v>
+        <v>387936</v>
       </c>
       <c r="E74" s="39">
-        <v>0.85</v>
+        <v>60479.999999999993</v>
       </c>
       <c r="F74" s="39">
-        <v>0.85</v>
+        <v>60479.999999999993</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D75" s="71">
-        <v>518400</v>
+        <v>0.85</v>
       </c>
       <c r="E75" s="39">
-        <v>518400</v>
+        <v>0.85</v>
       </c>
       <c r="F75" s="39">
-        <v>518400</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="71">
+        <v>518400</v>
+      </c>
+      <c r="E76" s="39">
+        <v>518400</v>
+      </c>
+      <c r="F76" s="39">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="71">
         <v>5184000</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E77" s="39">
         <v>5184000</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F77" s="39">
         <v>5184000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="70">
-        <v>259200</v>
-      </c>
-      <c r="E77" s="41">
-        <v>50000</v>
-      </c>
-      <c r="F77" s="41">
-        <v>50000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="D78" s="70">
-        <v>140000</v>
-      </c>
-      <c r="E78" s="39">
-        <v>140000</v>
-      </c>
-      <c r="F78" s="39">
-        <v>140000</v>
+        <v>259200</v>
+      </c>
+      <c r="E78" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F78" s="41">
+        <v>50000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="70">
-        <v>3.6636136999999999E-2</v>
-      </c>
-      <c r="E79" s="40">
-        <v>3.6636136999999999E-2</v>
-      </c>
-      <c r="F79" s="40">
-        <v>3.6636136999999999E-2</v>
+        <v>140000</v>
+      </c>
+      <c r="E79" s="39">
+        <v>140000</v>
+      </c>
+      <c r="F79" s="39">
+        <v>140000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="D80" s="70">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="E80" s="39">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="F80" s="39">
-        <v>4.4999999999999997E-3</v>
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="E80" s="40">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="F80" s="40">
+        <v>3.6636136999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="70">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E81" s="39">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F81" s="39">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="70">
+      <c r="D82" s="70">
         <v>0.05</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E82" s="39">
         <v>0.05</v>
       </c>
-      <c r="F81" s="39">
+      <c r="F82" s="39">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="72">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E82" s="39">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="F82" s="39">
-        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D83" s="72">
-        <v>1E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="E83" s="39">
-        <v>1E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="F83" s="39">
-        <v>1E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="D84" s="72">
-        <v>374999999.99999994</v>
+        <v>1E-3</v>
       </c>
       <c r="E84" s="39">
-        <v>374999999.99999994</v>
+        <v>1E-3</v>
       </c>
       <c r="F84" s="39">
-        <v>374999999.99999994</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D85" s="72">
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="E85" s="40">
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="F85" s="40">
-        <v>3.7037037037037038E-3</v>
+        <v>374999999.99999994</v>
+      </c>
+      <c r="E85" s="39">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="F85" s="39">
+        <v>374999999.99999994</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="72">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="E86" s="40">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="F86" s="40">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B87" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D86" s="72">
+      <c r="D87" s="72">
         <v>165600</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E87" s="39">
         <v>165600</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F87" s="39">
         <v>165600</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="61">
-        <v>20</v>
-      </c>
-      <c r="E87" s="39">
-        <v>20</v>
-      </c>
-      <c r="F87" s="39">
-        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D88" s="61">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E88" s="39">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F88" s="39">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="61">
+        <v>1</v>
+      </c>
+      <c r="E89" s="39">
+        <v>1</v>
+      </c>
+      <c r="F89" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="61">
+      <c r="D90" s="61">
         <v>21</v>
       </c>
-      <c r="E89" s="39">
+      <c r="E90" s="39">
         <v>21</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F90" s="39">
         <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D90" s="69">
-        <v>0.64</v>
-      </c>
-      <c r="E90" s="39">
-        <v>0.64</v>
-      </c>
-      <c r="F90" s="39">
-        <v>0.64</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
-        <v>377</v>
+        <v>65</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="C91" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D91" s="69">
-        <v>8</v>
+        <v>0.64</v>
       </c>
       <c r="E91" s="39">
-        <v>8</v>
+        <v>0.64</v>
       </c>
       <c r="F91" s="39">
-        <v>8</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D92" s="69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E92" s="39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F92" s="39">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>193</v>
       </c>
       <c r="D93" s="69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E93" s="39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F93" s="39">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="D94" s="69">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E94" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F94" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>410</v>
+        <v>105</v>
       </c>
       <c r="D95" s="69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E95" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F95" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="D96" s="69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E96" s="39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F96" s="39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D97" s="69">
-        <v>1589759.9999999998</v>
-      </c>
-      <c r="E97" s="77">
-        <v>1589759.9999999998</v>
-      </c>
-      <c r="F97" s="77">
-        <v>1589759.9999999998</v>
+        <v>0</v>
+      </c>
+      <c r="E97" s="39">
+        <v>0</v>
+      </c>
+      <c r="F97" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D98" s="69">
-        <v>6171428.5714285718</v>
+        <v>1589759.9999999998</v>
       </c>
       <c r="E98" s="77">
-        <v>6171428.5714285718</v>
+        <v>1589759.9999999998</v>
       </c>
       <c r="F98" s="77">
-        <v>6171428.5714285718</v>
+        <v>1589759.9999999998</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>109</v>
@@ -4674,270 +4690,270 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="69">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="E100" s="77">
+        <v>6171428.5714285718</v>
+      </c>
+      <c r="F100" s="77">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B101" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C101" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D100" s="79">
+      <c r="D101" s="79">
         <v>100</v>
       </c>
-      <c r="E100" s="77">
+      <c r="E101" s="77">
         <v>100</v>
       </c>
-      <c r="F100" s="77">
+      <c r="F101" s="77">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+    <row r="102" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B102" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C102" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D101" s="79">
+      <c r="D102" s="79">
         <v>280800</v>
       </c>
-      <c r="E101" s="77">
+      <c r="E102" s="77">
         <v>280800</v>
       </c>
-      <c r="F101" s="77">
+      <c r="F102" s="77">
         <v>280800</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D102" s="79">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="E102" s="77">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="F102" s="77">
-        <v>1.2847222222222224E-5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D103" s="79">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="E103" s="77">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="F103" s="77">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B104" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C104" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D103" s="79">
+      <c r="D104" s="79">
         <v>100</v>
       </c>
-      <c r="E103" s="77">
+      <c r="E104" s="77">
         <v>100</v>
       </c>
-      <c r="F103" s="77">
+      <c r="F104" s="77">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+    <row r="105" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B105" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C105" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D104" s="79">
+      <c r="D105" s="79">
         <v>459648</v>
       </c>
-      <c r="E104" s="77">
+      <c r="E105" s="77">
         <v>459648</v>
       </c>
-      <c r="F104" s="77">
+      <c r="F105" s="77">
         <v>459648</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D105" s="79">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="E105" s="77">
-        <v>1.2847222222222224E-5</v>
-      </c>
-      <c r="F105" s="77">
-        <v>1.2847222222222224E-5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
       <c r="D106" s="79">
-        <v>21600</v>
+        <v>1.2847222222222224E-5</v>
       </c>
       <c r="E106" s="77">
-        <v>21600</v>
+        <v>1.2847222222222224E-5</v>
       </c>
       <c r="F106" s="77">
-        <v>21600</v>
+        <v>1.2847222222222224E-5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C107" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D107" s="79">
+        <v>21600</v>
+      </c>
+      <c r="E107" s="77">
+        <v>21600</v>
+      </c>
+      <c r="F107" s="77">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="79">
         <v>172800</v>
       </c>
-      <c r="E107" s="77">
+      <c r="E108" s="77">
         <v>43200</v>
       </c>
-      <c r="F107" s="77">
+      <c r="F108" s="77">
         <v>43200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="E108" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="F108" s="39">
-        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D109" s="52">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="E109" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="F109" s="40">
-        <v>2.0833333333333335E-4</v>
+        <v>114</v>
+      </c>
+      <c r="D109" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="E109" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="F109" s="39">
+        <v>0.8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="D110" s="52">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="E110" s="42">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="F110" s="42">
-        <v>5.7899999999999998E-7</v>
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="E110" s="40">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="F110" s="40">
+        <v>2.0833333333333335E-4</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="D111" s="52">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="E111" s="40">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="F111" s="40">
-        <v>2.0833333333333335E-4</v>
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="E111" s="42">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="F111" s="42">
+        <v>5.7899999999999998E-7</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>475</v>
+        <v>64</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>477</v>
+        <v>186</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>209</v>
       </c>
       <c r="D112" s="52">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="E112" s="40">
-        <v>9.9999999999999995E-7</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="F112" s="40">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0833333333333335E-4</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>209</v>
@@ -4946,44 +4962,44 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E113" s="40">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="F113" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114" s="52">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="84" t="s">
-        <v>457</v>
-      </c>
-      <c r="B114" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C114" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" s="86">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E114" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="F114" s="92" t="s">
-        <v>417</v>
+      <c r="E114" s="40">
+        <v>0</v>
+      </c>
+      <c r="F114" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="84" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="B115" s="85" t="s">
-        <v>460</v>
+        <v>189</v>
       </c>
       <c r="C115" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="D115" s="87">
-        <v>1.6666666666666666E-4</v>
+        <v>190</v>
+      </c>
+      <c r="D115" s="86">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E115" s="92" t="s">
         <v>417</v>
@@ -4994,1587 +5010,1607 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" s="87">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E116" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="F116" s="92" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="B116" s="85" t="s">
+      <c r="B117" s="85" t="s">
         <v>472</v>
       </c>
-      <c r="C116" s="85" t="s">
+      <c r="C117" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="D116" s="87" t="s">
+      <c r="D117" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="92" t="s">
+      <c r="E117" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="F116" s="92" t="s">
+      <c r="F117" s="92" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D117" s="68">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E117" s="41">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F117" s="41">
-        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>453</v>
+        <v>66</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>454</v>
+        <v>188</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="D118" s="78">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="E118" s="82">
-        <v>2.7799999999999999E-14</v>
-      </c>
-      <c r="F118" s="82">
-        <v>2.7799999999999999E-14</v>
+        <v>210</v>
+      </c>
+      <c r="D118" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E118" s="41">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F118" s="41">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="68">
-        <v>10</v>
-      </c>
-      <c r="E119" s="39">
-        <v>10</v>
-      </c>
-      <c r="F119" s="39">
-        <v>10</v>
+        <v>455</v>
+      </c>
+      <c r="D119" s="78">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E119" s="82">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="F119" s="82">
+        <v>2.9999999999999998E-13</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D120" s="68">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
       <c r="E120" s="39">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
       <c r="F120" s="39">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D121" s="68">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
       <c r="E121" s="39">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
       <c r="F121" s="39">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="68">
+        <v>2.9</v>
+      </c>
+      <c r="E122" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="F122" s="39">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B123" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D123" s="68">
         <v>1</v>
       </c>
-      <c r="E122" s="39">
+      <c r="E123" s="39">
         <v>1</v>
       </c>
-      <c r="F122" s="39">
+      <c r="F123" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="84" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="B123" s="85" t="s">
+      <c r="B124" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="C123" s="85" t="s">
+      <c r="C124" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="D123" s="86">
+      <c r="D124" s="86">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E123" s="41">
+      <c r="E124" s="41">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="F123" s="41">
+      <c r="F124" s="41">
         <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="68">
-        <v>10</v>
-      </c>
-      <c r="E124" s="39">
-        <v>10</v>
-      </c>
-      <c r="F124" s="39">
-        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D125" s="68">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
       <c r="E125" s="39">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
       <c r="F125" s="39">
-        <v>-0.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D126" s="68">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
       <c r="E126" s="39">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
       <c r="F126" s="39">
-        <v>2.9</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D127" s="68">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="E127" s="39">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="F127" s="39">
-        <v>1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D128" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="68">
+        <v>0</v>
+      </c>
+      <c r="E129" s="39">
+        <v>0</v>
+      </c>
+      <c r="F129" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D129" s="57">
+      <c r="D130" s="57">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E129" s="41">
+      <c r="E130" s="41">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F129" s="41">
+      <c r="F130" s="41">
         <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D130" s="56">
-        <v>0</v>
-      </c>
-      <c r="E130" s="39">
-        <v>0</v>
-      </c>
-      <c r="F130" s="39">
-        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C131" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D131" s="56">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E131" s="39">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="F131" s="39">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C132" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D132" s="56">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E132" s="41">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F132" s="41">
-        <v>3.9999999999999998E-6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="E132" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="F132" s="39">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="24" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D133" s="56">
-        <v>3.7699999999999999E-10</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E133" s="41">
-        <v>3.7699999999999999E-10</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="F133" s="41">
-        <v>3.7699999999999999E-10</v>
+        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D134" s="56">
-        <v>20</v>
-      </c>
-      <c r="E134" s="39">
-        <v>20</v>
-      </c>
-      <c r="F134" s="39">
-        <v>20</v>
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="E134" s="41">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="F134" s="41">
+        <v>3.7699999999999999E-10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D135" s="56">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
       <c r="E135" s="39">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
       <c r="F135" s="39">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D136" s="56">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="E136" s="39">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="F136" s="39">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D137" s="56">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E137" s="39">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F137" s="39">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="56">
+        <v>1</v>
+      </c>
+      <c r="E138" s="39">
+        <v>1</v>
+      </c>
+      <c r="F138" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B139" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C139" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D138" s="56">
+      <c r="D139" s="56">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E138" s="41">
+      <c r="E139" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F138" s="41">
+      <c r="F139" s="41">
         <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D139" s="52">
-        <v>5.8333333333333335E-9</v>
-      </c>
-      <c r="E139" s="41">
-        <v>5.8333333333333335E-9</v>
-      </c>
-      <c r="F139" s="41">
-        <v>5.8333333333333335E-9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D140" s="61">
-        <v>20</v>
-      </c>
-      <c r="E140" s="39">
-        <v>20</v>
-      </c>
-      <c r="F140" s="39">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="D140" s="52">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="E140" s="41">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="F140" s="41">
+        <v>5.8333333333333335E-9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D141" s="61">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
       <c r="E141" s="39">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
       <c r="F141" s="39">
-        <v>-0.06</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D142" s="61">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="E142" s="39">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="F142" s="39">
-        <v>0.89100000000000001</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D143" s="61">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E143" s="39">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="F143" s="39">
-        <v>1</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" s="61">
+        <v>1</v>
+      </c>
+      <c r="E144" s="39">
+        <v>1</v>
+      </c>
+      <c r="F144" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B145" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C145" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D144" s="61">
+      <c r="D145" s="61">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E144" s="41">
+      <c r="E145" s="41">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F144" s="41">
+      <c r="F145" s="41">
         <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D145" s="51">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="E145" s="83">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="F145" s="83">
-        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D146" s="63">
-        <v>20</v>
-      </c>
-      <c r="E146" s="39">
-        <v>20</v>
-      </c>
-      <c r="F146" s="39">
-        <v>20</v>
+        <v>211</v>
+      </c>
+      <c r="D146" s="51">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E146" s="83">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F146" s="83">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D147" s="63">
-        <v>-4.4200000000000003E-2</v>
+        <v>20</v>
       </c>
       <c r="E147" s="39">
-        <v>-4.4200000000000003E-2</v>
+        <v>20</v>
       </c>
       <c r="F147" s="39">
-        <v>-4.4200000000000003E-2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D148" s="63">
-        <v>1.55</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="E148" s="39">
-        <v>1.55</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="F148" s="39">
-        <v>1.55</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D149" s="63">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="E149" s="39">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="F149" s="39">
-        <v>1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="63">
+        <v>1</v>
+      </c>
+      <c r="E150" s="39">
+        <v>1</v>
+      </c>
+      <c r="F150" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B151" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C151" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D150" s="63">
+      <c r="D151" s="63">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E150" s="39">
+      <c r="E151" s="39">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="F150" s="39">
+      <c r="F151" s="39">
         <v>2.7799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D151" s="73">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="E151" s="41">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F151" s="41">
-        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="D152" s="73">
-        <v>20</v>
-      </c>
-      <c r="E152" s="39">
-        <v>20</v>
-      </c>
-      <c r="F152" s="39">
-        <v>20</v>
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="E152" s="41">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F152" s="41">
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D153" s="73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E153" s="39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F153" s="39">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D154" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D155" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156" s="73">
+        <v>0</v>
+      </c>
+      <c r="E156" s="39">
+        <v>0</v>
+      </c>
+      <c r="F156" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B156" s="27" t="s">
+      <c r="B157" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C157" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D156" s="73">
+      <c r="D157" s="73">
         <v>0.4</v>
       </c>
-      <c r="E156" s="39">
+      <c r="E157" s="39">
         <v>0.4</v>
       </c>
-      <c r="F156" s="39">
+      <c r="F157" s="39">
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B157" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D157" s="58">
-        <v>3.2100000000000002E-6</v>
-      </c>
-      <c r="E157" s="41">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="F157" s="41">
-        <v>2.0000000000000001E-9</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="34" t="s">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>334</v>
+        <v>202</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" s="74">
-        <v>25</v>
-      </c>
-      <c r="E158" s="39">
-        <v>25</v>
-      </c>
-      <c r="F158" s="39">
-        <v>25</v>
+        <v>211</v>
+      </c>
+      <c r="D158" s="58">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="E158" s="41">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="F158" s="41">
+        <v>2.0000000000000001E-9</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D159" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E159" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F159" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D160" s="74">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="E160" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="F160" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D161" s="74">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="E161" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="F161" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" s="74">
+        <v>1</v>
+      </c>
+      <c r="E162" s="39">
+        <v>1</v>
+      </c>
+      <c r="F162" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B163" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C163" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D162" s="58">
+      <c r="D163" s="58">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E162" s="40">
+      <c r="E163" s="40">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="F162" s="40">
+      <c r="F163" s="40">
         <v>1.6666666666666666E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D163" s="53">
-        <v>1E-8</v>
-      </c>
-      <c r="E163" s="41">
-        <v>1E-8</v>
-      </c>
-      <c r="F163" s="41">
-        <v>1E-8</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D164" s="66">
-        <v>20</v>
-      </c>
-      <c r="E164" s="39">
-        <v>20</v>
-      </c>
-      <c r="F164" s="39">
-        <v>20</v>
+        <v>339</v>
+      </c>
+      <c r="D164" s="53">
+        <v>1E-8</v>
+      </c>
+      <c r="E164" s="41">
+        <v>1E-8</v>
+      </c>
+      <c r="F164" s="41">
+        <v>1E-8</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D165" s="66">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E165" s="39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F165" s="39">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D166" s="66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E166" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F166" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D167" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D168" s="53">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E168" s="40">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F168" s="40">
-        <v>8.3333333333333331E-5</v>
+        <v>98</v>
+      </c>
+      <c r="D168" s="66">
+        <v>1</v>
+      </c>
+      <c r="E168" s="39">
+        <v>1</v>
+      </c>
+      <c r="F168" s="39">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" s="53">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E169" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F169" s="40">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B170" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C170" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="66">
+      <c r="D170" s="66">
         <v>1</v>
       </c>
-      <c r="E169" s="39">
+      <c r="E170" s="39">
         <v>1</v>
       </c>
-      <c r="F169" s="39">
+      <c r="F170" s="39">
         <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B170" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="D170" s="59">
-        <v>2.3533050791148895E-8</v>
-      </c>
-      <c r="E170" s="39">
-        <v>2.3533050791148899E-8</v>
-      </c>
-      <c r="F170" s="39">
-        <v>2.3533050791148899E-8</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D171" s="75">
-        <v>20</v>
+        <v>363</v>
+      </c>
+      <c r="D171" s="59">
+        <v>2.3533050791148895E-8</v>
       </c>
       <c r="E171" s="39">
-        <v>20</v>
+        <v>2.3533050791148899E-8</v>
       </c>
       <c r="F171" s="39">
-        <v>20</v>
+        <v>2.3533050791148899E-8</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D172" s="75">
-        <v>-0.187</v>
+        <v>20</v>
       </c>
       <c r="E172" s="39">
-        <v>-0.187</v>
+        <v>20</v>
       </c>
       <c r="F172" s="39">
-        <v>-0.187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D173" s="75">
-        <v>2.48</v>
+        <v>-0.187</v>
       </c>
       <c r="E173" s="39">
-        <v>2.48</v>
+        <v>-0.187</v>
       </c>
       <c r="F173" s="39">
-        <v>2.48</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D174" s="75">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="E174" s="39">
-        <v>1</v>
+        <v>2.48</v>
       </c>
       <c r="F174" s="39">
-        <v>1</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B175" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" s="75">
+        <v>1</v>
+      </c>
+      <c r="E175" s="39">
+        <v>1</v>
+      </c>
+      <c r="F175" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B175" s="29" t="s">
+      <c r="B176" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C175" s="29" t="s">
+      <c r="C176" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D175" s="59">
+      <c r="D176" s="59">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="E175" s="39">
+      <c r="E176" s="39">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="F175" s="39">
+      <c r="F176" s="39">
         <v>6.1060227588121015E-4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D176" s="56">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E176" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="F176" s="39">
-        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D177" s="69">
-        <v>25</v>
+        <v>211</v>
+      </c>
+      <c r="D177" s="56">
+        <v>6.41E-9</v>
       </c>
       <c r="E177" s="39">
-        <v>25</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="F177" s="39">
-        <v>25</v>
+        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D178" s="69">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E178" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F178" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D179" s="69">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="E179" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="F179" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D180" s="69">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="E180" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="F180" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181" s="69">
+        <v>1</v>
+      </c>
+      <c r="E181" s="39">
+        <v>1</v>
+      </c>
+      <c r="F181" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B182" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C182" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D181" s="56">
+      <c r="D182" s="56">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E181" s="40">
+      <c r="E182" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F181" s="40">
+      <c r="F182" s="40">
         <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D182" s="50">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E182" s="39">
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="F182" s="39">
-        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D183" s="62">
-        <v>25</v>
+        <v>211</v>
+      </c>
+      <c r="D183" s="50">
+        <v>6.41E-9</v>
       </c>
       <c r="E183" s="39">
-        <v>25</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="F183" s="39">
-        <v>25</v>
+        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D184" s="62">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E184" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F184" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D185" s="62">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="E185" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="F185" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D186" s="62">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="E186" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="F186" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D187" s="62">
+        <v>1</v>
+      </c>
+      <c r="E187" s="39">
+        <v>1</v>
+      </c>
+      <c r="F187" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B188" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C188" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D187" s="50">
+      <c r="D188" s="50">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E187" s="40">
+      <c r="E188" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F187" s="40">
+      <c r="F188" s="40">
         <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D188" s="60">
-        <v>3.205E-9</v>
-      </c>
-      <c r="E188" s="39">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="F188" s="39">
-        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D189" s="76">
-        <v>25</v>
+        <v>368</v>
+      </c>
+      <c r="D189" s="60">
+        <v>3.205E-9</v>
       </c>
       <c r="E189" s="39">
-        <v>25</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="F189" s="39">
-        <v>25</v>
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="D190" s="76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E190" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F190" s="39">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="D191" s="76">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="E191" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="F191" s="39">
-        <v>3.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C192" s="31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D192" s="76">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="E192" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="F192" s="39">
-        <v>1</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D193" s="76">
+        <v>1</v>
+      </c>
+      <c r="E193" s="39">
+        <v>1</v>
+      </c>
+      <c r="F193" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="B193" s="31" t="s">
+      <c r="B194" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C193" s="31" t="s">
+      <c r="C194" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D193" s="60">
+      <c r="D194" s="60">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E193" s="40">
+      <c r="E194" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="F193" s="40">
+      <c r="F194" s="40">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="32" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B194" s="33" t="s">
+      <c r="B195" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C194" s="33" t="s">
+      <c r="C195" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D194" s="45" t="s">
+      <c r="D195" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E194" s="41" t="s">
+      <c r="E195" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="F194" s="41" t="s">
+      <c r="F195" s="41" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="E119">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6585,8 +6621,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6597,8 +6633,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6609,8 +6645,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6622,7 +6718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6633,8 +6729,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6645,20 +6741,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6670,7 +6754,211 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6682,31 +6970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6718,7 +6982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6730,7 +6994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6741,8 +7005,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="E119">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6753,8 +7017,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="E113:E114">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6765,8 +7029,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6777,8 +7041,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="colorScale" priority="86">
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6789,8 +7053,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E115">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6801,8 +7065,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6813,8 +7077,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6825,152 +7089,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E115">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6982,7 +7102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6993,8 +7113,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7005,20 +7125,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7030,7 +7138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7041,8 +7149,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7053,8 +7161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7065,8 +7173,188 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F116">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F116">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F146">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7078,7 +7366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7089,8 +7377,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="F113:F114">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7101,8 +7389,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7113,8 +7401,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7125,8 +7413,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="F119">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7137,8 +7425,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="F119">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7149,8 +7437,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="F119">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7161,8 +7449,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="F119">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7173,8 +7461,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="F119">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7185,8 +7473,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="E118:F118">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7197,8 +7485,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F115">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="E119:F119">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7209,188 +7497,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F115">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F116">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F116">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112:F113">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="E119:F119">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
